--- a/pabi_budget_plan/xlsx_template/budget_plan_unit_base_20180208.xlsx
+++ b/pabi_budget_plan/xlsx_template/budget_plan_unit_base_20180208.xlsx
@@ -229,7 +229,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00_);[RED]\(#,##0.00\);&quot;&quot;"/>
     <numFmt numFmtId="169" formatCode="0\ ;\-0\ ;0\ ;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -317,6 +317,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -535,7 +541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,6 +726,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,7 +888,7 @@
   </sheetPr>
   <dimension ref="B1:IZ111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -5617,7 +5627,7 @@
   </sheetPr>
   <dimension ref="B1:Z111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -10047,13 +10057,13 @@
   </sheetPr>
   <dimension ref="B1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="10.42"/>
@@ -10091,5978 +10101,5978 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="39" t="str">
-        <f aca="false">IF(E5="","",B5&amp;"-"&amp;E5)</f>
+      <c r="F5" s="46" t="str">
+        <f aca="false">IF(C5="","",B5&amp;"-"&amp;C5&amp;"-"&amp;E5)</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="39" t="str">
-        <f aca="false">IF(E6="","",B6&amp;"-"&amp;E6)</f>
+      <c r="F6" s="46" t="str">
+        <f aca="false">IF(C6="","",B6&amp;"-"&amp;C6&amp;"-"&amp;E6)</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="39" t="str">
-        <f aca="false">IF(E7="","",B7&amp;"-"&amp;E7)</f>
+      <c r="F7" s="46" t="str">
+        <f aca="false">IF(C7="","",B7&amp;"-"&amp;C7&amp;"-"&amp;E7)</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="39" t="str">
-        <f aca="false">IF(E8="","",B8&amp;"-"&amp;E8)</f>
+      <c r="F8" s="46" t="str">
+        <f aca="false">IF(C8="","",B8&amp;"-"&amp;C8&amp;"-"&amp;E8)</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="39" t="str">
-        <f aca="false">IF(E9="","",B9&amp;"-"&amp;E9)</f>
+      <c r="F9" s="46" t="str">
+        <f aca="false">IF(C9="","",B9&amp;"-"&amp;C9&amp;"-"&amp;E9)</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="39" t="str">
-        <f aca="false">IF(E10="","",B10&amp;"-"&amp;E10)</f>
+      <c r="F10" s="46" t="str">
+        <f aca="false">IF(C10="","",B10&amp;"-"&amp;C10&amp;"-"&amp;E10)</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="39" t="str">
-        <f aca="false">IF(E11="","",B11&amp;"-"&amp;E11)</f>
+      <c r="F11" s="46" t="str">
+        <f aca="false">IF(C11="","",B11&amp;"-"&amp;C11&amp;"-"&amp;E11)</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="39" t="str">
-        <f aca="false">IF(E12="","",B12&amp;"-"&amp;E12)</f>
+      <c r="F12" s="46" t="str">
+        <f aca="false">IF(C12="","",B12&amp;"-"&amp;C12&amp;"-"&amp;E12)</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="39" t="str">
-        <f aca="false">IF(E13="","",B13&amp;"-"&amp;E13)</f>
+      <c r="F13" s="46" t="str">
+        <f aca="false">IF(C13="","",B13&amp;"-"&amp;C13&amp;"-"&amp;E13)</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="39" t="str">
-        <f aca="false">IF(E14="","",B14&amp;"-"&amp;E14)</f>
+      <c r="F14" s="46" t="str">
+        <f aca="false">IF(C14="","",B14&amp;"-"&amp;C14&amp;"-"&amp;E14)</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="39" t="str">
-        <f aca="false">IF(E15="","",B15&amp;"-"&amp;E15)</f>
+      <c r="F15" s="46" t="str">
+        <f aca="false">IF(C15="","",B15&amp;"-"&amp;C15&amp;"-"&amp;E15)</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="39" t="str">
-        <f aca="false">IF(E16="","",B16&amp;"-"&amp;E16)</f>
+      <c r="F16" s="46" t="str">
+        <f aca="false">IF(C16="","",B16&amp;"-"&amp;C16&amp;"-"&amp;E16)</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="39" t="str">
-        <f aca="false">IF(E17="","",B17&amp;"-"&amp;E17)</f>
+      <c r="F17" s="46" t="str">
+        <f aca="false">IF(C17="","",B17&amp;"-"&amp;C17&amp;"-"&amp;E17)</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="39" t="str">
-        <f aca="false">IF(E18="","",B18&amp;"-"&amp;E18)</f>
+      <c r="F18" s="46" t="str">
+        <f aca="false">IF(C18="","",B18&amp;"-"&amp;C18&amp;"-"&amp;E18)</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="39" t="str">
-        <f aca="false">IF(E19="","",B19&amp;"-"&amp;E19)</f>
+      <c r="F19" s="46" t="str">
+        <f aca="false">IF(C19="","",B19&amp;"-"&amp;C19&amp;"-"&amp;E19)</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="39" t="str">
-        <f aca="false">IF(E20="","",B20&amp;"-"&amp;E20)</f>
+      <c r="F20" s="46" t="str">
+        <f aca="false">IF(C20="","",B20&amp;"-"&amp;C20&amp;"-"&amp;E20)</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="39" t="str">
-        <f aca="false">IF(E21="","",B21&amp;"-"&amp;E21)</f>
+      <c r="F21" s="46" t="str">
+        <f aca="false">IF(C21="","",B21&amp;"-"&amp;C21&amp;"-"&amp;E21)</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="39" t="str">
-        <f aca="false">IF(E22="","",B22&amp;"-"&amp;E22)</f>
+      <c r="F22" s="46" t="str">
+        <f aca="false">IF(C22="","",B22&amp;"-"&amp;C22&amp;"-"&amp;E22)</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="39" t="str">
-        <f aca="false">IF(E23="","",B23&amp;"-"&amp;E23)</f>
+      <c r="F23" s="46" t="str">
+        <f aca="false">IF(C23="","",B23&amp;"-"&amp;C23&amp;"-"&amp;E23)</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="39" t="str">
-        <f aca="false">IF(E24="","",B24&amp;"-"&amp;E24)</f>
+      <c r="F24" s="46" t="str">
+        <f aca="false">IF(C24="","",B24&amp;"-"&amp;C24&amp;"-"&amp;E24)</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="39" t="str">
-        <f aca="false">IF(E25="","",B25&amp;"-"&amp;E25)</f>
+      <c r="F25" s="46" t="str">
+        <f aca="false">IF(C25="","",B25&amp;"-"&amp;C25&amp;"-"&amp;E25)</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="39" t="str">
-        <f aca="false">IF(E26="","",B26&amp;"-"&amp;E26)</f>
+      <c r="F26" s="46" t="str">
+        <f aca="false">IF(C26="","",B26&amp;"-"&amp;C26&amp;"-"&amp;E26)</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="39" t="str">
-        <f aca="false">IF(E27="","",B27&amp;"-"&amp;E27)</f>
+      <c r="F27" s="46" t="str">
+        <f aca="false">IF(C27="","",B27&amp;"-"&amp;C27&amp;"-"&amp;E27)</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="39" t="str">
-        <f aca="false">IF(E28="","",B28&amp;"-"&amp;E28)</f>
+      <c r="F28" s="46" t="str">
+        <f aca="false">IF(C28="","",B28&amp;"-"&amp;C28&amp;"-"&amp;E28)</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="39" t="str">
-        <f aca="false">IF(E29="","",B29&amp;"-"&amp;E29)</f>
+      <c r="F29" s="46" t="str">
+        <f aca="false">IF(C29="","",B29&amp;"-"&amp;C29&amp;"-"&amp;E29)</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="39" t="str">
-        <f aca="false">IF(E30="","",B30&amp;"-"&amp;E30)</f>
+      <c r="F30" s="46" t="str">
+        <f aca="false">IF(C30="","",B30&amp;"-"&amp;C30&amp;"-"&amp;E30)</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="39" t="str">
-        <f aca="false">IF(E31="","",B31&amp;"-"&amp;E31)</f>
+      <c r="F31" s="46" t="str">
+        <f aca="false">IF(C31="","",B31&amp;"-"&amp;C31&amp;"-"&amp;E31)</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="39" t="str">
-        <f aca="false">IF(E32="","",B32&amp;"-"&amp;E32)</f>
+      <c r="F32" s="46" t="str">
+        <f aca="false">IF(C32="","",B32&amp;"-"&amp;C32&amp;"-"&amp;E32)</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="39" t="str">
-        <f aca="false">IF(E33="","",B33&amp;"-"&amp;E33)</f>
+      <c r="F33" s="46" t="str">
+        <f aca="false">IF(C33="","",B33&amp;"-"&amp;C33&amp;"-"&amp;E33)</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="39" t="str">
-        <f aca="false">IF(E34="","",B34&amp;"-"&amp;E34)</f>
+      <c r="F34" s="46" t="str">
+        <f aca="false">IF(C34="","",B34&amp;"-"&amp;C34&amp;"-"&amp;E34)</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="39" t="str">
-        <f aca="false">IF(E35="","",B35&amp;"-"&amp;E35)</f>
+      <c r="F35" s="46" t="str">
+        <f aca="false">IF(C35="","",B35&amp;"-"&amp;C35&amp;"-"&amp;E35)</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="39" t="str">
-        <f aca="false">IF(E36="","",B36&amp;"-"&amp;E36)</f>
+      <c r="F36" s="46" t="str">
+        <f aca="false">IF(C36="","",B36&amp;"-"&amp;C36&amp;"-"&amp;E36)</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="39" t="str">
-        <f aca="false">IF(E37="","",B37&amp;"-"&amp;E37)</f>
+      <c r="F37" s="46" t="str">
+        <f aca="false">IF(C37="","",B37&amp;"-"&amp;C37&amp;"-"&amp;E37)</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="39" t="str">
-        <f aca="false">IF(E38="","",B38&amp;"-"&amp;E38)</f>
+      <c r="F38" s="46" t="str">
+        <f aca="false">IF(C38="","",B38&amp;"-"&amp;C38&amp;"-"&amp;E38)</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="39" t="str">
-        <f aca="false">IF(E39="","",B39&amp;"-"&amp;E39)</f>
+      <c r="F39" s="46" t="str">
+        <f aca="false">IF(C39="","",B39&amp;"-"&amp;C39&amp;"-"&amp;E39)</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="39" t="str">
-        <f aca="false">IF(E40="","",B40&amp;"-"&amp;E40)</f>
+      <c r="F40" s="46" t="str">
+        <f aca="false">IF(C40="","",B40&amp;"-"&amp;C40&amp;"-"&amp;E40)</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="39" t="str">
-        <f aca="false">IF(E41="","",B41&amp;"-"&amp;E41)</f>
+      <c r="F41" s="46" t="str">
+        <f aca="false">IF(C41="","",B41&amp;"-"&amp;C41&amp;"-"&amp;E41)</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="39" t="str">
-        <f aca="false">IF(E42="","",B42&amp;"-"&amp;E42)</f>
+      <c r="F42" s="46" t="str">
+        <f aca="false">IF(C42="","",B42&amp;"-"&amp;C42&amp;"-"&amp;E42)</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="39" t="str">
-        <f aca="false">IF(E43="","",B43&amp;"-"&amp;E43)</f>
+      <c r="F43" s="46" t="str">
+        <f aca="false">IF(C43="","",B43&amp;"-"&amp;C43&amp;"-"&amp;E43)</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="39" t="str">
-        <f aca="false">IF(E44="","",B44&amp;"-"&amp;E44)</f>
+      <c r="F44" s="46" t="str">
+        <f aca="false">IF(C44="","",B44&amp;"-"&amp;C44&amp;"-"&amp;E44)</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="39" t="str">
-        <f aca="false">IF(E45="","",B45&amp;"-"&amp;E45)</f>
+      <c r="F45" s="46" t="str">
+        <f aca="false">IF(C45="","",B45&amp;"-"&amp;C45&amp;"-"&amp;E45)</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="39" t="str">
-        <f aca="false">IF(E46="","",B46&amp;"-"&amp;E46)</f>
+      <c r="F46" s="46" t="str">
+        <f aca="false">IF(C46="","",B46&amp;"-"&amp;C46&amp;"-"&amp;E46)</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="39" t="str">
-        <f aca="false">IF(E47="","",B47&amp;"-"&amp;E47)</f>
+      <c r="F47" s="46" t="str">
+        <f aca="false">IF(C47="","",B47&amp;"-"&amp;C47&amp;"-"&amp;E47)</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="39" t="str">
-        <f aca="false">IF(E48="","",B48&amp;"-"&amp;E48)</f>
+      <c r="F48" s="46" t="str">
+        <f aca="false">IF(C48="","",B48&amp;"-"&amp;C48&amp;"-"&amp;E48)</f>
         <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="39" t="str">
-        <f aca="false">IF(E49="","",B49&amp;"-"&amp;E49)</f>
+      <c r="F49" s="46" t="str">
+        <f aca="false">IF(C49="","",B49&amp;"-"&amp;C49&amp;"-"&amp;E49)</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="39" t="str">
-        <f aca="false">IF(E50="","",B50&amp;"-"&amp;E50)</f>
+      <c r="F50" s="46" t="str">
+        <f aca="false">IF(C50="","",B50&amp;"-"&amp;C50&amp;"-"&amp;E50)</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="39" t="str">
-        <f aca="false">IF(E51="","",B51&amp;"-"&amp;E51)</f>
+      <c r="F51" s="46" t="str">
+        <f aca="false">IF(C51="","",B51&amp;"-"&amp;C51&amp;"-"&amp;E51)</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="39" t="str">
-        <f aca="false">IF(E52="","",B52&amp;"-"&amp;E52)</f>
+      <c r="F52" s="46" t="str">
+        <f aca="false">IF(C52="","",B52&amp;"-"&amp;C52&amp;"-"&amp;E52)</f>
         <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="39" t="str">
-        <f aca="false">IF(E53="","",B53&amp;"-"&amp;E53)</f>
+      <c r="F53" s="46" t="str">
+        <f aca="false">IF(C53="","",B53&amp;"-"&amp;C53&amp;"-"&amp;E53)</f>
         <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="39" t="str">
-        <f aca="false">IF(E54="","",B54&amp;"-"&amp;E54)</f>
+      <c r="F54" s="46" t="str">
+        <f aca="false">IF(C54="","",B54&amp;"-"&amp;C54&amp;"-"&amp;E54)</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="39" t="str">
-        <f aca="false">IF(E55="","",B55&amp;"-"&amp;E55)</f>
+      <c r="F55" s="46" t="str">
+        <f aca="false">IF(C55="","",B55&amp;"-"&amp;C55&amp;"-"&amp;E55)</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="39" t="str">
-        <f aca="false">IF(E56="","",B56&amp;"-"&amp;E56)</f>
+      <c r="F56" s="46" t="str">
+        <f aca="false">IF(C56="","",B56&amp;"-"&amp;C56&amp;"-"&amp;E56)</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="39" t="str">
-        <f aca="false">IF(E57="","",B57&amp;"-"&amp;E57)</f>
+      <c r="F57" s="46" t="str">
+        <f aca="false">IF(C57="","",B57&amp;"-"&amp;C57&amp;"-"&amp;E57)</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="39" t="str">
-        <f aca="false">IF(E58="","",B58&amp;"-"&amp;E58)</f>
+      <c r="F58" s="46" t="str">
+        <f aca="false">IF(C58="","",B58&amp;"-"&amp;C58&amp;"-"&amp;E58)</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="39" t="str">
-        <f aca="false">IF(E59="","",B59&amp;"-"&amp;E59)</f>
+      <c r="F59" s="46" t="str">
+        <f aca="false">IF(C59="","",B59&amp;"-"&amp;C59&amp;"-"&amp;E59)</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="39" t="str">
-        <f aca="false">IF(E60="","",B60&amp;"-"&amp;E60)</f>
+      <c r="F60" s="46" t="str">
+        <f aca="false">IF(C60="","",B60&amp;"-"&amp;C60&amp;"-"&amp;E60)</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="39" t="str">
-        <f aca="false">IF(E61="","",B61&amp;"-"&amp;E61)</f>
+      <c r="F61" s="46" t="str">
+        <f aca="false">IF(C61="","",B61&amp;"-"&amp;C61&amp;"-"&amp;E61)</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="39" t="str">
-        <f aca="false">IF(E62="","",B62&amp;"-"&amp;E62)</f>
+      <c r="F62" s="46" t="str">
+        <f aca="false">IF(C62="","",B62&amp;"-"&amp;C62&amp;"-"&amp;E62)</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="39" t="str">
-        <f aca="false">IF(E63="","",B63&amp;"-"&amp;E63)</f>
+      <c r="F63" s="46" t="str">
+        <f aca="false">IF(C63="","",B63&amp;"-"&amp;C63&amp;"-"&amp;E63)</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="39" t="str">
-        <f aca="false">IF(E64="","",B64&amp;"-"&amp;E64)</f>
+      <c r="F64" s="46" t="str">
+        <f aca="false">IF(C64="","",B64&amp;"-"&amp;C64&amp;"-"&amp;E64)</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="39" t="str">
-        <f aca="false">IF(E65="","",B65&amp;"-"&amp;E65)</f>
+      <c r="F65" s="46" t="str">
+        <f aca="false">IF(C65="","",B65&amp;"-"&amp;C65&amp;"-"&amp;E65)</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="39" t="str">
-        <f aca="false">IF(E66="","",B66&amp;"-"&amp;E66)</f>
+      <c r="F66" s="46" t="str">
+        <f aca="false">IF(C66="","",B66&amp;"-"&amp;C66&amp;"-"&amp;E66)</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="39" t="str">
-        <f aca="false">IF(E67="","",B67&amp;"-"&amp;E67)</f>
+      <c r="F67" s="46" t="str">
+        <f aca="false">IF(C67="","",B67&amp;"-"&amp;C67&amp;"-"&amp;E67)</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="39" t="str">
-        <f aca="false">IF(E68="","",B68&amp;"-"&amp;E68)</f>
+      <c r="F68" s="46" t="str">
+        <f aca="false">IF(C68="","",B68&amp;"-"&amp;C68&amp;"-"&amp;E68)</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="39" t="str">
-        <f aca="false">IF(E69="","",B69&amp;"-"&amp;E69)</f>
+      <c r="F69" s="46" t="str">
+        <f aca="false">IF(C69="","",B69&amp;"-"&amp;C69&amp;"-"&amp;E69)</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="39" t="str">
-        <f aca="false">IF(E70="","",B70&amp;"-"&amp;E70)</f>
+      <c r="F70" s="46" t="str">
+        <f aca="false">IF(C70="","",B70&amp;"-"&amp;C70&amp;"-"&amp;E70)</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="39" t="str">
-        <f aca="false">IF(E71="","",B71&amp;"-"&amp;E71)</f>
+      <c r="F71" s="46" t="str">
+        <f aca="false">IF(C71="","",B71&amp;"-"&amp;C71&amp;"-"&amp;E71)</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="39" t="str">
-        <f aca="false">IF(E72="","",B72&amp;"-"&amp;E72)</f>
+      <c r="F72" s="46" t="str">
+        <f aca="false">IF(C72="","",B72&amp;"-"&amp;C72&amp;"-"&amp;E72)</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="39" t="str">
-        <f aca="false">IF(E73="","",B73&amp;"-"&amp;E73)</f>
+      <c r="F73" s="46" t="str">
+        <f aca="false">IF(C73="","",B73&amp;"-"&amp;C73&amp;"-"&amp;E73)</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="39" t="str">
-        <f aca="false">IF(E74="","",B74&amp;"-"&amp;E74)</f>
+      <c r="F74" s="46" t="str">
+        <f aca="false">IF(C74="","",B74&amp;"-"&amp;C74&amp;"-"&amp;E74)</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="39" t="str">
-        <f aca="false">IF(E75="","",B75&amp;"-"&amp;E75)</f>
+      <c r="F75" s="46" t="str">
+        <f aca="false">IF(C75="","",B75&amp;"-"&amp;C75&amp;"-"&amp;E75)</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="39" t="str">
-        <f aca="false">IF(E76="","",B76&amp;"-"&amp;E76)</f>
+      <c r="F76" s="46" t="str">
+        <f aca="false">IF(C76="","",B76&amp;"-"&amp;C76&amp;"-"&amp;E76)</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="39" t="str">
-        <f aca="false">IF(E77="","",B77&amp;"-"&amp;E77)</f>
+      <c r="F77" s="46" t="str">
+        <f aca="false">IF(C77="","",B77&amp;"-"&amp;C77&amp;"-"&amp;E77)</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="39" t="str">
-        <f aca="false">IF(E78="","",B78&amp;"-"&amp;E78)</f>
+      <c r="F78" s="46" t="str">
+        <f aca="false">IF(C78="","",B78&amp;"-"&amp;C78&amp;"-"&amp;E78)</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="39" t="str">
-        <f aca="false">IF(E79="","",B79&amp;"-"&amp;E79)</f>
+      <c r="F79" s="46" t="str">
+        <f aca="false">IF(C79="","",B79&amp;"-"&amp;C79&amp;"-"&amp;E79)</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="39" t="str">
-        <f aca="false">IF(E80="","",B80&amp;"-"&amp;E80)</f>
+      <c r="F80" s="46" t="str">
+        <f aca="false">IF(C80="","",B80&amp;"-"&amp;C80&amp;"-"&amp;E80)</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="39" t="str">
-        <f aca="false">IF(E81="","",B81&amp;"-"&amp;E81)</f>
+      <c r="F81" s="46" t="str">
+        <f aca="false">IF(C81="","",B81&amp;"-"&amp;C81&amp;"-"&amp;E81)</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="39" t="str">
-        <f aca="false">IF(E82="","",B82&amp;"-"&amp;E82)</f>
+      <c r="F82" s="46" t="str">
+        <f aca="false">IF(C82="","",B82&amp;"-"&amp;C82&amp;"-"&amp;E82)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="39" t="str">
-        <f aca="false">IF(E83="","",B83&amp;"-"&amp;E83)</f>
+      <c r="F83" s="46" t="str">
+        <f aca="false">IF(C83="","",B83&amp;"-"&amp;C83&amp;"-"&amp;E83)</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="39" t="str">
-        <f aca="false">IF(E84="","",B84&amp;"-"&amp;E84)</f>
+      <c r="F84" s="46" t="str">
+        <f aca="false">IF(C84="","",B84&amp;"-"&amp;C84&amp;"-"&amp;E84)</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F85" s="39" t="str">
-        <f aca="false">IF(E85="","",B85&amp;"-"&amp;E85)</f>
+      <c r="F85" s="46" t="str">
+        <f aca="false">IF(C85="","",B85&amp;"-"&amp;C85&amp;"-"&amp;E85)</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F86" s="39" t="str">
-        <f aca="false">IF(E86="","",B86&amp;"-"&amp;E86)</f>
+      <c r="F86" s="46" t="str">
+        <f aca="false">IF(C86="","",B86&amp;"-"&amp;C86&amp;"-"&amp;E86)</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="39" t="str">
-        <f aca="false">IF(E87="","",B87&amp;"-"&amp;E87)</f>
+      <c r="F87" s="46" t="str">
+        <f aca="false">IF(C87="","",B87&amp;"-"&amp;C87&amp;"-"&amp;E87)</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F88" s="39" t="str">
-        <f aca="false">IF(E88="","",B88&amp;"-"&amp;E88)</f>
+      <c r="F88" s="46" t="str">
+        <f aca="false">IF(C88="","",B88&amp;"-"&amp;C88&amp;"-"&amp;E88)</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="39" t="str">
-        <f aca="false">IF(E89="","",B89&amp;"-"&amp;E89)</f>
+      <c r="F89" s="46" t="str">
+        <f aca="false">IF(C89="","",B89&amp;"-"&amp;C89&amp;"-"&amp;E89)</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F90" s="39" t="str">
-        <f aca="false">IF(E90="","",B90&amp;"-"&amp;E90)</f>
+      <c r="F90" s="46" t="str">
+        <f aca="false">IF(C90="","",B90&amp;"-"&amp;C90&amp;"-"&amp;E90)</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="39" t="str">
-        <f aca="false">IF(E91="","",B91&amp;"-"&amp;E91)</f>
+      <c r="F91" s="46" t="str">
+        <f aca="false">IF(C91="","",B91&amp;"-"&amp;C91&amp;"-"&amp;E91)</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="39" t="str">
-        <f aca="false">IF(E92="","",B92&amp;"-"&amp;E92)</f>
+      <c r="F92" s="46" t="str">
+        <f aca="false">IF(C92="","",B92&amp;"-"&amp;C92&amp;"-"&amp;E92)</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="39" t="str">
-        <f aca="false">IF(E93="","",B93&amp;"-"&amp;E93)</f>
+      <c r="F93" s="46" t="str">
+        <f aca="false">IF(C93="","",B93&amp;"-"&amp;C93&amp;"-"&amp;E93)</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="39" t="str">
-        <f aca="false">IF(E94="","",B94&amp;"-"&amp;E94)</f>
+      <c r="F94" s="46" t="str">
+        <f aca="false">IF(C94="","",B94&amp;"-"&amp;C94&amp;"-"&amp;E94)</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="39" t="str">
-        <f aca="false">IF(E95="","",B95&amp;"-"&amp;E95)</f>
+      <c r="F95" s="46" t="str">
+        <f aca="false">IF(C95="","",B95&amp;"-"&amp;C95&amp;"-"&amp;E95)</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="39" t="str">
-        <f aca="false">IF(E96="","",B96&amp;"-"&amp;E96)</f>
+      <c r="F96" s="46" t="str">
+        <f aca="false">IF(C96="","",B96&amp;"-"&amp;C96&amp;"-"&amp;E96)</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="39" t="str">
-        <f aca="false">IF(E97="","",B97&amp;"-"&amp;E97)</f>
+      <c r="F97" s="46" t="str">
+        <f aca="false">IF(C97="","",B97&amp;"-"&amp;C97&amp;"-"&amp;E97)</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="39" t="str">
-        <f aca="false">IF(E98="","",B98&amp;"-"&amp;E98)</f>
+      <c r="F98" s="46" t="str">
+        <f aca="false">IF(C98="","",B98&amp;"-"&amp;C98&amp;"-"&amp;E98)</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="39" t="str">
-        <f aca="false">IF(E99="","",B99&amp;"-"&amp;E99)</f>
+      <c r="F99" s="46" t="str">
+        <f aca="false">IF(C99="","",B99&amp;"-"&amp;C99&amp;"-"&amp;E99)</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="39" t="str">
-        <f aca="false">IF(E100="","",B100&amp;"-"&amp;E100)</f>
+      <c r="F100" s="46" t="str">
+        <f aca="false">IF(C100="","",B100&amp;"-"&amp;C100&amp;"-"&amp;E100)</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="39" t="str">
-        <f aca="false">IF(E101="","",B101&amp;"-"&amp;E101)</f>
+      <c r="F101" s="46" t="str">
+        <f aca="false">IF(C101="","",B101&amp;"-"&amp;C101&amp;"-"&amp;E101)</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="39" t="str">
-        <f aca="false">IF(E102="","",B102&amp;"-"&amp;E102)</f>
+      <c r="F102" s="46" t="str">
+        <f aca="false">IF(C102="","",B102&amp;"-"&amp;C102&amp;"-"&amp;E102)</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="39" t="str">
-        <f aca="false">IF(E103="","",B103&amp;"-"&amp;E103)</f>
+      <c r="F103" s="46" t="str">
+        <f aca="false">IF(C103="","",B103&amp;"-"&amp;C103&amp;"-"&amp;E103)</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="39" t="str">
-        <f aca="false">IF(E104="","",B104&amp;"-"&amp;E104)</f>
+      <c r="F104" s="46" t="str">
+        <f aca="false">IF(C104="","",B104&amp;"-"&amp;C104&amp;"-"&amp;E104)</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="39" t="str">
-        <f aca="false">IF(E105="","",B105&amp;"-"&amp;E105)</f>
+      <c r="F105" s="46" t="str">
+        <f aca="false">IF(C105="","",B105&amp;"-"&amp;C105&amp;"-"&amp;E105)</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="39" t="str">
-        <f aca="false">IF(E106="","",B106&amp;"-"&amp;E106)</f>
+      <c r="F106" s="46" t="str">
+        <f aca="false">IF(C106="","",B106&amp;"-"&amp;C106&amp;"-"&amp;E106)</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="39" t="str">
-        <f aca="false">IF(E107="","",B107&amp;"-"&amp;E107)</f>
+      <c r="F107" s="46" t="str">
+        <f aca="false">IF(C107="","",B107&amp;"-"&amp;C107&amp;"-"&amp;E107)</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="39" t="str">
-        <f aca="false">IF(E108="","",B108&amp;"-"&amp;E108)</f>
+      <c r="F108" s="46" t="str">
+        <f aca="false">IF(C108="","",B108&amp;"-"&amp;C108&amp;"-"&amp;E108)</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="39" t="str">
-        <f aca="false">IF(E109="","",B109&amp;"-"&amp;E109)</f>
+      <c r="F109" s="46" t="str">
+        <f aca="false">IF(C109="","",B109&amp;"-"&amp;C109&amp;"-"&amp;E109)</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="39" t="str">
-        <f aca="false">IF(E110="","",B110&amp;"-"&amp;E110)</f>
+      <c r="F110" s="46" t="str">
+        <f aca="false">IF(C110="","",B110&amp;"-"&amp;C110&amp;"-"&amp;E110)</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="39" t="str">
-        <f aca="false">IF(E111="","",B111&amp;"-"&amp;E111)</f>
+      <c r="F111" s="46" t="str">
+        <f aca="false">IF(C111="","",B111&amp;"-"&amp;C111&amp;"-"&amp;E111)</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="39" t="str">
-        <f aca="false">IF(E112="","",B112&amp;"-"&amp;E112)</f>
+      <c r="F112" s="46" t="str">
+        <f aca="false">IF(C112="","",B112&amp;"-"&amp;C112&amp;"-"&amp;E112)</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="39" t="str">
-        <f aca="false">IF(E113="","",B113&amp;"-"&amp;E113)</f>
+      <c r="F113" s="46" t="str">
+        <f aca="false">IF(C113="","",B113&amp;"-"&amp;C113&amp;"-"&amp;E113)</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="39" t="str">
-        <f aca="false">IF(E114="","",B114&amp;"-"&amp;E114)</f>
+      <c r="F114" s="46" t="str">
+        <f aca="false">IF(C114="","",B114&amp;"-"&amp;C114&amp;"-"&amp;E114)</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="39" t="str">
-        <f aca="false">IF(E115="","",B115&amp;"-"&amp;E115)</f>
+      <c r="F115" s="46" t="str">
+        <f aca="false">IF(C115="","",B115&amp;"-"&amp;C115&amp;"-"&amp;E115)</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="39" t="str">
-        <f aca="false">IF(E116="","",B116&amp;"-"&amp;E116)</f>
+      <c r="F116" s="46" t="str">
+        <f aca="false">IF(C116="","",B116&amp;"-"&amp;C116&amp;"-"&amp;E116)</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="39" t="str">
-        <f aca="false">IF(E117="","",B117&amp;"-"&amp;E117)</f>
+      <c r="F117" s="46" t="str">
+        <f aca="false">IF(C117="","",B117&amp;"-"&amp;C117&amp;"-"&amp;E117)</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="39" t="str">
-        <f aca="false">IF(E118="","",B118&amp;"-"&amp;E118)</f>
+      <c r="F118" s="46" t="str">
+        <f aca="false">IF(C118="","",B118&amp;"-"&amp;C118&amp;"-"&amp;E118)</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="39" t="str">
-        <f aca="false">IF(E119="","",B119&amp;"-"&amp;E119)</f>
+      <c r="F119" s="46" t="str">
+        <f aca="false">IF(C119="","",B119&amp;"-"&amp;C119&amp;"-"&amp;E119)</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="39" t="str">
-        <f aca="false">IF(E120="","",B120&amp;"-"&amp;E120)</f>
+      <c r="F120" s="46" t="str">
+        <f aca="false">IF(C120="","",B120&amp;"-"&amp;C120&amp;"-"&amp;E120)</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="39" t="str">
-        <f aca="false">IF(E121="","",B121&amp;"-"&amp;E121)</f>
+      <c r="F121" s="46" t="str">
+        <f aca="false">IF(C121="","",B121&amp;"-"&amp;C121&amp;"-"&amp;E121)</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="39" t="str">
-        <f aca="false">IF(E122="","",B122&amp;"-"&amp;E122)</f>
+      <c r="F122" s="46" t="str">
+        <f aca="false">IF(C122="","",B122&amp;"-"&amp;C122&amp;"-"&amp;E122)</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="39" t="str">
-        <f aca="false">IF(E123="","",B123&amp;"-"&amp;E123)</f>
+      <c r="F123" s="46" t="str">
+        <f aca="false">IF(C123="","",B123&amp;"-"&amp;C123&amp;"-"&amp;E123)</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="39" t="str">
-        <f aca="false">IF(E124="","",B124&amp;"-"&amp;E124)</f>
+      <c r="F124" s="46" t="str">
+        <f aca="false">IF(C124="","",B124&amp;"-"&amp;C124&amp;"-"&amp;E124)</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="39" t="str">
-        <f aca="false">IF(E125="","",B125&amp;"-"&amp;E125)</f>
+      <c r="F125" s="46" t="str">
+        <f aca="false">IF(C125="","",B125&amp;"-"&amp;C125&amp;"-"&amp;E125)</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="39" t="str">
-        <f aca="false">IF(E126="","",B126&amp;"-"&amp;E126)</f>
+      <c r="F126" s="46" t="str">
+        <f aca="false">IF(C126="","",B126&amp;"-"&amp;C126&amp;"-"&amp;E126)</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="39" t="str">
-        <f aca="false">IF(E127="","",B127&amp;"-"&amp;E127)</f>
+      <c r="F127" s="46" t="str">
+        <f aca="false">IF(C127="","",B127&amp;"-"&amp;C127&amp;"-"&amp;E127)</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="39" t="str">
-        <f aca="false">IF(E128="","",B128&amp;"-"&amp;E128)</f>
+      <c r="F128" s="46" t="str">
+        <f aca="false">IF(C128="","",B128&amp;"-"&amp;C128&amp;"-"&amp;E128)</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="39" t="str">
-        <f aca="false">IF(E129="","",B129&amp;"-"&amp;E129)</f>
+      <c r="F129" s="46" t="str">
+        <f aca="false">IF(C129="","",B129&amp;"-"&amp;C129&amp;"-"&amp;E129)</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="39" t="str">
-        <f aca="false">IF(E130="","",B130&amp;"-"&amp;E130)</f>
+      <c r="F130" s="46" t="str">
+        <f aca="false">IF(C130="","",B130&amp;"-"&amp;C130&amp;"-"&amp;E130)</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="39" t="str">
-        <f aca="false">IF(E131="","",B131&amp;"-"&amp;E131)</f>
+      <c r="F131" s="46" t="str">
+        <f aca="false">IF(C131="","",B131&amp;"-"&amp;C131&amp;"-"&amp;E131)</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="39" t="str">
-        <f aca="false">IF(E132="","",B132&amp;"-"&amp;E132)</f>
+      <c r="F132" s="46" t="str">
+        <f aca="false">IF(C132="","",B132&amp;"-"&amp;C132&amp;"-"&amp;E132)</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="39" t="str">
-        <f aca="false">IF(E133="","",B133&amp;"-"&amp;E133)</f>
+      <c r="F133" s="46" t="str">
+        <f aca="false">IF(C133="","",B133&amp;"-"&amp;C133&amp;"-"&amp;E133)</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="39" t="str">
-        <f aca="false">IF(E134="","",B134&amp;"-"&amp;E134)</f>
+      <c r="F134" s="46" t="str">
+        <f aca="false">IF(C134="","",B134&amp;"-"&amp;C134&amp;"-"&amp;E134)</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="39" t="str">
-        <f aca="false">IF(E135="","",B135&amp;"-"&amp;E135)</f>
+      <c r="F135" s="46" t="str">
+        <f aca="false">IF(C135="","",B135&amp;"-"&amp;C135&amp;"-"&amp;E135)</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="39" t="str">
-        <f aca="false">IF(E136="","",B136&amp;"-"&amp;E136)</f>
+      <c r="F136" s="46" t="str">
+        <f aca="false">IF(C136="","",B136&amp;"-"&amp;C136&amp;"-"&amp;E136)</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="39" t="str">
-        <f aca="false">IF(E137="","",B137&amp;"-"&amp;E137)</f>
+      <c r="F137" s="46" t="str">
+        <f aca="false">IF(C137="","",B137&amp;"-"&amp;C137&amp;"-"&amp;E137)</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="39" t="str">
-        <f aca="false">IF(E138="","",B138&amp;"-"&amp;E138)</f>
+      <c r="F138" s="46" t="str">
+        <f aca="false">IF(C138="","",B138&amp;"-"&amp;C138&amp;"-"&amp;E138)</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="39" t="str">
-        <f aca="false">IF(E139="","",B139&amp;"-"&amp;E139)</f>
+      <c r="F139" s="46" t="str">
+        <f aca="false">IF(C139="","",B139&amp;"-"&amp;C139&amp;"-"&amp;E139)</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="39" t="str">
-        <f aca="false">IF(E140="","",B140&amp;"-"&amp;E140)</f>
+      <c r="F140" s="46" t="str">
+        <f aca="false">IF(C140="","",B140&amp;"-"&amp;C140&amp;"-"&amp;E140)</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="39" t="str">
-        <f aca="false">IF(E141="","",B141&amp;"-"&amp;E141)</f>
+      <c r="F141" s="46" t="str">
+        <f aca="false">IF(C141="","",B141&amp;"-"&amp;C141&amp;"-"&amp;E141)</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="39" t="str">
-        <f aca="false">IF(E142="","",B142&amp;"-"&amp;E142)</f>
+      <c r="F142" s="46" t="str">
+        <f aca="false">IF(C142="","",B142&amp;"-"&amp;C142&amp;"-"&amp;E142)</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="39" t="str">
-        <f aca="false">IF(E143="","",B143&amp;"-"&amp;E143)</f>
+      <c r="F143" s="46" t="str">
+        <f aca="false">IF(C143="","",B143&amp;"-"&amp;C143&amp;"-"&amp;E143)</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="39" t="str">
-        <f aca="false">IF(E144="","",B144&amp;"-"&amp;E144)</f>
+      <c r="F144" s="46" t="str">
+        <f aca="false">IF(C144="","",B144&amp;"-"&amp;C144&amp;"-"&amp;E144)</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="39" t="str">
-        <f aca="false">IF(E145="","",B145&amp;"-"&amp;E145)</f>
+      <c r="F145" s="46" t="str">
+        <f aca="false">IF(C145="","",B145&amp;"-"&amp;C145&amp;"-"&amp;E145)</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="39" t="str">
-        <f aca="false">IF(E146="","",B146&amp;"-"&amp;E146)</f>
+      <c r="F146" s="46" t="str">
+        <f aca="false">IF(C146="","",B146&amp;"-"&amp;C146&amp;"-"&amp;E146)</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="39" t="str">
-        <f aca="false">IF(E147="","",B147&amp;"-"&amp;E147)</f>
+      <c r="F147" s="46" t="str">
+        <f aca="false">IF(C147="","",B147&amp;"-"&amp;C147&amp;"-"&amp;E147)</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="39" t="str">
-        <f aca="false">IF(E148="","",B148&amp;"-"&amp;E148)</f>
+      <c r="F148" s="46" t="str">
+        <f aca="false">IF(C148="","",B148&amp;"-"&amp;C148&amp;"-"&amp;E148)</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="39" t="str">
-        <f aca="false">IF(E149="","",B149&amp;"-"&amp;E149)</f>
+      <c r="F149" s="46" t="str">
+        <f aca="false">IF(C149="","",B149&amp;"-"&amp;C149&amp;"-"&amp;E149)</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="39" t="str">
-        <f aca="false">IF(E150="","",B150&amp;"-"&amp;E150)</f>
+      <c r="F150" s="46" t="str">
+        <f aca="false">IF(C150="","",B150&amp;"-"&amp;C150&amp;"-"&amp;E150)</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="39" t="str">
-        <f aca="false">IF(E151="","",B151&amp;"-"&amp;E151)</f>
+      <c r="F151" s="46" t="str">
+        <f aca="false">IF(C151="","",B151&amp;"-"&amp;C151&amp;"-"&amp;E151)</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="39" t="str">
-        <f aca="false">IF(E152="","",B152&amp;"-"&amp;E152)</f>
+      <c r="F152" s="46" t="str">
+        <f aca="false">IF(C152="","",B152&amp;"-"&amp;C152&amp;"-"&amp;E152)</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="39" t="str">
-        <f aca="false">IF(E153="","",B153&amp;"-"&amp;E153)</f>
+      <c r="F153" s="46" t="str">
+        <f aca="false">IF(C153="","",B153&amp;"-"&amp;C153&amp;"-"&amp;E153)</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="39" t="str">
-        <f aca="false">IF(E154="","",B154&amp;"-"&amp;E154)</f>
+      <c r="F154" s="46" t="str">
+        <f aca="false">IF(C154="","",B154&amp;"-"&amp;C154&amp;"-"&amp;E154)</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="39" t="str">
-        <f aca="false">IF(E155="","",B155&amp;"-"&amp;E155)</f>
+      <c r="F155" s="46" t="str">
+        <f aca="false">IF(C155="","",B155&amp;"-"&amp;C155&amp;"-"&amp;E155)</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="39" t="str">
-        <f aca="false">IF(E156="","",B156&amp;"-"&amp;E156)</f>
+      <c r="F156" s="46" t="str">
+        <f aca="false">IF(C156="","",B156&amp;"-"&amp;C156&amp;"-"&amp;E156)</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="39" t="str">
-        <f aca="false">IF(E157="","",B157&amp;"-"&amp;E157)</f>
+      <c r="F157" s="46" t="str">
+        <f aca="false">IF(C157="","",B157&amp;"-"&amp;C157&amp;"-"&amp;E157)</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="39" t="str">
-        <f aca="false">IF(E158="","",B158&amp;"-"&amp;E158)</f>
+      <c r="F158" s="46" t="str">
+        <f aca="false">IF(C158="","",B158&amp;"-"&amp;C158&amp;"-"&amp;E158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="39" t="str">
-        <f aca="false">IF(E159="","",B159&amp;"-"&amp;E159)</f>
+      <c r="F159" s="46" t="str">
+        <f aca="false">IF(C159="","",B159&amp;"-"&amp;C159&amp;"-"&amp;E159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="39" t="str">
-        <f aca="false">IF(E160="","",B160&amp;"-"&amp;E160)</f>
+      <c r="F160" s="46" t="str">
+        <f aca="false">IF(C160="","",B160&amp;"-"&amp;C160&amp;"-"&amp;E160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="39" t="str">
-        <f aca="false">IF(E161="","",B161&amp;"-"&amp;E161)</f>
+      <c r="F161" s="46" t="str">
+        <f aca="false">IF(C161="","",B161&amp;"-"&amp;C161&amp;"-"&amp;E161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="39" t="str">
-        <f aca="false">IF(E162="","",B162&amp;"-"&amp;E162)</f>
+      <c r="F162" s="46" t="str">
+        <f aca="false">IF(C162="","",B162&amp;"-"&amp;C162&amp;"-"&amp;E162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="39" t="str">
-        <f aca="false">IF(E163="","",B163&amp;"-"&amp;E163)</f>
+      <c r="F163" s="46" t="str">
+        <f aca="false">IF(C163="","",B163&amp;"-"&amp;C163&amp;"-"&amp;E163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="39" t="str">
-        <f aca="false">IF(E164="","",B164&amp;"-"&amp;E164)</f>
+      <c r="F164" s="46" t="str">
+        <f aca="false">IF(C164="","",B164&amp;"-"&amp;C164&amp;"-"&amp;E164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="39" t="str">
-        <f aca="false">IF(E165="","",B165&amp;"-"&amp;E165)</f>
+      <c r="F165" s="46" t="str">
+        <f aca="false">IF(C165="","",B165&amp;"-"&amp;C165&amp;"-"&amp;E165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="39" t="str">
-        <f aca="false">IF(E166="","",B166&amp;"-"&amp;E166)</f>
+      <c r="F166" s="46" t="str">
+        <f aca="false">IF(C166="","",B166&amp;"-"&amp;C166&amp;"-"&amp;E166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F167" s="39" t="str">
-        <f aca="false">IF(E167="","",B167&amp;"-"&amp;E167)</f>
+      <c r="F167" s="46" t="str">
+        <f aca="false">IF(C167="","",B167&amp;"-"&amp;C167&amp;"-"&amp;E167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="39" t="str">
-        <f aca="false">IF(E168="","",B168&amp;"-"&amp;E168)</f>
+      <c r="F168" s="46" t="str">
+        <f aca="false">IF(C168="","",B168&amp;"-"&amp;C168&amp;"-"&amp;E168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="39" t="str">
-        <f aca="false">IF(E169="","",B169&amp;"-"&amp;E169)</f>
+      <c r="F169" s="46" t="str">
+        <f aca="false">IF(C169="","",B169&amp;"-"&amp;C169&amp;"-"&amp;E169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="39" t="str">
-        <f aca="false">IF(E170="","",B170&amp;"-"&amp;E170)</f>
+      <c r="F170" s="46" t="str">
+        <f aca="false">IF(C170="","",B170&amp;"-"&amp;C170&amp;"-"&amp;E170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="39" t="str">
-        <f aca="false">IF(E171="","",B171&amp;"-"&amp;E171)</f>
+      <c r="F171" s="46" t="str">
+        <f aca="false">IF(C171="","",B171&amp;"-"&amp;C171&amp;"-"&amp;E171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="39" t="str">
-        <f aca="false">IF(E172="","",B172&amp;"-"&amp;E172)</f>
+      <c r="F172" s="46" t="str">
+        <f aca="false">IF(C172="","",B172&amp;"-"&amp;C172&amp;"-"&amp;E172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F173" s="39" t="str">
-        <f aca="false">IF(E173="","",B173&amp;"-"&amp;E173)</f>
+      <c r="F173" s="46" t="str">
+        <f aca="false">IF(C173="","",B173&amp;"-"&amp;C173&amp;"-"&amp;E173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F174" s="39" t="str">
-        <f aca="false">IF(E174="","",B174&amp;"-"&amp;E174)</f>
+      <c r="F174" s="46" t="str">
+        <f aca="false">IF(C174="","",B174&amp;"-"&amp;C174&amp;"-"&amp;E174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="39" t="str">
-        <f aca="false">IF(E175="","",B175&amp;"-"&amp;E175)</f>
+      <c r="F175" s="46" t="str">
+        <f aca="false">IF(C175="","",B175&amp;"-"&amp;C175&amp;"-"&amp;E175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="39" t="str">
-        <f aca="false">IF(E176="","",B176&amp;"-"&amp;E176)</f>
+      <c r="F176" s="46" t="str">
+        <f aca="false">IF(C176="","",B176&amp;"-"&amp;C176&amp;"-"&amp;E176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F177" s="39" t="str">
-        <f aca="false">IF(E177="","",B177&amp;"-"&amp;E177)</f>
+      <c r="F177" s="46" t="str">
+        <f aca="false">IF(C177="","",B177&amp;"-"&amp;C177&amp;"-"&amp;E177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F178" s="39" t="str">
-        <f aca="false">IF(E178="","",B178&amp;"-"&amp;E178)</f>
+      <c r="F178" s="46" t="str">
+        <f aca="false">IF(C178="","",B178&amp;"-"&amp;C178&amp;"-"&amp;E178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F179" s="39" t="str">
-        <f aca="false">IF(E179="","",B179&amp;"-"&amp;E179)</f>
+      <c r="F179" s="46" t="str">
+        <f aca="false">IF(C179="","",B179&amp;"-"&amp;C179&amp;"-"&amp;E179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F180" s="39" t="str">
-        <f aca="false">IF(E180="","",B180&amp;"-"&amp;E180)</f>
+      <c r="F180" s="46" t="str">
+        <f aca="false">IF(C180="","",B180&amp;"-"&amp;C180&amp;"-"&amp;E180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F181" s="39" t="str">
-        <f aca="false">IF(E181="","",B181&amp;"-"&amp;E181)</f>
+      <c r="F181" s="46" t="str">
+        <f aca="false">IF(C181="","",B181&amp;"-"&amp;C181&amp;"-"&amp;E181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F182" s="39" t="str">
-        <f aca="false">IF(E182="","",B182&amp;"-"&amp;E182)</f>
+      <c r="F182" s="46" t="str">
+        <f aca="false">IF(C182="","",B182&amp;"-"&amp;C182&amp;"-"&amp;E182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F183" s="39" t="str">
-        <f aca="false">IF(E183="","",B183&amp;"-"&amp;E183)</f>
+      <c r="F183" s="46" t="str">
+        <f aca="false">IF(C183="","",B183&amp;"-"&amp;C183&amp;"-"&amp;E183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F184" s="39" t="str">
-        <f aca="false">IF(E184="","",B184&amp;"-"&amp;E184)</f>
+      <c r="F184" s="46" t="str">
+        <f aca="false">IF(C184="","",B184&amp;"-"&amp;C184&amp;"-"&amp;E184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F185" s="39" t="str">
-        <f aca="false">IF(E185="","",B185&amp;"-"&amp;E185)</f>
+      <c r="F185" s="46" t="str">
+        <f aca="false">IF(C185="","",B185&amp;"-"&amp;C185&amp;"-"&amp;E185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F186" s="39" t="str">
-        <f aca="false">IF(E186="","",B186&amp;"-"&amp;E186)</f>
+      <c r="F186" s="46" t="str">
+        <f aca="false">IF(C186="","",B186&amp;"-"&amp;C186&amp;"-"&amp;E186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F187" s="39" t="str">
-        <f aca="false">IF(E187="","",B187&amp;"-"&amp;E187)</f>
+      <c r="F187" s="46" t="str">
+        <f aca="false">IF(C187="","",B187&amp;"-"&amp;C187&amp;"-"&amp;E187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F188" s="39" t="str">
-        <f aca="false">IF(E188="","",B188&amp;"-"&amp;E188)</f>
+      <c r="F188" s="46" t="str">
+        <f aca="false">IF(C188="","",B188&amp;"-"&amp;C188&amp;"-"&amp;E188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F189" s="39" t="str">
-        <f aca="false">IF(E189="","",B189&amp;"-"&amp;E189)</f>
+      <c r="F189" s="46" t="str">
+        <f aca="false">IF(C189="","",B189&amp;"-"&amp;C189&amp;"-"&amp;E189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="39" t="str">
-        <f aca="false">IF(E190="","",B190&amp;"-"&amp;E190)</f>
+      <c r="F190" s="46" t="str">
+        <f aca="false">IF(C190="","",B190&amp;"-"&amp;C190&amp;"-"&amp;E190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="39" t="str">
-        <f aca="false">IF(E191="","",B191&amp;"-"&amp;E191)</f>
+      <c r="F191" s="46" t="str">
+        <f aca="false">IF(C191="","",B191&amp;"-"&amp;C191&amp;"-"&amp;E191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F192" s="39" t="str">
-        <f aca="false">IF(E192="","",B192&amp;"-"&amp;E192)</f>
+      <c r="F192" s="46" t="str">
+        <f aca="false">IF(C192="","",B192&amp;"-"&amp;C192&amp;"-"&amp;E192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F193" s="39" t="str">
-        <f aca="false">IF(E193="","",B193&amp;"-"&amp;E193)</f>
+      <c r="F193" s="46" t="str">
+        <f aca="false">IF(C193="","",B193&amp;"-"&amp;C193&amp;"-"&amp;E193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F194" s="39" t="str">
-        <f aca="false">IF(E194="","",B194&amp;"-"&amp;E194)</f>
+      <c r="F194" s="46" t="str">
+        <f aca="false">IF(C194="","",B194&amp;"-"&amp;C194&amp;"-"&amp;E194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F195" s="39" t="str">
-        <f aca="false">IF(E195="","",B195&amp;"-"&amp;E195)</f>
+      <c r="F195" s="46" t="str">
+        <f aca="false">IF(C195="","",B195&amp;"-"&amp;C195&amp;"-"&amp;E195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="39" t="str">
-        <f aca="false">IF(E196="","",B196&amp;"-"&amp;E196)</f>
+      <c r="F196" s="46" t="str">
+        <f aca="false">IF(C196="","",B196&amp;"-"&amp;C196&amp;"-"&amp;E196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="39" t="str">
-        <f aca="false">IF(E197="","",B197&amp;"-"&amp;E197)</f>
+      <c r="F197" s="46" t="str">
+        <f aca="false">IF(C197="","",B197&amp;"-"&amp;C197&amp;"-"&amp;E197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F198" s="39" t="str">
-        <f aca="false">IF(E198="","",B198&amp;"-"&amp;E198)</f>
+      <c r="F198" s="46" t="str">
+        <f aca="false">IF(C198="","",B198&amp;"-"&amp;C198&amp;"-"&amp;E198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="39" t="str">
-        <f aca="false">IF(E199="","",B199&amp;"-"&amp;E199)</f>
+      <c r="F199" s="46" t="str">
+        <f aca="false">IF(C199="","",B199&amp;"-"&amp;C199&amp;"-"&amp;E199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="39" t="str">
-        <f aca="false">IF(E200="","",B200&amp;"-"&amp;E200)</f>
+      <c r="F200" s="46" t="str">
+        <f aca="false">IF(C200="","",B200&amp;"-"&amp;C200&amp;"-"&amp;E200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F201" s="39" t="str">
-        <f aca="false">IF(E201="","",B201&amp;"-"&amp;E201)</f>
+      <c r="F201" s="46" t="str">
+        <f aca="false">IF(C201="","",B201&amp;"-"&amp;C201&amp;"-"&amp;E201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F202" s="39" t="str">
-        <f aca="false">IF(E202="","",B202&amp;"-"&amp;E202)</f>
+      <c r="F202" s="46" t="str">
+        <f aca="false">IF(C202="","",B202&amp;"-"&amp;C202&amp;"-"&amp;E202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F203" s="39" t="str">
-        <f aca="false">IF(E203="","",B203&amp;"-"&amp;E203)</f>
+      <c r="F203" s="46" t="str">
+        <f aca="false">IF(C203="","",B203&amp;"-"&amp;C203&amp;"-"&amp;E203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F204" s="39" t="str">
-        <f aca="false">IF(E204="","",B204&amp;"-"&amp;E204)</f>
+      <c r="F204" s="46" t="str">
+        <f aca="false">IF(C204="","",B204&amp;"-"&amp;C204&amp;"-"&amp;E204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F205" s="39" t="str">
-        <f aca="false">IF(E205="","",B205&amp;"-"&amp;E205)</f>
+      <c r="F205" s="46" t="str">
+        <f aca="false">IF(C205="","",B205&amp;"-"&amp;C205&amp;"-"&amp;E205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F206" s="39" t="str">
-        <f aca="false">IF(E206="","",B206&amp;"-"&amp;E206)</f>
+      <c r="F206" s="46" t="str">
+        <f aca="false">IF(C206="","",B206&amp;"-"&amp;C206&amp;"-"&amp;E206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F207" s="39" t="str">
-        <f aca="false">IF(E207="","",B207&amp;"-"&amp;E207)</f>
+      <c r="F207" s="46" t="str">
+        <f aca="false">IF(C207="","",B207&amp;"-"&amp;C207&amp;"-"&amp;E207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F208" s="39" t="str">
-        <f aca="false">IF(E208="","",B208&amp;"-"&amp;E208)</f>
+      <c r="F208" s="46" t="str">
+        <f aca="false">IF(C208="","",B208&amp;"-"&amp;C208&amp;"-"&amp;E208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F209" s="39" t="str">
-        <f aca="false">IF(E209="","",B209&amp;"-"&amp;E209)</f>
+      <c r="F209" s="46" t="str">
+        <f aca="false">IF(C209="","",B209&amp;"-"&amp;C209&amp;"-"&amp;E209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F210" s="39" t="str">
-        <f aca="false">IF(E210="","",B210&amp;"-"&amp;E210)</f>
+      <c r="F210" s="46" t="str">
+        <f aca="false">IF(C210="","",B210&amp;"-"&amp;C210&amp;"-"&amp;E210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F211" s="39" t="str">
-        <f aca="false">IF(E211="","",B211&amp;"-"&amp;E211)</f>
+      <c r="F211" s="46" t="str">
+        <f aca="false">IF(C211="","",B211&amp;"-"&amp;C211&amp;"-"&amp;E211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F212" s="39" t="str">
-        <f aca="false">IF(E212="","",B212&amp;"-"&amp;E212)</f>
+      <c r="F212" s="46" t="str">
+        <f aca="false">IF(C212="","",B212&amp;"-"&amp;C212&amp;"-"&amp;E212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F213" s="39" t="str">
-        <f aca="false">IF(E213="","",B213&amp;"-"&amp;E213)</f>
+      <c r="F213" s="46" t="str">
+        <f aca="false">IF(C213="","",B213&amp;"-"&amp;C213&amp;"-"&amp;E213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F214" s="39" t="str">
-        <f aca="false">IF(E214="","",B214&amp;"-"&amp;E214)</f>
+      <c r="F214" s="46" t="str">
+        <f aca="false">IF(C214="","",B214&amp;"-"&amp;C214&amp;"-"&amp;E214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F215" s="39" t="str">
-        <f aca="false">IF(E215="","",B215&amp;"-"&amp;E215)</f>
+      <c r="F215" s="46" t="str">
+        <f aca="false">IF(C215="","",B215&amp;"-"&amp;C215&amp;"-"&amp;E215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F216" s="39" t="str">
-        <f aca="false">IF(E216="","",B216&amp;"-"&amp;E216)</f>
+      <c r="F216" s="46" t="str">
+        <f aca="false">IF(C216="","",B216&amp;"-"&amp;C216&amp;"-"&amp;E216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F217" s="39" t="str">
-        <f aca="false">IF(E217="","",B217&amp;"-"&amp;E217)</f>
+      <c r="F217" s="46" t="str">
+        <f aca="false">IF(C217="","",B217&amp;"-"&amp;C217&amp;"-"&amp;E217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F218" s="39" t="str">
-        <f aca="false">IF(E218="","",B218&amp;"-"&amp;E218)</f>
+      <c r="F218" s="46" t="str">
+        <f aca="false">IF(C218="","",B218&amp;"-"&amp;C218&amp;"-"&amp;E218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F219" s="39" t="str">
-        <f aca="false">IF(E219="","",B219&amp;"-"&amp;E219)</f>
+      <c r="F219" s="46" t="str">
+        <f aca="false">IF(C219="","",B219&amp;"-"&amp;C219&amp;"-"&amp;E219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F220" s="39" t="str">
-        <f aca="false">IF(E220="","",B220&amp;"-"&amp;E220)</f>
+      <c r="F220" s="46" t="str">
+        <f aca="false">IF(C220="","",B220&amp;"-"&amp;C220&amp;"-"&amp;E220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F221" s="39" t="str">
-        <f aca="false">IF(E221="","",B221&amp;"-"&amp;E221)</f>
+      <c r="F221" s="46" t="str">
+        <f aca="false">IF(C221="","",B221&amp;"-"&amp;C221&amp;"-"&amp;E221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F222" s="39" t="str">
-        <f aca="false">IF(E222="","",B222&amp;"-"&amp;E222)</f>
+      <c r="F222" s="46" t="str">
+        <f aca="false">IF(C222="","",B222&amp;"-"&amp;C222&amp;"-"&amp;E222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F223" s="39" t="str">
-        <f aca="false">IF(E223="","",B223&amp;"-"&amp;E223)</f>
+      <c r="F223" s="46" t="str">
+        <f aca="false">IF(C223="","",B223&amp;"-"&amp;C223&amp;"-"&amp;E223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F224" s="39" t="str">
-        <f aca="false">IF(E224="","",B224&amp;"-"&amp;E224)</f>
+      <c r="F224" s="46" t="str">
+        <f aca="false">IF(C224="","",B224&amp;"-"&amp;C224&amp;"-"&amp;E224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F225" s="39" t="str">
-        <f aca="false">IF(E225="","",B225&amp;"-"&amp;E225)</f>
+      <c r="F225" s="46" t="str">
+        <f aca="false">IF(C225="","",B225&amp;"-"&amp;C225&amp;"-"&amp;E225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F226" s="39" t="str">
-        <f aca="false">IF(E226="","",B226&amp;"-"&amp;E226)</f>
+      <c r="F226" s="46" t="str">
+        <f aca="false">IF(C226="","",B226&amp;"-"&amp;C226&amp;"-"&amp;E226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F227" s="39" t="str">
-        <f aca="false">IF(E227="","",B227&amp;"-"&amp;E227)</f>
+      <c r="F227" s="46" t="str">
+        <f aca="false">IF(C227="","",B227&amp;"-"&amp;C227&amp;"-"&amp;E227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F228" s="39" t="str">
-        <f aca="false">IF(E228="","",B228&amp;"-"&amp;E228)</f>
+      <c r="F228" s="46" t="str">
+        <f aca="false">IF(C228="","",B228&amp;"-"&amp;C228&amp;"-"&amp;E228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F229" s="39" t="str">
-        <f aca="false">IF(E229="","",B229&amp;"-"&amp;E229)</f>
+      <c r="F229" s="46" t="str">
+        <f aca="false">IF(C229="","",B229&amp;"-"&amp;C229&amp;"-"&amp;E229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F230" s="39" t="str">
-        <f aca="false">IF(E230="","",B230&amp;"-"&amp;E230)</f>
+      <c r="F230" s="46" t="str">
+        <f aca="false">IF(C230="","",B230&amp;"-"&amp;C230&amp;"-"&amp;E230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F231" s="39" t="str">
-        <f aca="false">IF(E231="","",B231&amp;"-"&amp;E231)</f>
+      <c r="F231" s="46" t="str">
+        <f aca="false">IF(C231="","",B231&amp;"-"&amp;C231&amp;"-"&amp;E231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F232" s="39" t="str">
-        <f aca="false">IF(E232="","",B232&amp;"-"&amp;E232)</f>
+      <c r="F232" s="46" t="str">
+        <f aca="false">IF(C232="","",B232&amp;"-"&amp;C232&amp;"-"&amp;E232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F233" s="39" t="str">
-        <f aca="false">IF(E233="","",B233&amp;"-"&amp;E233)</f>
+      <c r="F233" s="46" t="str">
+        <f aca="false">IF(C233="","",B233&amp;"-"&amp;C233&amp;"-"&amp;E233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F234" s="39" t="str">
-        <f aca="false">IF(E234="","",B234&amp;"-"&amp;E234)</f>
+      <c r="F234" s="46" t="str">
+        <f aca="false">IF(C234="","",B234&amp;"-"&amp;C234&amp;"-"&amp;E234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F235" s="39" t="str">
-        <f aca="false">IF(E235="","",B235&amp;"-"&amp;E235)</f>
+      <c r="F235" s="46" t="str">
+        <f aca="false">IF(C235="","",B235&amp;"-"&amp;C235&amp;"-"&amp;E235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F236" s="39" t="str">
-        <f aca="false">IF(E236="","",B236&amp;"-"&amp;E236)</f>
+      <c r="F236" s="46" t="str">
+        <f aca="false">IF(C236="","",B236&amp;"-"&amp;C236&amp;"-"&amp;E236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F237" s="39" t="str">
-        <f aca="false">IF(E237="","",B237&amp;"-"&amp;E237)</f>
+      <c r="F237" s="46" t="str">
+        <f aca="false">IF(C237="","",B237&amp;"-"&amp;C237&amp;"-"&amp;E237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F238" s="39" t="str">
-        <f aca="false">IF(E238="","",B238&amp;"-"&amp;E238)</f>
+      <c r="F238" s="46" t="str">
+        <f aca="false">IF(C238="","",B238&amp;"-"&amp;C238&amp;"-"&amp;E238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F239" s="39" t="str">
-        <f aca="false">IF(E239="","",B239&amp;"-"&amp;E239)</f>
+      <c r="F239" s="46" t="str">
+        <f aca="false">IF(C239="","",B239&amp;"-"&amp;C239&amp;"-"&amp;E239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F240" s="39" t="str">
-        <f aca="false">IF(E240="","",B240&amp;"-"&amp;E240)</f>
+      <c r="F240" s="46" t="str">
+        <f aca="false">IF(C240="","",B240&amp;"-"&amp;C240&amp;"-"&amp;E240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="39" t="str">
-        <f aca="false">IF(E241="","",B241&amp;"-"&amp;E241)</f>
+      <c r="F241" s="46" t="str">
+        <f aca="false">IF(C241="","",B241&amp;"-"&amp;C241&amp;"-"&amp;E241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="39" t="str">
-        <f aca="false">IF(E242="","",B242&amp;"-"&amp;E242)</f>
+      <c r="F242" s="46" t="str">
+        <f aca="false">IF(C242="","",B242&amp;"-"&amp;C242&amp;"-"&amp;E242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="39" t="str">
-        <f aca="false">IF(E243="","",B243&amp;"-"&amp;E243)</f>
+      <c r="F243" s="46" t="str">
+        <f aca="false">IF(C243="","",B243&amp;"-"&amp;C243&amp;"-"&amp;E243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="39" t="str">
-        <f aca="false">IF(E244="","",B244&amp;"-"&amp;E244)</f>
+      <c r="F244" s="46" t="str">
+        <f aca="false">IF(C244="","",B244&amp;"-"&amp;C244&amp;"-"&amp;E244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="39" t="str">
-        <f aca="false">IF(E245="","",B245&amp;"-"&amp;E245)</f>
+      <c r="F245" s="46" t="str">
+        <f aca="false">IF(C245="","",B245&amp;"-"&amp;C245&amp;"-"&amp;E245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="39" t="str">
-        <f aca="false">IF(E246="","",B246&amp;"-"&amp;E246)</f>
+      <c r="F246" s="46" t="str">
+        <f aca="false">IF(C246="","",B246&amp;"-"&amp;C246&amp;"-"&amp;E246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="39" t="str">
-        <f aca="false">IF(E247="","",B247&amp;"-"&amp;E247)</f>
+      <c r="F247" s="46" t="str">
+        <f aca="false">IF(C247="","",B247&amp;"-"&amp;C247&amp;"-"&amp;E247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F248" s="39" t="str">
-        <f aca="false">IF(E248="","",B248&amp;"-"&amp;E248)</f>
+      <c r="F248" s="46" t="str">
+        <f aca="false">IF(C248="","",B248&amp;"-"&amp;C248&amp;"-"&amp;E248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F249" s="39" t="str">
-        <f aca="false">IF(E249="","",B249&amp;"-"&amp;E249)</f>
+      <c r="F249" s="46" t="str">
+        <f aca="false">IF(C249="","",B249&amp;"-"&amp;C249&amp;"-"&amp;E249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F250" s="39" t="str">
-        <f aca="false">IF(E250="","",B250&amp;"-"&amp;E250)</f>
+      <c r="F250" s="46" t="str">
+        <f aca="false">IF(C250="","",B250&amp;"-"&amp;C250&amp;"-"&amp;E250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F251" s="39" t="str">
-        <f aca="false">IF(E251="","",B251&amp;"-"&amp;E251)</f>
+      <c r="F251" s="46" t="str">
+        <f aca="false">IF(C251="","",B251&amp;"-"&amp;C251&amp;"-"&amp;E251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F252" s="39" t="str">
-        <f aca="false">IF(E252="","",B252&amp;"-"&amp;E252)</f>
+      <c r="F252" s="46" t="str">
+        <f aca="false">IF(C252="","",B252&amp;"-"&amp;C252&amp;"-"&amp;E252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="39" t="str">
-        <f aca="false">IF(E253="","",B253&amp;"-"&amp;E253)</f>
+      <c r="F253" s="46" t="str">
+        <f aca="false">IF(C253="","",B253&amp;"-"&amp;C253&amp;"-"&amp;E253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F254" s="39" t="str">
-        <f aca="false">IF(E254="","",B254&amp;"-"&amp;E254)</f>
+      <c r="F254" s="46" t="str">
+        <f aca="false">IF(C254="","",B254&amp;"-"&amp;C254&amp;"-"&amp;E254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F255" s="39" t="str">
-        <f aca="false">IF(E255="","",B255&amp;"-"&amp;E255)</f>
+      <c r="F255" s="46" t="str">
+        <f aca="false">IF(C255="","",B255&amp;"-"&amp;C255&amp;"-"&amp;E255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F256" s="39" t="str">
-        <f aca="false">IF(E256="","",B256&amp;"-"&amp;E256)</f>
+      <c r="F256" s="46" t="str">
+        <f aca="false">IF(C256="","",B256&amp;"-"&amp;C256&amp;"-"&amp;E256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F257" s="39" t="str">
-        <f aca="false">IF(E257="","",B257&amp;"-"&amp;E257)</f>
+      <c r="F257" s="46" t="str">
+        <f aca="false">IF(C257="","",B257&amp;"-"&amp;C257&amp;"-"&amp;E257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F258" s="39" t="str">
-        <f aca="false">IF(E258="","",B258&amp;"-"&amp;E258)</f>
+      <c r="F258" s="46" t="str">
+        <f aca="false">IF(C258="","",B258&amp;"-"&amp;C258&amp;"-"&amp;E258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F259" s="39" t="str">
-        <f aca="false">IF(E259="","",B259&amp;"-"&amp;E259)</f>
+      <c r="F259" s="46" t="str">
+        <f aca="false">IF(C259="","",B259&amp;"-"&amp;C259&amp;"-"&amp;E259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F260" s="39" t="str">
-        <f aca="false">IF(E260="","",B260&amp;"-"&amp;E260)</f>
+      <c r="F260" s="46" t="str">
+        <f aca="false">IF(C260="","",B260&amp;"-"&amp;C260&amp;"-"&amp;E260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F261" s="39" t="str">
-        <f aca="false">IF(E261="","",B261&amp;"-"&amp;E261)</f>
+      <c r="F261" s="46" t="str">
+        <f aca="false">IF(C261="","",B261&amp;"-"&amp;C261&amp;"-"&amp;E261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F262" s="39" t="str">
-        <f aca="false">IF(E262="","",B262&amp;"-"&amp;E262)</f>
+      <c r="F262" s="46" t="str">
+        <f aca="false">IF(C262="","",B262&amp;"-"&amp;C262&amp;"-"&amp;E262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F263" s="39" t="str">
-        <f aca="false">IF(E263="","",B263&amp;"-"&amp;E263)</f>
+      <c r="F263" s="46" t="str">
+        <f aca="false">IF(C263="","",B263&amp;"-"&amp;C263&amp;"-"&amp;E263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F264" s="39" t="str">
-        <f aca="false">IF(E264="","",B264&amp;"-"&amp;E264)</f>
+      <c r="F264" s="46" t="str">
+        <f aca="false">IF(C264="","",B264&amp;"-"&amp;C264&amp;"-"&amp;E264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F265" s="39" t="str">
-        <f aca="false">IF(E265="","",B265&amp;"-"&amp;E265)</f>
+      <c r="F265" s="46" t="str">
+        <f aca="false">IF(C265="","",B265&amp;"-"&amp;C265&amp;"-"&amp;E265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F266" s="39" t="str">
-        <f aca="false">IF(E266="","",B266&amp;"-"&amp;E266)</f>
+      <c r="F266" s="46" t="str">
+        <f aca="false">IF(C266="","",B266&amp;"-"&amp;C266&amp;"-"&amp;E266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F267" s="39" t="str">
-        <f aca="false">IF(E267="","",B267&amp;"-"&amp;E267)</f>
+      <c r="F267" s="46" t="str">
+        <f aca="false">IF(C267="","",B267&amp;"-"&amp;C267&amp;"-"&amp;E267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F268" s="39" t="str">
-        <f aca="false">IF(E268="","",B268&amp;"-"&amp;E268)</f>
+      <c r="F268" s="46" t="str">
+        <f aca="false">IF(C268="","",B268&amp;"-"&amp;C268&amp;"-"&amp;E268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F269" s="39" t="str">
-        <f aca="false">IF(E269="","",B269&amp;"-"&amp;E269)</f>
+      <c r="F269" s="46" t="str">
+        <f aca="false">IF(C269="","",B269&amp;"-"&amp;C269&amp;"-"&amp;E269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F270" s="39" t="str">
-        <f aca="false">IF(E270="","",B270&amp;"-"&amp;E270)</f>
+      <c r="F270" s="46" t="str">
+        <f aca="false">IF(C270="","",B270&amp;"-"&amp;C270&amp;"-"&amp;E270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F271" s="39" t="str">
-        <f aca="false">IF(E271="","",B271&amp;"-"&amp;E271)</f>
+      <c r="F271" s="46" t="str">
+        <f aca="false">IF(C271="","",B271&amp;"-"&amp;C271&amp;"-"&amp;E271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F272" s="39" t="str">
-        <f aca="false">IF(E272="","",B272&amp;"-"&amp;E272)</f>
+      <c r="F272" s="46" t="str">
+        <f aca="false">IF(C272="","",B272&amp;"-"&amp;C272&amp;"-"&amp;E272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F273" s="39" t="str">
-        <f aca="false">IF(E273="","",B273&amp;"-"&amp;E273)</f>
+      <c r="F273" s="46" t="str">
+        <f aca="false">IF(C273="","",B273&amp;"-"&amp;C273&amp;"-"&amp;E273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F274" s="39" t="str">
-        <f aca="false">IF(E274="","",B274&amp;"-"&amp;E274)</f>
+      <c r="F274" s="46" t="str">
+        <f aca="false">IF(C274="","",B274&amp;"-"&amp;C274&amp;"-"&amp;E274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F275" s="39" t="str">
-        <f aca="false">IF(E275="","",B275&amp;"-"&amp;E275)</f>
+      <c r="F275" s="46" t="str">
+        <f aca="false">IF(C275="","",B275&amp;"-"&amp;C275&amp;"-"&amp;E275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F276" s="39" t="str">
-        <f aca="false">IF(E276="","",B276&amp;"-"&amp;E276)</f>
+      <c r="F276" s="46" t="str">
+        <f aca="false">IF(C276="","",B276&amp;"-"&amp;C276&amp;"-"&amp;E276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F277" s="39" t="str">
-        <f aca="false">IF(E277="","",B277&amp;"-"&amp;E277)</f>
+      <c r="F277" s="46" t="str">
+        <f aca="false">IF(C277="","",B277&amp;"-"&amp;C277&amp;"-"&amp;E277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F278" s="39" t="str">
-        <f aca="false">IF(E278="","",B278&amp;"-"&amp;E278)</f>
+      <c r="F278" s="46" t="str">
+        <f aca="false">IF(C278="","",B278&amp;"-"&amp;C278&amp;"-"&amp;E278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F279" s="39" t="str">
-        <f aca="false">IF(E279="","",B279&amp;"-"&amp;E279)</f>
+      <c r="F279" s="46" t="str">
+        <f aca="false">IF(C279="","",B279&amp;"-"&amp;C279&amp;"-"&amp;E279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F280" s="39" t="str">
-        <f aca="false">IF(E280="","",B280&amp;"-"&amp;E280)</f>
+      <c r="F280" s="46" t="str">
+        <f aca="false">IF(C280="","",B280&amp;"-"&amp;C280&amp;"-"&amp;E280)</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F281" s="39" t="str">
-        <f aca="false">IF(E281="","",B281&amp;"-"&amp;E281)</f>
+      <c r="F281" s="46" t="str">
+        <f aca="false">IF(C281="","",B281&amp;"-"&amp;C281&amp;"-"&amp;E281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F282" s="39" t="str">
-        <f aca="false">IF(E282="","",B282&amp;"-"&amp;E282)</f>
+      <c r="F282" s="46" t="str">
+        <f aca="false">IF(C282="","",B282&amp;"-"&amp;C282&amp;"-"&amp;E282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F283" s="39" t="str">
-        <f aca="false">IF(E283="","",B283&amp;"-"&amp;E283)</f>
+      <c r="F283" s="46" t="str">
+        <f aca="false">IF(C283="","",B283&amp;"-"&amp;C283&amp;"-"&amp;E283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F284" s="39" t="str">
-        <f aca="false">IF(E284="","",B284&amp;"-"&amp;E284)</f>
+      <c r="F284" s="46" t="str">
+        <f aca="false">IF(C284="","",B284&amp;"-"&amp;C284&amp;"-"&amp;E284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F285" s="39" t="str">
-        <f aca="false">IF(E285="","",B285&amp;"-"&amp;E285)</f>
+      <c r="F285" s="46" t="str">
+        <f aca="false">IF(C285="","",B285&amp;"-"&amp;C285&amp;"-"&amp;E285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F286" s="39" t="str">
-        <f aca="false">IF(E286="","",B286&amp;"-"&amp;E286)</f>
+      <c r="F286" s="46" t="str">
+        <f aca="false">IF(C286="","",B286&amp;"-"&amp;C286&amp;"-"&amp;E286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F287" s="39" t="str">
-        <f aca="false">IF(E287="","",B287&amp;"-"&amp;E287)</f>
+      <c r="F287" s="46" t="str">
+        <f aca="false">IF(C287="","",B287&amp;"-"&amp;C287&amp;"-"&amp;E287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F288" s="39" t="str">
-        <f aca="false">IF(E288="","",B288&amp;"-"&amp;E288)</f>
+      <c r="F288" s="46" t="str">
+        <f aca="false">IF(C288="","",B288&amp;"-"&amp;C288&amp;"-"&amp;E288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F289" s="39" t="str">
-        <f aca="false">IF(E289="","",B289&amp;"-"&amp;E289)</f>
+      <c r="F289" s="46" t="str">
+        <f aca="false">IF(C289="","",B289&amp;"-"&amp;C289&amp;"-"&amp;E289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F290" s="39" t="str">
-        <f aca="false">IF(E290="","",B290&amp;"-"&amp;E290)</f>
+      <c r="F290" s="46" t="str">
+        <f aca="false">IF(C290="","",B290&amp;"-"&amp;C290&amp;"-"&amp;E290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F291" s="39" t="str">
-        <f aca="false">IF(E291="","",B291&amp;"-"&amp;E291)</f>
+      <c r="F291" s="46" t="str">
+        <f aca="false">IF(C291="","",B291&amp;"-"&amp;C291&amp;"-"&amp;E291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F292" s="39" t="str">
-        <f aca="false">IF(E292="","",B292&amp;"-"&amp;E292)</f>
+      <c r="F292" s="46" t="str">
+        <f aca="false">IF(C292="","",B292&amp;"-"&amp;C292&amp;"-"&amp;E292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F293" s="39" t="str">
-        <f aca="false">IF(E293="","",B293&amp;"-"&amp;E293)</f>
+      <c r="F293" s="46" t="str">
+        <f aca="false">IF(C293="","",B293&amp;"-"&amp;C293&amp;"-"&amp;E293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F294" s="39" t="str">
-        <f aca="false">IF(E294="","",B294&amp;"-"&amp;E294)</f>
+      <c r="F294" s="46" t="str">
+        <f aca="false">IF(C294="","",B294&amp;"-"&amp;C294&amp;"-"&amp;E294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F295" s="39" t="str">
-        <f aca="false">IF(E295="","",B295&amp;"-"&amp;E295)</f>
+      <c r="F295" s="46" t="str">
+        <f aca="false">IF(C295="","",B295&amp;"-"&amp;C295&amp;"-"&amp;E295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F296" s="39" t="str">
-        <f aca="false">IF(E296="","",B296&amp;"-"&amp;E296)</f>
+      <c r="F296" s="46" t="str">
+        <f aca="false">IF(C296="","",B296&amp;"-"&amp;C296&amp;"-"&amp;E296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F297" s="39" t="str">
-        <f aca="false">IF(E297="","",B297&amp;"-"&amp;E297)</f>
+      <c r="F297" s="46" t="str">
+        <f aca="false">IF(C297="","",B297&amp;"-"&amp;C297&amp;"-"&amp;E297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F298" s="39" t="str">
-        <f aca="false">IF(E298="","",B298&amp;"-"&amp;E298)</f>
+      <c r="F298" s="46" t="str">
+        <f aca="false">IF(C298="","",B298&amp;"-"&amp;C298&amp;"-"&amp;E298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F299" s="39" t="str">
-        <f aca="false">IF(E299="","",B299&amp;"-"&amp;E299)</f>
+      <c r="F299" s="46" t="str">
+        <f aca="false">IF(C299="","",B299&amp;"-"&amp;C299&amp;"-"&amp;E299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F300" s="39" t="str">
-        <f aca="false">IF(E300="","",B300&amp;"-"&amp;E300)</f>
+      <c r="F300" s="46" t="str">
+        <f aca="false">IF(C300="","",B300&amp;"-"&amp;C300&amp;"-"&amp;E300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F301" s="39" t="str">
-        <f aca="false">IF(E301="","",B301&amp;"-"&amp;E301)</f>
+      <c r="F301" s="46" t="str">
+        <f aca="false">IF(C301="","",B301&amp;"-"&amp;C301&amp;"-"&amp;E301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F302" s="39" t="str">
-        <f aca="false">IF(E302="","",B302&amp;"-"&amp;E302)</f>
+      <c r="F302" s="46" t="str">
+        <f aca="false">IF(C302="","",B302&amp;"-"&amp;C302&amp;"-"&amp;E302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F303" s="39" t="str">
-        <f aca="false">IF(E303="","",B303&amp;"-"&amp;E303)</f>
+      <c r="F303" s="46" t="str">
+        <f aca="false">IF(C303="","",B303&amp;"-"&amp;C303&amp;"-"&amp;E303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F304" s="39" t="str">
-        <f aca="false">IF(E304="","",B304&amp;"-"&amp;E304)</f>
+      <c r="F304" s="46" t="str">
+        <f aca="false">IF(C304="","",B304&amp;"-"&amp;C304&amp;"-"&amp;E304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F305" s="39" t="str">
-        <f aca="false">IF(E305="","",B305&amp;"-"&amp;E305)</f>
+      <c r="F305" s="46" t="str">
+        <f aca="false">IF(C305="","",B305&amp;"-"&amp;C305&amp;"-"&amp;E305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F306" s="39" t="str">
-        <f aca="false">IF(E306="","",B306&amp;"-"&amp;E306)</f>
+      <c r="F306" s="46" t="str">
+        <f aca="false">IF(C306="","",B306&amp;"-"&amp;C306&amp;"-"&amp;E306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F307" s="39" t="str">
-        <f aca="false">IF(E307="","",B307&amp;"-"&amp;E307)</f>
+      <c r="F307" s="46" t="str">
+        <f aca="false">IF(C307="","",B307&amp;"-"&amp;C307&amp;"-"&amp;E307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F308" s="39" t="str">
-        <f aca="false">IF(E308="","",B308&amp;"-"&amp;E308)</f>
+      <c r="F308" s="46" t="str">
+        <f aca="false">IF(C308="","",B308&amp;"-"&amp;C308&amp;"-"&amp;E308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F309" s="39" t="str">
-        <f aca="false">IF(E309="","",B309&amp;"-"&amp;E309)</f>
+      <c r="F309" s="46" t="str">
+        <f aca="false">IF(C309="","",B309&amp;"-"&amp;C309&amp;"-"&amp;E309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F310" s="39" t="str">
-        <f aca="false">IF(E310="","",B310&amp;"-"&amp;E310)</f>
+      <c r="F310" s="46" t="str">
+        <f aca="false">IF(C310="","",B310&amp;"-"&amp;C310&amp;"-"&amp;E310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F311" s="39" t="str">
-        <f aca="false">IF(E311="","",B311&amp;"-"&amp;E311)</f>
+      <c r="F311" s="46" t="str">
+        <f aca="false">IF(C311="","",B311&amp;"-"&amp;C311&amp;"-"&amp;E311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F312" s="39" t="str">
-        <f aca="false">IF(E312="","",B312&amp;"-"&amp;E312)</f>
+      <c r="F312" s="46" t="str">
+        <f aca="false">IF(C312="","",B312&amp;"-"&amp;C312&amp;"-"&amp;E312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F313" s="39" t="str">
-        <f aca="false">IF(E313="","",B313&amp;"-"&amp;E313)</f>
+      <c r="F313" s="46" t="str">
+        <f aca="false">IF(C313="","",B313&amp;"-"&amp;C313&amp;"-"&amp;E313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F314" s="39" t="str">
-        <f aca="false">IF(E314="","",B314&amp;"-"&amp;E314)</f>
+      <c r="F314" s="46" t="str">
+        <f aca="false">IF(C314="","",B314&amp;"-"&amp;C314&amp;"-"&amp;E314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F315" s="39" t="str">
-        <f aca="false">IF(E315="","",B315&amp;"-"&amp;E315)</f>
+      <c r="F315" s="46" t="str">
+        <f aca="false">IF(C315="","",B315&amp;"-"&amp;C315&amp;"-"&amp;E315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F316" s="39" t="str">
-        <f aca="false">IF(E316="","",B316&amp;"-"&amp;E316)</f>
+      <c r="F316" s="46" t="str">
+        <f aca="false">IF(C316="","",B316&amp;"-"&amp;C316&amp;"-"&amp;E316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F317" s="39" t="str">
-        <f aca="false">IF(E317="","",B317&amp;"-"&amp;E317)</f>
+      <c r="F317" s="46" t="str">
+        <f aca="false">IF(C317="","",B317&amp;"-"&amp;C317&amp;"-"&amp;E317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F318" s="39" t="str">
-        <f aca="false">IF(E318="","",B318&amp;"-"&amp;E318)</f>
+      <c r="F318" s="46" t="str">
+        <f aca="false">IF(C318="","",B318&amp;"-"&amp;C318&amp;"-"&amp;E318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F319" s="39" t="str">
-        <f aca="false">IF(E319="","",B319&amp;"-"&amp;E319)</f>
+      <c r="F319" s="46" t="str">
+        <f aca="false">IF(C319="","",B319&amp;"-"&amp;C319&amp;"-"&amp;E319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F320" s="39" t="str">
-        <f aca="false">IF(E320="","",B320&amp;"-"&amp;E320)</f>
+      <c r="F320" s="46" t="str">
+        <f aca="false">IF(C320="","",B320&amp;"-"&amp;C320&amp;"-"&amp;E320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F321" s="39" t="str">
-        <f aca="false">IF(E321="","",B321&amp;"-"&amp;E321)</f>
+      <c r="F321" s="46" t="str">
+        <f aca="false">IF(C321="","",B321&amp;"-"&amp;C321&amp;"-"&amp;E321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F322" s="39" t="str">
-        <f aca="false">IF(E322="","",B322&amp;"-"&amp;E322)</f>
+      <c r="F322" s="46" t="str">
+        <f aca="false">IF(C322="","",B322&amp;"-"&amp;C322&amp;"-"&amp;E322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F323" s="39" t="str">
-        <f aca="false">IF(E323="","",B323&amp;"-"&amp;E323)</f>
+      <c r="F323" s="46" t="str">
+        <f aca="false">IF(C323="","",B323&amp;"-"&amp;C323&amp;"-"&amp;E323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F324" s="39" t="str">
-        <f aca="false">IF(E324="","",B324&amp;"-"&amp;E324)</f>
+      <c r="F324" s="46" t="str">
+        <f aca="false">IF(C324="","",B324&amp;"-"&amp;C324&amp;"-"&amp;E324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F325" s="39" t="str">
-        <f aca="false">IF(E325="","",B325&amp;"-"&amp;E325)</f>
+      <c r="F325" s="46" t="str">
+        <f aca="false">IF(C325="","",B325&amp;"-"&amp;C325&amp;"-"&amp;E325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F326" s="39" t="str">
-        <f aca="false">IF(E326="","",B326&amp;"-"&amp;E326)</f>
+      <c r="F326" s="46" t="str">
+        <f aca="false">IF(C326="","",B326&amp;"-"&amp;C326&amp;"-"&amp;E326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F327" s="39" t="str">
-        <f aca="false">IF(E327="","",B327&amp;"-"&amp;E327)</f>
+      <c r="F327" s="46" t="str">
+        <f aca="false">IF(C327="","",B327&amp;"-"&amp;C327&amp;"-"&amp;E327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F328" s="39" t="str">
-        <f aca="false">IF(E328="","",B328&amp;"-"&amp;E328)</f>
+      <c r="F328" s="46" t="str">
+        <f aca="false">IF(C328="","",B328&amp;"-"&amp;C328&amp;"-"&amp;E328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F329" s="39" t="str">
-        <f aca="false">IF(E329="","",B329&amp;"-"&amp;E329)</f>
+      <c r="F329" s="46" t="str">
+        <f aca="false">IF(C329="","",B329&amp;"-"&amp;C329&amp;"-"&amp;E329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F330" s="39" t="str">
-        <f aca="false">IF(E330="","",B330&amp;"-"&amp;E330)</f>
+      <c r="F330" s="46" t="str">
+        <f aca="false">IF(C330="","",B330&amp;"-"&amp;C330&amp;"-"&amp;E330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F331" s="39" t="str">
-        <f aca="false">IF(E331="","",B331&amp;"-"&amp;E331)</f>
+      <c r="F331" s="46" t="str">
+        <f aca="false">IF(C331="","",B331&amp;"-"&amp;C331&amp;"-"&amp;E331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F332" s="39" t="str">
-        <f aca="false">IF(E332="","",B332&amp;"-"&amp;E332)</f>
+      <c r="F332" s="46" t="str">
+        <f aca="false">IF(C332="","",B332&amp;"-"&amp;C332&amp;"-"&amp;E332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F333" s="39" t="str">
-        <f aca="false">IF(E333="","",B333&amp;"-"&amp;E333)</f>
+      <c r="F333" s="46" t="str">
+        <f aca="false">IF(C333="","",B333&amp;"-"&amp;C333&amp;"-"&amp;E333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F334" s="39" t="str">
-        <f aca="false">IF(E334="","",B334&amp;"-"&amp;E334)</f>
+      <c r="F334" s="46" t="str">
+        <f aca="false">IF(C334="","",B334&amp;"-"&amp;C334&amp;"-"&amp;E334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F335" s="39" t="str">
-        <f aca="false">IF(E335="","",B335&amp;"-"&amp;E335)</f>
+      <c r="F335" s="46" t="str">
+        <f aca="false">IF(C335="","",B335&amp;"-"&amp;C335&amp;"-"&amp;E335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F336" s="39" t="str">
-        <f aca="false">IF(E336="","",B336&amp;"-"&amp;E336)</f>
+      <c r="F336" s="46" t="str">
+        <f aca="false">IF(C336="","",B336&amp;"-"&amp;C336&amp;"-"&amp;E336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F337" s="39" t="str">
-        <f aca="false">IF(E337="","",B337&amp;"-"&amp;E337)</f>
+      <c r="F337" s="46" t="str">
+        <f aca="false">IF(C337="","",B337&amp;"-"&amp;C337&amp;"-"&amp;E337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F338" s="39" t="str">
-        <f aca="false">IF(E338="","",B338&amp;"-"&amp;E338)</f>
+      <c r="F338" s="46" t="str">
+        <f aca="false">IF(C338="","",B338&amp;"-"&amp;C338&amp;"-"&amp;E338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F339" s="39" t="str">
-        <f aca="false">IF(E339="","",B339&amp;"-"&amp;E339)</f>
+      <c r="F339" s="46" t="str">
+        <f aca="false">IF(C339="","",B339&amp;"-"&amp;C339&amp;"-"&amp;E339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F340" s="39" t="str">
-        <f aca="false">IF(E340="","",B340&amp;"-"&amp;E340)</f>
+      <c r="F340" s="46" t="str">
+        <f aca="false">IF(C340="","",B340&amp;"-"&amp;C340&amp;"-"&amp;E340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F341" s="39" t="str">
-        <f aca="false">IF(E341="","",B341&amp;"-"&amp;E341)</f>
+      <c r="F341" s="46" t="str">
+        <f aca="false">IF(C341="","",B341&amp;"-"&amp;C341&amp;"-"&amp;E341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F342" s="39" t="str">
-        <f aca="false">IF(E342="","",B342&amp;"-"&amp;E342)</f>
+      <c r="F342" s="46" t="str">
+        <f aca="false">IF(C342="","",B342&amp;"-"&amp;C342&amp;"-"&amp;E342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F343" s="39" t="str">
-        <f aca="false">IF(E343="","",B343&amp;"-"&amp;E343)</f>
+      <c r="F343" s="46" t="str">
+        <f aca="false">IF(C343="","",B343&amp;"-"&amp;C343&amp;"-"&amp;E343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F344" s="39" t="str">
-        <f aca="false">IF(E344="","",B344&amp;"-"&amp;E344)</f>
+      <c r="F344" s="46" t="str">
+        <f aca="false">IF(C344="","",B344&amp;"-"&amp;C344&amp;"-"&amp;E344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F345" s="39" t="str">
-        <f aca="false">IF(E345="","",B345&amp;"-"&amp;E345)</f>
+      <c r="F345" s="46" t="str">
+        <f aca="false">IF(C345="","",B345&amp;"-"&amp;C345&amp;"-"&amp;E345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F346" s="39" t="str">
-        <f aca="false">IF(E346="","",B346&amp;"-"&amp;E346)</f>
+      <c r="F346" s="46" t="str">
+        <f aca="false">IF(C346="","",B346&amp;"-"&amp;C346&amp;"-"&amp;E346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F347" s="39" t="str">
-        <f aca="false">IF(E347="","",B347&amp;"-"&amp;E347)</f>
+      <c r="F347" s="46" t="str">
+        <f aca="false">IF(C347="","",B347&amp;"-"&amp;C347&amp;"-"&amp;E347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F348" s="39" t="str">
-        <f aca="false">IF(E348="","",B348&amp;"-"&amp;E348)</f>
+      <c r="F348" s="46" t="str">
+        <f aca="false">IF(C348="","",B348&amp;"-"&amp;C348&amp;"-"&amp;E348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F349" s="39" t="str">
-        <f aca="false">IF(E349="","",B349&amp;"-"&amp;E349)</f>
+      <c r="F349" s="46" t="str">
+        <f aca="false">IF(C349="","",B349&amp;"-"&amp;C349&amp;"-"&amp;E349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F350" s="39" t="str">
-        <f aca="false">IF(E350="","",B350&amp;"-"&amp;E350)</f>
+      <c r="F350" s="46" t="str">
+        <f aca="false">IF(C350="","",B350&amp;"-"&amp;C350&amp;"-"&amp;E350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F351" s="39" t="str">
-        <f aca="false">IF(E351="","",B351&amp;"-"&amp;E351)</f>
+      <c r="F351" s="46" t="str">
+        <f aca="false">IF(C351="","",B351&amp;"-"&amp;C351&amp;"-"&amp;E351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F352" s="39" t="str">
-        <f aca="false">IF(E352="","",B352&amp;"-"&amp;E352)</f>
+      <c r="F352" s="46" t="str">
+        <f aca="false">IF(C352="","",B352&amp;"-"&amp;C352&amp;"-"&amp;E352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F353" s="39" t="str">
-        <f aca="false">IF(E353="","",B353&amp;"-"&amp;E353)</f>
+      <c r="F353" s="46" t="str">
+        <f aca="false">IF(C353="","",B353&amp;"-"&amp;C353&amp;"-"&amp;E353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F354" s="39" t="str">
-        <f aca="false">IF(E354="","",B354&amp;"-"&amp;E354)</f>
+      <c r="F354" s="46" t="str">
+        <f aca="false">IF(C354="","",B354&amp;"-"&amp;C354&amp;"-"&amp;E354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F355" s="39" t="str">
-        <f aca="false">IF(E355="","",B355&amp;"-"&amp;E355)</f>
+      <c r="F355" s="46" t="str">
+        <f aca="false">IF(C355="","",B355&amp;"-"&amp;C355&amp;"-"&amp;E355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F356" s="39" t="str">
-        <f aca="false">IF(E356="","",B356&amp;"-"&amp;E356)</f>
+      <c r="F356" s="46" t="str">
+        <f aca="false">IF(C356="","",B356&amp;"-"&amp;C356&amp;"-"&amp;E356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F357" s="39" t="str">
-        <f aca="false">IF(E357="","",B357&amp;"-"&amp;E357)</f>
+      <c r="F357" s="46" t="str">
+        <f aca="false">IF(C357="","",B357&amp;"-"&amp;C357&amp;"-"&amp;E357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F358" s="39" t="str">
-        <f aca="false">IF(E358="","",B358&amp;"-"&amp;E358)</f>
+      <c r="F358" s="46" t="str">
+        <f aca="false">IF(C358="","",B358&amp;"-"&amp;C358&amp;"-"&amp;E358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F359" s="39" t="str">
-        <f aca="false">IF(E359="","",B359&amp;"-"&amp;E359)</f>
+      <c r="F359" s="46" t="str">
+        <f aca="false">IF(C359="","",B359&amp;"-"&amp;C359&amp;"-"&amp;E359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F360" s="39" t="str">
-        <f aca="false">IF(E360="","",B360&amp;"-"&amp;E360)</f>
+      <c r="F360" s="46" t="str">
+        <f aca="false">IF(C360="","",B360&amp;"-"&amp;C360&amp;"-"&amp;E360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F361" s="39" t="str">
-        <f aca="false">IF(E361="","",B361&amp;"-"&amp;E361)</f>
+      <c r="F361" s="46" t="str">
+        <f aca="false">IF(C361="","",B361&amp;"-"&amp;C361&amp;"-"&amp;E361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F362" s="39" t="str">
-        <f aca="false">IF(E362="","",B362&amp;"-"&amp;E362)</f>
+      <c r="F362" s="46" t="str">
+        <f aca="false">IF(C362="","",B362&amp;"-"&amp;C362&amp;"-"&amp;E362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F363" s="39" t="str">
-        <f aca="false">IF(E363="","",B363&amp;"-"&amp;E363)</f>
+      <c r="F363" s="46" t="str">
+        <f aca="false">IF(C363="","",B363&amp;"-"&amp;C363&amp;"-"&amp;E363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F364" s="39" t="str">
-        <f aca="false">IF(E364="","",B364&amp;"-"&amp;E364)</f>
+      <c r="F364" s="46" t="str">
+        <f aca="false">IF(C364="","",B364&amp;"-"&amp;C364&amp;"-"&amp;E364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F365" s="39" t="str">
-        <f aca="false">IF(E365="","",B365&amp;"-"&amp;E365)</f>
+      <c r="F365" s="46" t="str">
+        <f aca="false">IF(C365="","",B365&amp;"-"&amp;C365&amp;"-"&amp;E365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F366" s="39" t="str">
-        <f aca="false">IF(E366="","",B366&amp;"-"&amp;E366)</f>
+      <c r="F366" s="46" t="str">
+        <f aca="false">IF(C366="","",B366&amp;"-"&amp;C366&amp;"-"&amp;E366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F367" s="39" t="str">
-        <f aca="false">IF(E367="","",B367&amp;"-"&amp;E367)</f>
+      <c r="F367" s="46" t="str">
+        <f aca="false">IF(C367="","",B367&amp;"-"&amp;C367&amp;"-"&amp;E367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F368" s="39" t="str">
-        <f aca="false">IF(E368="","",B368&amp;"-"&amp;E368)</f>
+      <c r="F368" s="46" t="str">
+        <f aca="false">IF(C368="","",B368&amp;"-"&amp;C368&amp;"-"&amp;E368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F369" s="39" t="str">
-        <f aca="false">IF(E369="","",B369&amp;"-"&amp;E369)</f>
+      <c r="F369" s="46" t="str">
+        <f aca="false">IF(C369="","",B369&amp;"-"&amp;C369&amp;"-"&amp;E369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F370" s="39" t="str">
-        <f aca="false">IF(E370="","",B370&amp;"-"&amp;E370)</f>
+      <c r="F370" s="46" t="str">
+        <f aca="false">IF(C370="","",B370&amp;"-"&amp;C370&amp;"-"&amp;E370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F371" s="39" t="str">
-        <f aca="false">IF(E371="","",B371&amp;"-"&amp;E371)</f>
+      <c r="F371" s="46" t="str">
+        <f aca="false">IF(C371="","",B371&amp;"-"&amp;C371&amp;"-"&amp;E371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F372" s="39" t="str">
-        <f aca="false">IF(E372="","",B372&amp;"-"&amp;E372)</f>
+      <c r="F372" s="46" t="str">
+        <f aca="false">IF(C372="","",B372&amp;"-"&amp;C372&amp;"-"&amp;E372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F373" s="39" t="str">
-        <f aca="false">IF(E373="","",B373&amp;"-"&amp;E373)</f>
+      <c r="F373" s="46" t="str">
+        <f aca="false">IF(C373="","",B373&amp;"-"&amp;C373&amp;"-"&amp;E373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F374" s="39" t="str">
-        <f aca="false">IF(E374="","",B374&amp;"-"&amp;E374)</f>
+      <c r="F374" s="46" t="str">
+        <f aca="false">IF(C374="","",B374&amp;"-"&amp;C374&amp;"-"&amp;E374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F375" s="39" t="str">
-        <f aca="false">IF(E375="","",B375&amp;"-"&amp;E375)</f>
+      <c r="F375" s="46" t="str">
+        <f aca="false">IF(C375="","",B375&amp;"-"&amp;C375&amp;"-"&amp;E375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F376" s="39" t="str">
-        <f aca="false">IF(E376="","",B376&amp;"-"&amp;E376)</f>
+      <c r="F376" s="46" t="str">
+        <f aca="false">IF(C376="","",B376&amp;"-"&amp;C376&amp;"-"&amp;E376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F377" s="39" t="str">
-        <f aca="false">IF(E377="","",B377&amp;"-"&amp;E377)</f>
+      <c r="F377" s="46" t="str">
+        <f aca="false">IF(C377="","",B377&amp;"-"&amp;C377&amp;"-"&amp;E377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F378" s="39" t="str">
-        <f aca="false">IF(E378="","",B378&amp;"-"&amp;E378)</f>
+      <c r="F378" s="46" t="str">
+        <f aca="false">IF(C378="","",B378&amp;"-"&amp;C378&amp;"-"&amp;E378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F379" s="39" t="str">
-        <f aca="false">IF(E379="","",B379&amp;"-"&amp;E379)</f>
+      <c r="F379" s="46" t="str">
+        <f aca="false">IF(C379="","",B379&amp;"-"&amp;C379&amp;"-"&amp;E379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F380" s="39" t="str">
-        <f aca="false">IF(E380="","",B380&amp;"-"&amp;E380)</f>
+      <c r="F380" s="46" t="str">
+        <f aca="false">IF(C380="","",B380&amp;"-"&amp;C380&amp;"-"&amp;E380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F381" s="39" t="str">
-        <f aca="false">IF(E381="","",B381&amp;"-"&amp;E381)</f>
+      <c r="F381" s="46" t="str">
+        <f aca="false">IF(C381="","",B381&amp;"-"&amp;C381&amp;"-"&amp;E381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F382" s="39" t="str">
-        <f aca="false">IF(E382="","",B382&amp;"-"&amp;E382)</f>
+      <c r="F382" s="46" t="str">
+        <f aca="false">IF(C382="","",B382&amp;"-"&amp;C382&amp;"-"&amp;E382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F383" s="39" t="str">
-        <f aca="false">IF(E383="","",B383&amp;"-"&amp;E383)</f>
+      <c r="F383" s="46" t="str">
+        <f aca="false">IF(C383="","",B383&amp;"-"&amp;C383&amp;"-"&amp;E383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F384" s="39" t="str">
-        <f aca="false">IF(E384="","",B384&amp;"-"&amp;E384)</f>
+      <c r="F384" s="46" t="str">
+        <f aca="false">IF(C384="","",B384&amp;"-"&amp;C384&amp;"-"&amp;E384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F385" s="39" t="str">
-        <f aca="false">IF(E385="","",B385&amp;"-"&amp;E385)</f>
+      <c r="F385" s="46" t="str">
+        <f aca="false">IF(C385="","",B385&amp;"-"&amp;C385&amp;"-"&amp;E385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F386" s="39" t="str">
-        <f aca="false">IF(E386="","",B386&amp;"-"&amp;E386)</f>
+      <c r="F386" s="46" t="str">
+        <f aca="false">IF(C386="","",B386&amp;"-"&amp;C386&amp;"-"&amp;E386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F387" s="39" t="str">
-        <f aca="false">IF(E387="","",B387&amp;"-"&amp;E387)</f>
+      <c r="F387" s="46" t="str">
+        <f aca="false">IF(C387="","",B387&amp;"-"&amp;C387&amp;"-"&amp;E387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F388" s="39" t="str">
-        <f aca="false">IF(E388="","",B388&amp;"-"&amp;E388)</f>
+      <c r="F388" s="46" t="str">
+        <f aca="false">IF(C388="","",B388&amp;"-"&amp;C388&amp;"-"&amp;E388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F389" s="39" t="str">
-        <f aca="false">IF(E389="","",B389&amp;"-"&amp;E389)</f>
+      <c r="F389" s="46" t="str">
+        <f aca="false">IF(C389="","",B389&amp;"-"&amp;C389&amp;"-"&amp;E389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F390" s="39" t="str">
-        <f aca="false">IF(E390="","",B390&amp;"-"&amp;E390)</f>
+      <c r="F390" s="46" t="str">
+        <f aca="false">IF(C390="","",B390&amp;"-"&amp;C390&amp;"-"&amp;E390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F391" s="39" t="str">
-        <f aca="false">IF(E391="","",B391&amp;"-"&amp;E391)</f>
+      <c r="F391" s="46" t="str">
+        <f aca="false">IF(C391="","",B391&amp;"-"&amp;C391&amp;"-"&amp;E391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F392" s="39" t="str">
-        <f aca="false">IF(E392="","",B392&amp;"-"&amp;E392)</f>
+      <c r="F392" s="46" t="str">
+        <f aca="false">IF(C392="","",B392&amp;"-"&amp;C392&amp;"-"&amp;E392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F393" s="39" t="str">
-        <f aca="false">IF(E393="","",B393&amp;"-"&amp;E393)</f>
+      <c r="F393" s="46" t="str">
+        <f aca="false">IF(C393="","",B393&amp;"-"&amp;C393&amp;"-"&amp;E393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F394" s="39" t="str">
-        <f aca="false">IF(E394="","",B394&amp;"-"&amp;E394)</f>
+      <c r="F394" s="46" t="str">
+        <f aca="false">IF(C394="","",B394&amp;"-"&amp;C394&amp;"-"&amp;E394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F395" s="39" t="str">
-        <f aca="false">IF(E395="","",B395&amp;"-"&amp;E395)</f>
+      <c r="F395" s="46" t="str">
+        <f aca="false">IF(C395="","",B395&amp;"-"&amp;C395&amp;"-"&amp;E395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F396" s="39" t="str">
-        <f aca="false">IF(E396="","",B396&amp;"-"&amp;E396)</f>
+      <c r="F396" s="46" t="str">
+        <f aca="false">IF(C396="","",B396&amp;"-"&amp;C396&amp;"-"&amp;E396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F397" s="39" t="str">
-        <f aca="false">IF(E397="","",B397&amp;"-"&amp;E397)</f>
+      <c r="F397" s="46" t="str">
+        <f aca="false">IF(C397="","",B397&amp;"-"&amp;C397&amp;"-"&amp;E397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F398" s="39" t="str">
-        <f aca="false">IF(E398="","",B398&amp;"-"&amp;E398)</f>
+      <c r="F398" s="46" t="str">
+        <f aca="false">IF(C398="","",B398&amp;"-"&amp;C398&amp;"-"&amp;E398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F399" s="39" t="str">
-        <f aca="false">IF(E399="","",B399&amp;"-"&amp;E399)</f>
+      <c r="F399" s="46" t="str">
+        <f aca="false">IF(C399="","",B399&amp;"-"&amp;C399&amp;"-"&amp;E399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F400" s="39" t="str">
-        <f aca="false">IF(E400="","",B400&amp;"-"&amp;E400)</f>
+      <c r="F400" s="46" t="str">
+        <f aca="false">IF(C400="","",B400&amp;"-"&amp;C400&amp;"-"&amp;E400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F401" s="39" t="str">
-        <f aca="false">IF(E401="","",B401&amp;"-"&amp;E401)</f>
+      <c r="F401" s="46" t="str">
+        <f aca="false">IF(C401="","",B401&amp;"-"&amp;C401&amp;"-"&amp;E401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F402" s="39" t="str">
-        <f aca="false">IF(E402="","",B402&amp;"-"&amp;E402)</f>
+      <c r="F402" s="46" t="str">
+        <f aca="false">IF(C402="","",B402&amp;"-"&amp;C402&amp;"-"&amp;E402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F403" s="39" t="str">
-        <f aca="false">IF(E403="","",B403&amp;"-"&amp;E403)</f>
+      <c r="F403" s="46" t="str">
+        <f aca="false">IF(C403="","",B403&amp;"-"&amp;C403&amp;"-"&amp;E403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F404" s="39" t="str">
-        <f aca="false">IF(E404="","",B404&amp;"-"&amp;E404)</f>
+      <c r="F404" s="46" t="str">
+        <f aca="false">IF(C404="","",B404&amp;"-"&amp;C404&amp;"-"&amp;E404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F405" s="39" t="str">
-        <f aca="false">IF(E405="","",B405&amp;"-"&amp;E405)</f>
+      <c r="F405" s="46" t="str">
+        <f aca="false">IF(C405="","",B405&amp;"-"&amp;C405&amp;"-"&amp;E405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F406" s="39" t="str">
-        <f aca="false">IF(E406="","",B406&amp;"-"&amp;E406)</f>
+      <c r="F406" s="46" t="str">
+        <f aca="false">IF(C406="","",B406&amp;"-"&amp;C406&amp;"-"&amp;E406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F407" s="39" t="str">
-        <f aca="false">IF(E407="","",B407&amp;"-"&amp;E407)</f>
+      <c r="F407" s="46" t="str">
+        <f aca="false">IF(C407="","",B407&amp;"-"&amp;C407&amp;"-"&amp;E407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F408" s="39" t="str">
-        <f aca="false">IF(E408="","",B408&amp;"-"&amp;E408)</f>
+      <c r="F408" s="46" t="str">
+        <f aca="false">IF(C408="","",B408&amp;"-"&amp;C408&amp;"-"&amp;E408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F409" s="39" t="str">
-        <f aca="false">IF(E409="","",B409&amp;"-"&amp;E409)</f>
+      <c r="F409" s="46" t="str">
+        <f aca="false">IF(C409="","",B409&amp;"-"&amp;C409&amp;"-"&amp;E409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F410" s="39" t="str">
-        <f aca="false">IF(E410="","",B410&amp;"-"&amp;E410)</f>
+      <c r="F410" s="46" t="str">
+        <f aca="false">IF(C410="","",B410&amp;"-"&amp;C410&amp;"-"&amp;E410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F411" s="39" t="str">
-        <f aca="false">IF(E411="","",B411&amp;"-"&amp;E411)</f>
+      <c r="F411" s="46" t="str">
+        <f aca="false">IF(C411="","",B411&amp;"-"&amp;C411&amp;"-"&amp;E411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F412" s="39" t="str">
-        <f aca="false">IF(E412="","",B412&amp;"-"&amp;E412)</f>
+      <c r="F412" s="46" t="str">
+        <f aca="false">IF(C412="","",B412&amp;"-"&amp;C412&amp;"-"&amp;E412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F413" s="39" t="str">
-        <f aca="false">IF(E413="","",B413&amp;"-"&amp;E413)</f>
+      <c r="F413" s="46" t="str">
+        <f aca="false">IF(C413="","",B413&amp;"-"&amp;C413&amp;"-"&amp;E413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F414" s="39" t="str">
-        <f aca="false">IF(E414="","",B414&amp;"-"&amp;E414)</f>
+      <c r="F414" s="46" t="str">
+        <f aca="false">IF(C414="","",B414&amp;"-"&amp;C414&amp;"-"&amp;E414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F415" s="39" t="str">
-        <f aca="false">IF(E415="","",B415&amp;"-"&amp;E415)</f>
+      <c r="F415" s="46" t="str">
+        <f aca="false">IF(C415="","",B415&amp;"-"&amp;C415&amp;"-"&amp;E415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F416" s="39" t="str">
-        <f aca="false">IF(E416="","",B416&amp;"-"&amp;E416)</f>
+      <c r="F416" s="46" t="str">
+        <f aca="false">IF(C416="","",B416&amp;"-"&amp;C416&amp;"-"&amp;E416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F417" s="39" t="str">
-        <f aca="false">IF(E417="","",B417&amp;"-"&amp;E417)</f>
+      <c r="F417" s="46" t="str">
+        <f aca="false">IF(C417="","",B417&amp;"-"&amp;C417&amp;"-"&amp;E417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F418" s="39" t="str">
-        <f aca="false">IF(E418="","",B418&amp;"-"&amp;E418)</f>
+      <c r="F418" s="46" t="str">
+        <f aca="false">IF(C418="","",B418&amp;"-"&amp;C418&amp;"-"&amp;E418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F419" s="39" t="str">
-        <f aca="false">IF(E419="","",B419&amp;"-"&amp;E419)</f>
+      <c r="F419" s="46" t="str">
+        <f aca="false">IF(C419="","",B419&amp;"-"&amp;C419&amp;"-"&amp;E419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F420" s="39" t="str">
-        <f aca="false">IF(E420="","",B420&amp;"-"&amp;E420)</f>
+      <c r="F420" s="46" t="str">
+        <f aca="false">IF(C420="","",B420&amp;"-"&amp;C420&amp;"-"&amp;E420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F421" s="39" t="str">
-        <f aca="false">IF(E421="","",B421&amp;"-"&amp;E421)</f>
+      <c r="F421" s="46" t="str">
+        <f aca="false">IF(C421="","",B421&amp;"-"&amp;C421&amp;"-"&amp;E421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F422" s="39" t="str">
-        <f aca="false">IF(E422="","",B422&amp;"-"&amp;E422)</f>
+      <c r="F422" s="46" t="str">
+        <f aca="false">IF(C422="","",B422&amp;"-"&amp;C422&amp;"-"&amp;E422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F423" s="39" t="str">
-        <f aca="false">IF(E423="","",B423&amp;"-"&amp;E423)</f>
+      <c r="F423" s="46" t="str">
+        <f aca="false">IF(C423="","",B423&amp;"-"&amp;C423&amp;"-"&amp;E423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F424" s="39" t="str">
-        <f aca="false">IF(E424="","",B424&amp;"-"&amp;E424)</f>
+      <c r="F424" s="46" t="str">
+        <f aca="false">IF(C424="","",B424&amp;"-"&amp;C424&amp;"-"&amp;E424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F425" s="39" t="str">
-        <f aca="false">IF(E425="","",B425&amp;"-"&amp;E425)</f>
+      <c r="F425" s="46" t="str">
+        <f aca="false">IF(C425="","",B425&amp;"-"&amp;C425&amp;"-"&amp;E425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F426" s="39" t="str">
-        <f aca="false">IF(E426="","",B426&amp;"-"&amp;E426)</f>
+      <c r="F426" s="46" t="str">
+        <f aca="false">IF(C426="","",B426&amp;"-"&amp;C426&amp;"-"&amp;E426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F427" s="39" t="str">
-        <f aca="false">IF(E427="","",B427&amp;"-"&amp;E427)</f>
+      <c r="F427" s="46" t="str">
+        <f aca="false">IF(C427="","",B427&amp;"-"&amp;C427&amp;"-"&amp;E427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F428" s="39" t="str">
-        <f aca="false">IF(E428="","",B428&amp;"-"&amp;E428)</f>
+      <c r="F428" s="46" t="str">
+        <f aca="false">IF(C428="","",B428&amp;"-"&amp;C428&amp;"-"&amp;E428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F429" s="39" t="str">
-        <f aca="false">IF(E429="","",B429&amp;"-"&amp;E429)</f>
+      <c r="F429" s="46" t="str">
+        <f aca="false">IF(C429="","",B429&amp;"-"&amp;C429&amp;"-"&amp;E429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F430" s="39" t="str">
-        <f aca="false">IF(E430="","",B430&amp;"-"&amp;E430)</f>
+      <c r="F430" s="46" t="str">
+        <f aca="false">IF(C430="","",B430&amp;"-"&amp;C430&amp;"-"&amp;E430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F431" s="39" t="str">
-        <f aca="false">IF(E431="","",B431&amp;"-"&amp;E431)</f>
+      <c r="F431" s="46" t="str">
+        <f aca="false">IF(C431="","",B431&amp;"-"&amp;C431&amp;"-"&amp;E431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F432" s="39" t="str">
-        <f aca="false">IF(E432="","",B432&amp;"-"&amp;E432)</f>
+      <c r="F432" s="46" t="str">
+        <f aca="false">IF(C432="","",B432&amp;"-"&amp;C432&amp;"-"&amp;E432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F433" s="39" t="str">
-        <f aca="false">IF(E433="","",B433&amp;"-"&amp;E433)</f>
+      <c r="F433" s="46" t="str">
+        <f aca="false">IF(C433="","",B433&amp;"-"&amp;C433&amp;"-"&amp;E433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F434" s="39" t="str">
-        <f aca="false">IF(E434="","",B434&amp;"-"&amp;E434)</f>
+      <c r="F434" s="46" t="str">
+        <f aca="false">IF(C434="","",B434&amp;"-"&amp;C434&amp;"-"&amp;E434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F435" s="39" t="str">
-        <f aca="false">IF(E435="","",B435&amp;"-"&amp;E435)</f>
+      <c r="F435" s="46" t="str">
+        <f aca="false">IF(C435="","",B435&amp;"-"&amp;C435&amp;"-"&amp;E435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F436" s="39" t="str">
-        <f aca="false">IF(E436="","",B436&amp;"-"&amp;E436)</f>
+      <c r="F436" s="46" t="str">
+        <f aca="false">IF(C436="","",B436&amp;"-"&amp;C436&amp;"-"&amp;E436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F437" s="39" t="str">
-        <f aca="false">IF(E437="","",B437&amp;"-"&amp;E437)</f>
+      <c r="F437" s="46" t="str">
+        <f aca="false">IF(C437="","",B437&amp;"-"&amp;C437&amp;"-"&amp;E437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F438" s="39" t="str">
-        <f aca="false">IF(E438="","",B438&amp;"-"&amp;E438)</f>
+      <c r="F438" s="46" t="str">
+        <f aca="false">IF(C438="","",B438&amp;"-"&amp;C438&amp;"-"&amp;E438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F439" s="39" t="str">
-        <f aca="false">IF(E439="","",B439&amp;"-"&amp;E439)</f>
+      <c r="F439" s="46" t="str">
+        <f aca="false">IF(C439="","",B439&amp;"-"&amp;C439&amp;"-"&amp;E439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F440" s="39" t="str">
-        <f aca="false">IF(E440="","",B440&amp;"-"&amp;E440)</f>
+      <c r="F440" s="46" t="str">
+        <f aca="false">IF(C440="","",B440&amp;"-"&amp;C440&amp;"-"&amp;E440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F441" s="39" t="str">
-        <f aca="false">IF(E441="","",B441&amp;"-"&amp;E441)</f>
+      <c r="F441" s="46" t="str">
+        <f aca="false">IF(C441="","",B441&amp;"-"&amp;C441&amp;"-"&amp;E441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F442" s="39" t="str">
-        <f aca="false">IF(E442="","",B442&amp;"-"&amp;E442)</f>
+      <c r="F442" s="46" t="str">
+        <f aca="false">IF(C442="","",B442&amp;"-"&amp;C442&amp;"-"&amp;E442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F443" s="39" t="str">
-        <f aca="false">IF(E443="","",B443&amp;"-"&amp;E443)</f>
+      <c r="F443" s="46" t="str">
+        <f aca="false">IF(C443="","",B443&amp;"-"&amp;C443&amp;"-"&amp;E443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F444" s="39" t="str">
-        <f aca="false">IF(E444="","",B444&amp;"-"&amp;E444)</f>
+      <c r="F444" s="46" t="str">
+        <f aca="false">IF(C444="","",B444&amp;"-"&amp;C444&amp;"-"&amp;E444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F445" s="39" t="str">
-        <f aca="false">IF(E445="","",B445&amp;"-"&amp;E445)</f>
+      <c r="F445" s="46" t="str">
+        <f aca="false">IF(C445="","",B445&amp;"-"&amp;C445&amp;"-"&amp;E445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F446" s="39" t="str">
-        <f aca="false">IF(E446="","",B446&amp;"-"&amp;E446)</f>
+      <c r="F446" s="46" t="str">
+        <f aca="false">IF(C446="","",B446&amp;"-"&amp;C446&amp;"-"&amp;E446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F447" s="39" t="str">
-        <f aca="false">IF(E447="","",B447&amp;"-"&amp;E447)</f>
+      <c r="F447" s="46" t="str">
+        <f aca="false">IF(C447="","",B447&amp;"-"&amp;C447&amp;"-"&amp;E447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F448" s="39" t="str">
-        <f aca="false">IF(E448="","",B448&amp;"-"&amp;E448)</f>
+      <c r="F448" s="46" t="str">
+        <f aca="false">IF(C448="","",B448&amp;"-"&amp;C448&amp;"-"&amp;E448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F449" s="39" t="str">
-        <f aca="false">IF(E449="","",B449&amp;"-"&amp;E449)</f>
+      <c r="F449" s="46" t="str">
+        <f aca="false">IF(C449="","",B449&amp;"-"&amp;C449&amp;"-"&amp;E449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F450" s="39" t="str">
-        <f aca="false">IF(E450="","",B450&amp;"-"&amp;E450)</f>
+      <c r="F450" s="46" t="str">
+        <f aca="false">IF(C450="","",B450&amp;"-"&amp;C450&amp;"-"&amp;E450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F451" s="39" t="str">
-        <f aca="false">IF(E451="","",B451&amp;"-"&amp;E451)</f>
+      <c r="F451" s="46" t="str">
+        <f aca="false">IF(C451="","",B451&amp;"-"&amp;C451&amp;"-"&amp;E451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F452" s="39" t="str">
-        <f aca="false">IF(E452="","",B452&amp;"-"&amp;E452)</f>
+      <c r="F452" s="46" t="str">
+        <f aca="false">IF(C452="","",B452&amp;"-"&amp;C452&amp;"-"&amp;E452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F453" s="39" t="str">
-        <f aca="false">IF(E453="","",B453&amp;"-"&amp;E453)</f>
+      <c r="F453" s="46" t="str">
+        <f aca="false">IF(C453="","",B453&amp;"-"&amp;C453&amp;"-"&amp;E453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F454" s="39" t="str">
-        <f aca="false">IF(E454="","",B454&amp;"-"&amp;E454)</f>
+      <c r="F454" s="46" t="str">
+        <f aca="false">IF(C454="","",B454&amp;"-"&amp;C454&amp;"-"&amp;E454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F455" s="39" t="str">
-        <f aca="false">IF(E455="","",B455&amp;"-"&amp;E455)</f>
+      <c r="F455" s="46" t="str">
+        <f aca="false">IF(C455="","",B455&amp;"-"&amp;C455&amp;"-"&amp;E455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F456" s="39" t="str">
-        <f aca="false">IF(E456="","",B456&amp;"-"&amp;E456)</f>
+      <c r="F456" s="46" t="str">
+        <f aca="false">IF(C456="","",B456&amp;"-"&amp;C456&amp;"-"&amp;E456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F457" s="39" t="str">
-        <f aca="false">IF(E457="","",B457&amp;"-"&amp;E457)</f>
+      <c r="F457" s="46" t="str">
+        <f aca="false">IF(C457="","",B457&amp;"-"&amp;C457&amp;"-"&amp;E457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F458" s="39" t="str">
-        <f aca="false">IF(E458="","",B458&amp;"-"&amp;E458)</f>
+      <c r="F458" s="46" t="str">
+        <f aca="false">IF(C458="","",B458&amp;"-"&amp;C458&amp;"-"&amp;E458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F459" s="39" t="str">
-        <f aca="false">IF(E459="","",B459&amp;"-"&amp;E459)</f>
+      <c r="F459" s="46" t="str">
+        <f aca="false">IF(C459="","",B459&amp;"-"&amp;C459&amp;"-"&amp;E459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F460" s="39" t="str">
-        <f aca="false">IF(E460="","",B460&amp;"-"&amp;E460)</f>
+      <c r="F460" s="46" t="str">
+        <f aca="false">IF(C460="","",B460&amp;"-"&amp;C460&amp;"-"&amp;E460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F461" s="39" t="str">
-        <f aca="false">IF(E461="","",B461&amp;"-"&amp;E461)</f>
+      <c r="F461" s="46" t="str">
+        <f aca="false">IF(C461="","",B461&amp;"-"&amp;C461&amp;"-"&amp;E461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F462" s="39" t="str">
-        <f aca="false">IF(E462="","",B462&amp;"-"&amp;E462)</f>
+      <c r="F462" s="46" t="str">
+        <f aca="false">IF(C462="","",B462&amp;"-"&amp;C462&amp;"-"&amp;E462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F463" s="39" t="str">
-        <f aca="false">IF(E463="","",B463&amp;"-"&amp;E463)</f>
+      <c r="F463" s="46" t="str">
+        <f aca="false">IF(C463="","",B463&amp;"-"&amp;C463&amp;"-"&amp;E463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F464" s="39" t="str">
-        <f aca="false">IF(E464="","",B464&amp;"-"&amp;E464)</f>
+      <c r="F464" s="46" t="str">
+        <f aca="false">IF(C464="","",B464&amp;"-"&amp;C464&amp;"-"&amp;E464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F465" s="39" t="str">
-        <f aca="false">IF(E465="","",B465&amp;"-"&amp;E465)</f>
+      <c r="F465" s="46" t="str">
+        <f aca="false">IF(C465="","",B465&amp;"-"&amp;C465&amp;"-"&amp;E465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F466" s="39" t="str">
-        <f aca="false">IF(E466="","",B466&amp;"-"&amp;E466)</f>
+      <c r="F466" s="46" t="str">
+        <f aca="false">IF(C466="","",B466&amp;"-"&amp;C466&amp;"-"&amp;E466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F467" s="39" t="str">
-        <f aca="false">IF(E467="","",B467&amp;"-"&amp;E467)</f>
+      <c r="F467" s="46" t="str">
+        <f aca="false">IF(C467="","",B467&amp;"-"&amp;C467&amp;"-"&amp;E467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F468" s="39" t="str">
-        <f aca="false">IF(E468="","",B468&amp;"-"&amp;E468)</f>
+      <c r="F468" s="46" t="str">
+        <f aca="false">IF(C468="","",B468&amp;"-"&amp;C468&amp;"-"&amp;E468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F469" s="39" t="str">
-        <f aca="false">IF(E469="","",B469&amp;"-"&amp;E469)</f>
+      <c r="F469" s="46" t="str">
+        <f aca="false">IF(C469="","",B469&amp;"-"&amp;C469&amp;"-"&amp;E469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F470" s="39" t="str">
-        <f aca="false">IF(E470="","",B470&amp;"-"&amp;E470)</f>
+      <c r="F470" s="46" t="str">
+        <f aca="false">IF(C470="","",B470&amp;"-"&amp;C470&amp;"-"&amp;E470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F471" s="39" t="str">
-        <f aca="false">IF(E471="","",B471&amp;"-"&amp;E471)</f>
+      <c r="F471" s="46" t="str">
+        <f aca="false">IF(C471="","",B471&amp;"-"&amp;C471&amp;"-"&amp;E471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F472" s="39" t="str">
-        <f aca="false">IF(E472="","",B472&amp;"-"&amp;E472)</f>
+      <c r="F472" s="46" t="str">
+        <f aca="false">IF(C472="","",B472&amp;"-"&amp;C472&amp;"-"&amp;E472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F473" s="39" t="str">
-        <f aca="false">IF(E473="","",B473&amp;"-"&amp;E473)</f>
+      <c r="F473" s="46" t="str">
+        <f aca="false">IF(C473="","",B473&amp;"-"&amp;C473&amp;"-"&amp;E473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F474" s="39" t="str">
-        <f aca="false">IF(E474="","",B474&amp;"-"&amp;E474)</f>
+      <c r="F474" s="46" t="str">
+        <f aca="false">IF(C474="","",B474&amp;"-"&amp;C474&amp;"-"&amp;E474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F475" s="39" t="str">
-        <f aca="false">IF(E475="","",B475&amp;"-"&amp;E475)</f>
+      <c r="F475" s="46" t="str">
+        <f aca="false">IF(C475="","",B475&amp;"-"&amp;C475&amp;"-"&amp;E475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F476" s="39" t="str">
-        <f aca="false">IF(E476="","",B476&amp;"-"&amp;E476)</f>
+      <c r="F476" s="46" t="str">
+        <f aca="false">IF(C476="","",B476&amp;"-"&amp;C476&amp;"-"&amp;E476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F477" s="39" t="str">
-        <f aca="false">IF(E477="","",B477&amp;"-"&amp;E477)</f>
+      <c r="F477" s="46" t="str">
+        <f aca="false">IF(C477="","",B477&amp;"-"&amp;C477&amp;"-"&amp;E477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F478" s="39" t="str">
-        <f aca="false">IF(E478="","",B478&amp;"-"&amp;E478)</f>
+      <c r="F478" s="46" t="str">
+        <f aca="false">IF(C478="","",B478&amp;"-"&amp;C478&amp;"-"&amp;E478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F479" s="39" t="str">
-        <f aca="false">IF(E479="","",B479&amp;"-"&amp;E479)</f>
+      <c r="F479" s="46" t="str">
+        <f aca="false">IF(C479="","",B479&amp;"-"&amp;C479&amp;"-"&amp;E479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F480" s="39" t="str">
-        <f aca="false">IF(E480="","",B480&amp;"-"&amp;E480)</f>
+      <c r="F480" s="46" t="str">
+        <f aca="false">IF(C480="","",B480&amp;"-"&amp;C480&amp;"-"&amp;E480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F481" s="39" t="str">
-        <f aca="false">IF(E481="","",B481&amp;"-"&amp;E481)</f>
+      <c r="F481" s="46" t="str">
+        <f aca="false">IF(C481="","",B481&amp;"-"&amp;C481&amp;"-"&amp;E481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F482" s="39" t="str">
-        <f aca="false">IF(E482="","",B482&amp;"-"&amp;E482)</f>
+      <c r="F482" s="46" t="str">
+        <f aca="false">IF(C482="","",B482&amp;"-"&amp;C482&amp;"-"&amp;E482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F483" s="39" t="str">
-        <f aca="false">IF(E483="","",B483&amp;"-"&amp;E483)</f>
+      <c r="F483" s="46" t="str">
+        <f aca="false">IF(C483="","",B483&amp;"-"&amp;C483&amp;"-"&amp;E483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F484" s="39" t="str">
-        <f aca="false">IF(E484="","",B484&amp;"-"&amp;E484)</f>
+      <c r="F484" s="46" t="str">
+        <f aca="false">IF(C484="","",B484&amp;"-"&amp;C484&amp;"-"&amp;E484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F485" s="39" t="str">
-        <f aca="false">IF(E485="","",B485&amp;"-"&amp;E485)</f>
+      <c r="F485" s="46" t="str">
+        <f aca="false">IF(C485="","",B485&amp;"-"&amp;C485&amp;"-"&amp;E485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F486" s="39" t="str">
-        <f aca="false">IF(E486="","",B486&amp;"-"&amp;E486)</f>
+      <c r="F486" s="46" t="str">
+        <f aca="false">IF(C486="","",B486&amp;"-"&amp;C486&amp;"-"&amp;E486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F487" s="39" t="str">
-        <f aca="false">IF(E487="","",B487&amp;"-"&amp;E487)</f>
+      <c r="F487" s="46" t="str">
+        <f aca="false">IF(C487="","",B487&amp;"-"&amp;C487&amp;"-"&amp;E487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F488" s="39" t="str">
-        <f aca="false">IF(E488="","",B488&amp;"-"&amp;E488)</f>
+      <c r="F488" s="46" t="str">
+        <f aca="false">IF(C488="","",B488&amp;"-"&amp;C488&amp;"-"&amp;E488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F489" s="39" t="str">
-        <f aca="false">IF(E489="","",B489&amp;"-"&amp;E489)</f>
+      <c r="F489" s="46" t="str">
+        <f aca="false">IF(C489="","",B489&amp;"-"&amp;C489&amp;"-"&amp;E489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F490" s="39" t="str">
-        <f aca="false">IF(E490="","",B490&amp;"-"&amp;E490)</f>
+      <c r="F490" s="46" t="str">
+        <f aca="false">IF(C490="","",B490&amp;"-"&amp;C490&amp;"-"&amp;E490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F491" s="39" t="str">
-        <f aca="false">IF(E491="","",B491&amp;"-"&amp;E491)</f>
+      <c r="F491" s="46" t="str">
+        <f aca="false">IF(C491="","",B491&amp;"-"&amp;C491&amp;"-"&amp;E491)</f>
         <v/>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F492" s="39" t="str">
-        <f aca="false">IF(E492="","",B492&amp;"-"&amp;E492)</f>
+      <c r="F492" s="46" t="str">
+        <f aca="false">IF(C492="","",B492&amp;"-"&amp;C492&amp;"-"&amp;E492)</f>
         <v/>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F493" s="39" t="str">
-        <f aca="false">IF(E493="","",B493&amp;"-"&amp;E493)</f>
+      <c r="F493" s="46" t="str">
+        <f aca="false">IF(C493="","",B493&amp;"-"&amp;C493&amp;"-"&amp;E493)</f>
         <v/>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F494" s="39" t="str">
-        <f aca="false">IF(E494="","",B494&amp;"-"&amp;E494)</f>
+      <c r="F494" s="46" t="str">
+        <f aca="false">IF(C494="","",B494&amp;"-"&amp;C494&amp;"-"&amp;E494)</f>
         <v/>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F495" s="39" t="str">
-        <f aca="false">IF(E495="","",B495&amp;"-"&amp;E495)</f>
+      <c r="F495" s="46" t="str">
+        <f aca="false">IF(C495="","",B495&amp;"-"&amp;C495&amp;"-"&amp;E495)</f>
         <v/>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F496" s="39" t="str">
-        <f aca="false">IF(E496="","",B496&amp;"-"&amp;E496)</f>
+      <c r="F496" s="46" t="str">
+        <f aca="false">IF(C496="","",B496&amp;"-"&amp;C496&amp;"-"&amp;E496)</f>
         <v/>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F497" s="39" t="str">
-        <f aca="false">IF(E497="","",B497&amp;"-"&amp;E497)</f>
+      <c r="F497" s="46" t="str">
+        <f aca="false">IF(C497="","",B497&amp;"-"&amp;C497&amp;"-"&amp;E497)</f>
         <v/>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F498" s="39" t="str">
-        <f aca="false">IF(E498="","",B498&amp;"-"&amp;E498)</f>
+      <c r="F498" s="46" t="str">
+        <f aca="false">IF(C498="","",B498&amp;"-"&amp;C498&amp;"-"&amp;E498)</f>
         <v/>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F499" s="39" t="str">
-        <f aca="false">IF(E499="","",B499&amp;"-"&amp;E499)</f>
+      <c r="F499" s="46" t="str">
+        <f aca="false">IF(C499="","",B499&amp;"-"&amp;C499&amp;"-"&amp;E499)</f>
         <v/>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F500" s="39" t="str">
-        <f aca="false">IF(E500="","",B500&amp;"-"&amp;E500)</f>
+      <c r="F500" s="46" t="str">
+        <f aca="false">IF(C500="","",B500&amp;"-"&amp;C500&amp;"-"&amp;E500)</f>
         <v/>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F501" s="39" t="str">
-        <f aca="false">IF(E501="","",B501&amp;"-"&amp;E501)</f>
+      <c r="F501" s="46" t="str">
+        <f aca="false">IF(C501="","",B501&amp;"-"&amp;C501&amp;"-"&amp;E501)</f>
         <v/>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F502" s="39" t="str">
-        <f aca="false">IF(E502="","",B502&amp;"-"&amp;E502)</f>
+      <c r="F502" s="46" t="str">
+        <f aca="false">IF(C502="","",B502&amp;"-"&amp;C502&amp;"-"&amp;E502)</f>
         <v/>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F503" s="39" t="str">
-        <f aca="false">IF(E503="","",B503&amp;"-"&amp;E503)</f>
+      <c r="F503" s="46" t="str">
+        <f aca="false">IF(C503="","",B503&amp;"-"&amp;C503&amp;"-"&amp;E503)</f>
         <v/>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F504" s="39" t="str">
-        <f aca="false">IF(E504="","",B504&amp;"-"&amp;E504)</f>
+      <c r="F504" s="46" t="str">
+        <f aca="false">IF(C504="","",B504&amp;"-"&amp;C504&amp;"-"&amp;E504)</f>
         <v/>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F505" s="39" t="str">
-        <f aca="false">IF(E505="","",B505&amp;"-"&amp;E505)</f>
+      <c r="F505" s="46" t="str">
+        <f aca="false">IF(C505="","",B505&amp;"-"&amp;C505&amp;"-"&amp;E505)</f>
         <v/>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F506" s="39" t="str">
-        <f aca="false">IF(E506="","",B506&amp;"-"&amp;E506)</f>
+      <c r="F506" s="46" t="str">
+        <f aca="false">IF(C506="","",B506&amp;"-"&amp;C506&amp;"-"&amp;E506)</f>
         <v/>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F507" s="39" t="str">
-        <f aca="false">IF(E507="","",B507&amp;"-"&amp;E507)</f>
+      <c r="F507" s="46" t="str">
+        <f aca="false">IF(C507="","",B507&amp;"-"&amp;C507&amp;"-"&amp;E507)</f>
         <v/>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F508" s="39" t="str">
-        <f aca="false">IF(E508="","",B508&amp;"-"&amp;E508)</f>
+      <c r="F508" s="46" t="str">
+        <f aca="false">IF(C508="","",B508&amp;"-"&amp;C508&amp;"-"&amp;E508)</f>
         <v/>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F509" s="39" t="str">
-        <f aca="false">IF(E509="","",B509&amp;"-"&amp;E509)</f>
+      <c r="F509" s="46" t="str">
+        <f aca="false">IF(C509="","",B509&amp;"-"&amp;C509&amp;"-"&amp;E509)</f>
         <v/>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F510" s="39" t="str">
-        <f aca="false">IF(E510="","",B510&amp;"-"&amp;E510)</f>
+      <c r="F510" s="46" t="str">
+        <f aca="false">IF(C510="","",B510&amp;"-"&amp;C510&amp;"-"&amp;E510)</f>
         <v/>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F511" s="39" t="str">
-        <f aca="false">IF(E511="","",B511&amp;"-"&amp;E511)</f>
+      <c r="F511" s="46" t="str">
+        <f aca="false">IF(C511="","",B511&amp;"-"&amp;C511&amp;"-"&amp;E511)</f>
         <v/>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F512" s="39" t="str">
-        <f aca="false">IF(E512="","",B512&amp;"-"&amp;E512)</f>
+      <c r="F512" s="46" t="str">
+        <f aca="false">IF(C512="","",B512&amp;"-"&amp;C512&amp;"-"&amp;E512)</f>
         <v/>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F513" s="39" t="str">
-        <f aca="false">IF(E513="","",B513&amp;"-"&amp;E513)</f>
+      <c r="F513" s="46" t="str">
+        <f aca="false">IF(C513="","",B513&amp;"-"&amp;C513&amp;"-"&amp;E513)</f>
         <v/>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F514" s="39" t="str">
-        <f aca="false">IF(E514="","",B514&amp;"-"&amp;E514)</f>
+      <c r="F514" s="46" t="str">
+        <f aca="false">IF(C514="","",B514&amp;"-"&amp;C514&amp;"-"&amp;E514)</f>
         <v/>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F515" s="39" t="str">
-        <f aca="false">IF(E515="","",B515&amp;"-"&amp;E515)</f>
+      <c r="F515" s="46" t="str">
+        <f aca="false">IF(C515="","",B515&amp;"-"&amp;C515&amp;"-"&amp;E515)</f>
         <v/>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F516" s="39" t="str">
-        <f aca="false">IF(E516="","",B516&amp;"-"&amp;E516)</f>
+      <c r="F516" s="46" t="str">
+        <f aca="false">IF(C516="","",B516&amp;"-"&amp;C516&amp;"-"&amp;E516)</f>
         <v/>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F517" s="39" t="str">
-        <f aca="false">IF(E517="","",B517&amp;"-"&amp;E517)</f>
+      <c r="F517" s="46" t="str">
+        <f aca="false">IF(C517="","",B517&amp;"-"&amp;C517&amp;"-"&amp;E517)</f>
         <v/>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F518" s="39" t="str">
-        <f aca="false">IF(E518="","",B518&amp;"-"&amp;E518)</f>
+      <c r="F518" s="46" t="str">
+        <f aca="false">IF(C518="","",B518&amp;"-"&amp;C518&amp;"-"&amp;E518)</f>
         <v/>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F519" s="39" t="str">
-        <f aca="false">IF(E519="","",B519&amp;"-"&amp;E519)</f>
+      <c r="F519" s="46" t="str">
+        <f aca="false">IF(C519="","",B519&amp;"-"&amp;C519&amp;"-"&amp;E519)</f>
         <v/>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F520" s="39" t="str">
-        <f aca="false">IF(E520="","",B520&amp;"-"&amp;E520)</f>
+      <c r="F520" s="46" t="str">
+        <f aca="false">IF(C520="","",B520&amp;"-"&amp;C520&amp;"-"&amp;E520)</f>
         <v/>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F521" s="39" t="str">
-        <f aca="false">IF(E521="","",B521&amp;"-"&amp;E521)</f>
+      <c r="F521" s="46" t="str">
+        <f aca="false">IF(C521="","",B521&amp;"-"&amp;C521&amp;"-"&amp;E521)</f>
         <v/>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F522" s="39" t="str">
-        <f aca="false">IF(E522="","",B522&amp;"-"&amp;E522)</f>
+      <c r="F522" s="46" t="str">
+        <f aca="false">IF(C522="","",B522&amp;"-"&amp;C522&amp;"-"&amp;E522)</f>
         <v/>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F523" s="39" t="str">
-        <f aca="false">IF(E523="","",B523&amp;"-"&amp;E523)</f>
+      <c r="F523" s="46" t="str">
+        <f aca="false">IF(C523="","",B523&amp;"-"&amp;C523&amp;"-"&amp;E523)</f>
         <v/>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F524" s="39" t="str">
-        <f aca="false">IF(E524="","",B524&amp;"-"&amp;E524)</f>
+      <c r="F524" s="46" t="str">
+        <f aca="false">IF(C524="","",B524&amp;"-"&amp;C524&amp;"-"&amp;E524)</f>
         <v/>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F525" s="39" t="str">
-        <f aca="false">IF(E525="","",B525&amp;"-"&amp;E525)</f>
+      <c r="F525" s="46" t="str">
+        <f aca="false">IF(C525="","",B525&amp;"-"&amp;C525&amp;"-"&amp;E525)</f>
         <v/>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F526" s="39" t="str">
-        <f aca="false">IF(E526="","",B526&amp;"-"&amp;E526)</f>
+      <c r="F526" s="46" t="str">
+        <f aca="false">IF(C526="","",B526&amp;"-"&amp;C526&amp;"-"&amp;E526)</f>
         <v/>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F527" s="39" t="str">
-        <f aca="false">IF(E527="","",B527&amp;"-"&amp;E527)</f>
+      <c r="F527" s="46" t="str">
+        <f aca="false">IF(C527="","",B527&amp;"-"&amp;C527&amp;"-"&amp;E527)</f>
         <v/>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F528" s="39" t="str">
-        <f aca="false">IF(E528="","",B528&amp;"-"&amp;E528)</f>
+      <c r="F528" s="46" t="str">
+        <f aca="false">IF(C528="","",B528&amp;"-"&amp;C528&amp;"-"&amp;E528)</f>
         <v/>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F529" s="39" t="str">
-        <f aca="false">IF(E529="","",B529&amp;"-"&amp;E529)</f>
+      <c r="F529" s="46" t="str">
+        <f aca="false">IF(C529="","",B529&amp;"-"&amp;C529&amp;"-"&amp;E529)</f>
         <v/>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F530" s="39" t="str">
-        <f aca="false">IF(E530="","",B530&amp;"-"&amp;E530)</f>
+      <c r="F530" s="46" t="str">
+        <f aca="false">IF(C530="","",B530&amp;"-"&amp;C530&amp;"-"&amp;E530)</f>
         <v/>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F531" s="39" t="str">
-        <f aca="false">IF(E531="","",B531&amp;"-"&amp;E531)</f>
+      <c r="F531" s="46" t="str">
+        <f aca="false">IF(C531="","",B531&amp;"-"&amp;C531&amp;"-"&amp;E531)</f>
         <v/>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F532" s="39" t="str">
-        <f aca="false">IF(E532="","",B532&amp;"-"&amp;E532)</f>
+      <c r="F532" s="46" t="str">
+        <f aca="false">IF(C532="","",B532&amp;"-"&amp;C532&amp;"-"&amp;E532)</f>
         <v/>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F533" s="39" t="str">
-        <f aca="false">IF(E533="","",B533&amp;"-"&amp;E533)</f>
+      <c r="F533" s="46" t="str">
+        <f aca="false">IF(C533="","",B533&amp;"-"&amp;C533&amp;"-"&amp;E533)</f>
         <v/>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F534" s="39" t="str">
-        <f aca="false">IF(E534="","",B534&amp;"-"&amp;E534)</f>
+      <c r="F534" s="46" t="str">
+        <f aca="false">IF(C534="","",B534&amp;"-"&amp;C534&amp;"-"&amp;E534)</f>
         <v/>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F535" s="39" t="str">
-        <f aca="false">IF(E535="","",B535&amp;"-"&amp;E535)</f>
+      <c r="F535" s="46" t="str">
+        <f aca="false">IF(C535="","",B535&amp;"-"&amp;C535&amp;"-"&amp;E535)</f>
         <v/>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F536" s="39" t="str">
-        <f aca="false">IF(E536="","",B536&amp;"-"&amp;E536)</f>
+      <c r="F536" s="46" t="str">
+        <f aca="false">IF(C536="","",B536&amp;"-"&amp;C536&amp;"-"&amp;E536)</f>
         <v/>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F537" s="39" t="str">
-        <f aca="false">IF(E537="","",B537&amp;"-"&amp;E537)</f>
+      <c r="F537" s="46" t="str">
+        <f aca="false">IF(C537="","",B537&amp;"-"&amp;C537&amp;"-"&amp;E537)</f>
         <v/>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F538" s="39" t="str">
-        <f aca="false">IF(E538="","",B538&amp;"-"&amp;E538)</f>
+      <c r="F538" s="46" t="str">
+        <f aca="false">IF(C538="","",B538&amp;"-"&amp;C538&amp;"-"&amp;E538)</f>
         <v/>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F539" s="39" t="str">
-        <f aca="false">IF(E539="","",B539&amp;"-"&amp;E539)</f>
+      <c r="F539" s="46" t="str">
+        <f aca="false">IF(C539="","",B539&amp;"-"&amp;C539&amp;"-"&amp;E539)</f>
         <v/>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F540" s="39" t="str">
-        <f aca="false">IF(E540="","",B540&amp;"-"&amp;E540)</f>
+      <c r="F540" s="46" t="str">
+        <f aca="false">IF(C540="","",B540&amp;"-"&amp;C540&amp;"-"&amp;E540)</f>
         <v/>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F541" s="39" t="str">
-        <f aca="false">IF(E541="","",B541&amp;"-"&amp;E541)</f>
+      <c r="F541" s="46" t="str">
+        <f aca="false">IF(C541="","",B541&amp;"-"&amp;C541&amp;"-"&amp;E541)</f>
         <v/>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F542" s="39" t="str">
-        <f aca="false">IF(E542="","",B542&amp;"-"&amp;E542)</f>
+      <c r="F542" s="46" t="str">
+        <f aca="false">IF(C542="","",B542&amp;"-"&amp;C542&amp;"-"&amp;E542)</f>
         <v/>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F543" s="39" t="str">
-        <f aca="false">IF(E543="","",B543&amp;"-"&amp;E543)</f>
+      <c r="F543" s="46" t="str">
+        <f aca="false">IF(C543="","",B543&amp;"-"&amp;C543&amp;"-"&amp;E543)</f>
         <v/>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F544" s="39" t="str">
-        <f aca="false">IF(E544="","",B544&amp;"-"&amp;E544)</f>
+      <c r="F544" s="46" t="str">
+        <f aca="false">IF(C544="","",B544&amp;"-"&amp;C544&amp;"-"&amp;E544)</f>
         <v/>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F545" s="39" t="str">
-        <f aca="false">IF(E545="","",B545&amp;"-"&amp;E545)</f>
+      <c r="F545" s="46" t="str">
+        <f aca="false">IF(C545="","",B545&amp;"-"&amp;C545&amp;"-"&amp;E545)</f>
         <v/>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F546" s="39" t="str">
-        <f aca="false">IF(E546="","",B546&amp;"-"&amp;E546)</f>
+      <c r="F546" s="46" t="str">
+        <f aca="false">IF(C546="","",B546&amp;"-"&amp;C546&amp;"-"&amp;E546)</f>
         <v/>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F547" s="39" t="str">
-        <f aca="false">IF(E547="","",B547&amp;"-"&amp;E547)</f>
+      <c r="F547" s="46" t="str">
+        <f aca="false">IF(C547="","",B547&amp;"-"&amp;C547&amp;"-"&amp;E547)</f>
         <v/>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F548" s="39" t="str">
-        <f aca="false">IF(E548="","",B548&amp;"-"&amp;E548)</f>
+      <c r="F548" s="46" t="str">
+        <f aca="false">IF(C548="","",B548&amp;"-"&amp;C548&amp;"-"&amp;E548)</f>
         <v/>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F549" s="39" t="str">
-        <f aca="false">IF(E549="","",B549&amp;"-"&amp;E549)</f>
+      <c r="F549" s="46" t="str">
+        <f aca="false">IF(C549="","",B549&amp;"-"&amp;C549&amp;"-"&amp;E549)</f>
         <v/>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F550" s="39" t="str">
-        <f aca="false">IF(E550="","",B550&amp;"-"&amp;E550)</f>
+      <c r="F550" s="46" t="str">
+        <f aca="false">IF(C550="","",B550&amp;"-"&amp;C550&amp;"-"&amp;E550)</f>
         <v/>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F551" s="39" t="str">
-        <f aca="false">IF(E551="","",B551&amp;"-"&amp;E551)</f>
+      <c r="F551" s="46" t="str">
+        <f aca="false">IF(C551="","",B551&amp;"-"&amp;C551&amp;"-"&amp;E551)</f>
         <v/>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F552" s="39" t="str">
-        <f aca="false">IF(E552="","",B552&amp;"-"&amp;E552)</f>
+      <c r="F552" s="46" t="str">
+        <f aca="false">IF(C552="","",B552&amp;"-"&amp;C552&amp;"-"&amp;E552)</f>
         <v/>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F553" s="39" t="str">
-        <f aca="false">IF(E553="","",B553&amp;"-"&amp;E553)</f>
+      <c r="F553" s="46" t="str">
+        <f aca="false">IF(C553="","",B553&amp;"-"&amp;C553&amp;"-"&amp;E553)</f>
         <v/>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F554" s="39" t="str">
-        <f aca="false">IF(E554="","",B554&amp;"-"&amp;E554)</f>
+      <c r="F554" s="46" t="str">
+        <f aca="false">IF(C554="","",B554&amp;"-"&amp;C554&amp;"-"&amp;E554)</f>
         <v/>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F555" s="39" t="str">
-        <f aca="false">IF(E555="","",B555&amp;"-"&amp;E555)</f>
+      <c r="F555" s="46" t="str">
+        <f aca="false">IF(C555="","",B555&amp;"-"&amp;C555&amp;"-"&amp;E555)</f>
         <v/>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F556" s="39" t="str">
-        <f aca="false">IF(E556="","",B556&amp;"-"&amp;E556)</f>
+      <c r="F556" s="46" t="str">
+        <f aca="false">IF(C556="","",B556&amp;"-"&amp;C556&amp;"-"&amp;E556)</f>
         <v/>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F557" s="39" t="str">
-        <f aca="false">IF(E557="","",B557&amp;"-"&amp;E557)</f>
+      <c r="F557" s="46" t="str">
+        <f aca="false">IF(C557="","",B557&amp;"-"&amp;C557&amp;"-"&amp;E557)</f>
         <v/>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F558" s="39" t="str">
-        <f aca="false">IF(E558="","",B558&amp;"-"&amp;E558)</f>
+      <c r="F558" s="46" t="str">
+        <f aca="false">IF(C558="","",B558&amp;"-"&amp;C558&amp;"-"&amp;E558)</f>
         <v/>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F559" s="39" t="str">
-        <f aca="false">IF(E559="","",B559&amp;"-"&amp;E559)</f>
+      <c r="F559" s="46" t="str">
+        <f aca="false">IF(C559="","",B559&amp;"-"&amp;C559&amp;"-"&amp;E559)</f>
         <v/>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F560" s="39" t="str">
-        <f aca="false">IF(E560="","",B560&amp;"-"&amp;E560)</f>
+      <c r="F560" s="46" t="str">
+        <f aca="false">IF(C560="","",B560&amp;"-"&amp;C560&amp;"-"&amp;E560)</f>
         <v/>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F561" s="39" t="str">
-        <f aca="false">IF(E561="","",B561&amp;"-"&amp;E561)</f>
+      <c r="F561" s="46" t="str">
+        <f aca="false">IF(C561="","",B561&amp;"-"&amp;C561&amp;"-"&amp;E561)</f>
         <v/>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F562" s="39" t="str">
-        <f aca="false">IF(E562="","",B562&amp;"-"&amp;E562)</f>
+      <c r="F562" s="46" t="str">
+        <f aca="false">IF(C562="","",B562&amp;"-"&amp;C562&amp;"-"&amp;E562)</f>
         <v/>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F563" s="39" t="str">
-        <f aca="false">IF(E563="","",B563&amp;"-"&amp;E563)</f>
+      <c r="F563" s="46" t="str">
+        <f aca="false">IF(C563="","",B563&amp;"-"&amp;C563&amp;"-"&amp;E563)</f>
         <v/>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F564" s="39" t="str">
-        <f aca="false">IF(E564="","",B564&amp;"-"&amp;E564)</f>
+      <c r="F564" s="46" t="str">
+        <f aca="false">IF(C564="","",B564&amp;"-"&amp;C564&amp;"-"&amp;E564)</f>
         <v/>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F565" s="39" t="str">
-        <f aca="false">IF(E565="","",B565&amp;"-"&amp;E565)</f>
+      <c r="F565" s="46" t="str">
+        <f aca="false">IF(C565="","",B565&amp;"-"&amp;C565&amp;"-"&amp;E565)</f>
         <v/>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F566" s="39" t="str">
-        <f aca="false">IF(E566="","",B566&amp;"-"&amp;E566)</f>
+      <c r="F566" s="46" t="str">
+        <f aca="false">IF(C566="","",B566&amp;"-"&amp;C566&amp;"-"&amp;E566)</f>
         <v/>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F567" s="39" t="str">
-        <f aca="false">IF(E567="","",B567&amp;"-"&amp;E567)</f>
+      <c r="F567" s="46" t="str">
+        <f aca="false">IF(C567="","",B567&amp;"-"&amp;C567&amp;"-"&amp;E567)</f>
         <v/>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F568" s="39" t="str">
-        <f aca="false">IF(E568="","",B568&amp;"-"&amp;E568)</f>
+      <c r="F568" s="46" t="str">
+        <f aca="false">IF(C568="","",B568&amp;"-"&amp;C568&amp;"-"&amp;E568)</f>
         <v/>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F569" s="39" t="str">
-        <f aca="false">IF(E569="","",B569&amp;"-"&amp;E569)</f>
+      <c r="F569" s="46" t="str">
+        <f aca="false">IF(C569="","",B569&amp;"-"&amp;C569&amp;"-"&amp;E569)</f>
         <v/>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F570" s="39" t="str">
-        <f aca="false">IF(E570="","",B570&amp;"-"&amp;E570)</f>
+      <c r="F570" s="46" t="str">
+        <f aca="false">IF(C570="","",B570&amp;"-"&amp;C570&amp;"-"&amp;E570)</f>
         <v/>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F571" s="39" t="str">
-        <f aca="false">IF(E571="","",B571&amp;"-"&amp;E571)</f>
+      <c r="F571" s="46" t="str">
+        <f aca="false">IF(C571="","",B571&amp;"-"&amp;C571&amp;"-"&amp;E571)</f>
         <v/>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F572" s="39" t="str">
-        <f aca="false">IF(E572="","",B572&amp;"-"&amp;E572)</f>
+      <c r="F572" s="46" t="str">
+        <f aca="false">IF(C572="","",B572&amp;"-"&amp;C572&amp;"-"&amp;E572)</f>
         <v/>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F573" s="39" t="str">
-        <f aca="false">IF(E573="","",B573&amp;"-"&amp;E573)</f>
+      <c r="F573" s="46" t="str">
+        <f aca="false">IF(C573="","",B573&amp;"-"&amp;C573&amp;"-"&amp;E573)</f>
         <v/>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F574" s="39" t="str">
-        <f aca="false">IF(E574="","",B574&amp;"-"&amp;E574)</f>
+      <c r="F574" s="46" t="str">
+        <f aca="false">IF(C574="","",B574&amp;"-"&amp;C574&amp;"-"&amp;E574)</f>
         <v/>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F575" s="39" t="str">
-        <f aca="false">IF(E575="","",B575&amp;"-"&amp;E575)</f>
+      <c r="F575" s="46" t="str">
+        <f aca="false">IF(C575="","",B575&amp;"-"&amp;C575&amp;"-"&amp;E575)</f>
         <v/>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F576" s="39" t="str">
-        <f aca="false">IF(E576="","",B576&amp;"-"&amp;E576)</f>
+      <c r="F576" s="46" t="str">
+        <f aca="false">IF(C576="","",B576&amp;"-"&amp;C576&amp;"-"&amp;E576)</f>
         <v/>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F577" s="39" t="str">
-        <f aca="false">IF(E577="","",B577&amp;"-"&amp;E577)</f>
+      <c r="F577" s="46" t="str">
+        <f aca="false">IF(C577="","",B577&amp;"-"&amp;C577&amp;"-"&amp;E577)</f>
         <v/>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F578" s="39" t="str">
-        <f aca="false">IF(E578="","",B578&amp;"-"&amp;E578)</f>
+      <c r="F578" s="46" t="str">
+        <f aca="false">IF(C578="","",B578&amp;"-"&amp;C578&amp;"-"&amp;E578)</f>
         <v/>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F579" s="39" t="str">
-        <f aca="false">IF(E579="","",B579&amp;"-"&amp;E579)</f>
+      <c r="F579" s="46" t="str">
+        <f aca="false">IF(C579="","",B579&amp;"-"&amp;C579&amp;"-"&amp;E579)</f>
         <v/>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F580" s="39" t="str">
-        <f aca="false">IF(E580="","",B580&amp;"-"&amp;E580)</f>
+      <c r="F580" s="46" t="str">
+        <f aca="false">IF(C580="","",B580&amp;"-"&amp;C580&amp;"-"&amp;E580)</f>
         <v/>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F581" s="39" t="str">
-        <f aca="false">IF(E581="","",B581&amp;"-"&amp;E581)</f>
+      <c r="F581" s="46" t="str">
+        <f aca="false">IF(C581="","",B581&amp;"-"&amp;C581&amp;"-"&amp;E581)</f>
         <v/>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F582" s="39" t="str">
-        <f aca="false">IF(E582="","",B582&amp;"-"&amp;E582)</f>
+      <c r="F582" s="46" t="str">
+        <f aca="false">IF(C582="","",B582&amp;"-"&amp;C582&amp;"-"&amp;E582)</f>
         <v/>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F583" s="39" t="str">
-        <f aca="false">IF(E583="","",B583&amp;"-"&amp;E583)</f>
+      <c r="F583" s="46" t="str">
+        <f aca="false">IF(C583="","",B583&amp;"-"&amp;C583&amp;"-"&amp;E583)</f>
         <v/>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F584" s="39" t="str">
-        <f aca="false">IF(E584="","",B584&amp;"-"&amp;E584)</f>
+      <c r="F584" s="46" t="str">
+        <f aca="false">IF(C584="","",B584&amp;"-"&amp;C584&amp;"-"&amp;E584)</f>
         <v/>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F585" s="39" t="str">
-        <f aca="false">IF(E585="","",B585&amp;"-"&amp;E585)</f>
+      <c r="F585" s="46" t="str">
+        <f aca="false">IF(C585="","",B585&amp;"-"&amp;C585&amp;"-"&amp;E585)</f>
         <v/>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F586" s="39" t="str">
-        <f aca="false">IF(E586="","",B586&amp;"-"&amp;E586)</f>
+      <c r="F586" s="46" t="str">
+        <f aca="false">IF(C586="","",B586&amp;"-"&amp;C586&amp;"-"&amp;E586)</f>
         <v/>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F587" s="39" t="str">
-        <f aca="false">IF(E587="","",B587&amp;"-"&amp;E587)</f>
+      <c r="F587" s="46" t="str">
+        <f aca="false">IF(C587="","",B587&amp;"-"&amp;C587&amp;"-"&amp;E587)</f>
         <v/>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F588" s="39" t="str">
-        <f aca="false">IF(E588="","",B588&amp;"-"&amp;E588)</f>
+      <c r="F588" s="46" t="str">
+        <f aca="false">IF(C588="","",B588&amp;"-"&amp;C588&amp;"-"&amp;E588)</f>
         <v/>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F589" s="39" t="str">
-        <f aca="false">IF(E589="","",B589&amp;"-"&amp;E589)</f>
+      <c r="F589" s="46" t="str">
+        <f aca="false">IF(C589="","",B589&amp;"-"&amp;C589&amp;"-"&amp;E589)</f>
         <v/>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F590" s="39" t="str">
-        <f aca="false">IF(E590="","",B590&amp;"-"&amp;E590)</f>
+      <c r="F590" s="46" t="str">
+        <f aca="false">IF(C590="","",B590&amp;"-"&amp;C590&amp;"-"&amp;E590)</f>
         <v/>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F591" s="39" t="str">
-        <f aca="false">IF(E591="","",B591&amp;"-"&amp;E591)</f>
+      <c r="F591" s="46" t="str">
+        <f aca="false">IF(C591="","",B591&amp;"-"&amp;C591&amp;"-"&amp;E591)</f>
         <v/>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F592" s="39" t="str">
-        <f aca="false">IF(E592="","",B592&amp;"-"&amp;E592)</f>
+      <c r="F592" s="46" t="str">
+        <f aca="false">IF(C592="","",B592&amp;"-"&amp;C592&amp;"-"&amp;E592)</f>
         <v/>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F593" s="39" t="str">
-        <f aca="false">IF(E593="","",B593&amp;"-"&amp;E593)</f>
+      <c r="F593" s="46" t="str">
+        <f aca="false">IF(C593="","",B593&amp;"-"&amp;C593&amp;"-"&amp;E593)</f>
         <v/>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F594" s="39" t="str">
-        <f aca="false">IF(E594="","",B594&amp;"-"&amp;E594)</f>
+      <c r="F594" s="46" t="str">
+        <f aca="false">IF(C594="","",B594&amp;"-"&amp;C594&amp;"-"&amp;E594)</f>
         <v/>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F595" s="39" t="str">
-        <f aca="false">IF(E595="","",B595&amp;"-"&amp;E595)</f>
+      <c r="F595" s="46" t="str">
+        <f aca="false">IF(C595="","",B595&amp;"-"&amp;C595&amp;"-"&amp;E595)</f>
         <v/>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F596" s="39" t="str">
-        <f aca="false">IF(E596="","",B596&amp;"-"&amp;E596)</f>
+      <c r="F596" s="46" t="str">
+        <f aca="false">IF(C596="","",B596&amp;"-"&amp;C596&amp;"-"&amp;E596)</f>
         <v/>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F597" s="39" t="str">
-        <f aca="false">IF(E597="","",B597&amp;"-"&amp;E597)</f>
+      <c r="F597" s="46" t="str">
+        <f aca="false">IF(C597="","",B597&amp;"-"&amp;C597&amp;"-"&amp;E597)</f>
         <v/>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F598" s="39" t="str">
-        <f aca="false">IF(E598="","",B598&amp;"-"&amp;E598)</f>
+      <c r="F598" s="46" t="str">
+        <f aca="false">IF(C598="","",B598&amp;"-"&amp;C598&amp;"-"&amp;E598)</f>
         <v/>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F599" s="39" t="str">
-        <f aca="false">IF(E599="","",B599&amp;"-"&amp;E599)</f>
+      <c r="F599" s="46" t="str">
+        <f aca="false">IF(C599="","",B599&amp;"-"&amp;C599&amp;"-"&amp;E599)</f>
         <v/>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F600" s="39" t="str">
-        <f aca="false">IF(E600="","",B600&amp;"-"&amp;E600)</f>
+      <c r="F600" s="46" t="str">
+        <f aca="false">IF(C600="","",B600&amp;"-"&amp;C600&amp;"-"&amp;E600)</f>
         <v/>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F601" s="39" t="str">
-        <f aca="false">IF(E601="","",B601&amp;"-"&amp;E601)</f>
+      <c r="F601" s="46" t="str">
+        <f aca="false">IF(C601="","",B601&amp;"-"&amp;C601&amp;"-"&amp;E601)</f>
         <v/>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F602" s="39" t="str">
-        <f aca="false">IF(E602="","",B602&amp;"-"&amp;E602)</f>
+      <c r="F602" s="46" t="str">
+        <f aca="false">IF(C602="","",B602&amp;"-"&amp;C602&amp;"-"&amp;E602)</f>
         <v/>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F603" s="39" t="str">
-        <f aca="false">IF(E603="","",B603&amp;"-"&amp;E603)</f>
+      <c r="F603" s="46" t="str">
+        <f aca="false">IF(C603="","",B603&amp;"-"&amp;C603&amp;"-"&amp;E603)</f>
         <v/>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F604" s="39" t="str">
-        <f aca="false">IF(E604="","",B604&amp;"-"&amp;E604)</f>
+      <c r="F604" s="46" t="str">
+        <f aca="false">IF(C604="","",B604&amp;"-"&amp;C604&amp;"-"&amp;E604)</f>
         <v/>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F605" s="39" t="str">
-        <f aca="false">IF(E605="","",B605&amp;"-"&amp;E605)</f>
+      <c r="F605" s="46" t="str">
+        <f aca="false">IF(C605="","",B605&amp;"-"&amp;C605&amp;"-"&amp;E605)</f>
         <v/>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F606" s="39" t="str">
-        <f aca="false">IF(E606="","",B606&amp;"-"&amp;E606)</f>
+      <c r="F606" s="46" t="str">
+        <f aca="false">IF(C606="","",B606&amp;"-"&amp;C606&amp;"-"&amp;E606)</f>
         <v/>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F607" s="39" t="str">
-        <f aca="false">IF(E607="","",B607&amp;"-"&amp;E607)</f>
+      <c r="F607" s="46" t="str">
+        <f aca="false">IF(C607="","",B607&amp;"-"&amp;C607&amp;"-"&amp;E607)</f>
         <v/>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F608" s="39" t="str">
-        <f aca="false">IF(E608="","",B608&amp;"-"&amp;E608)</f>
+      <c r="F608" s="46" t="str">
+        <f aca="false">IF(C608="","",B608&amp;"-"&amp;C608&amp;"-"&amp;E608)</f>
         <v/>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F609" s="39" t="str">
-        <f aca="false">IF(E609="","",B609&amp;"-"&amp;E609)</f>
+      <c r="F609" s="46" t="str">
+        <f aca="false">IF(C609="","",B609&amp;"-"&amp;C609&amp;"-"&amp;E609)</f>
         <v/>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F610" s="39" t="str">
-        <f aca="false">IF(E610="","",B610&amp;"-"&amp;E610)</f>
+      <c r="F610" s="46" t="str">
+        <f aca="false">IF(C610="","",B610&amp;"-"&amp;C610&amp;"-"&amp;E610)</f>
         <v/>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F611" s="39" t="str">
-        <f aca="false">IF(E611="","",B611&amp;"-"&amp;E611)</f>
+      <c r="F611" s="46" t="str">
+        <f aca="false">IF(C611="","",B611&amp;"-"&amp;C611&amp;"-"&amp;E611)</f>
         <v/>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F612" s="39" t="str">
-        <f aca="false">IF(E612="","",B612&amp;"-"&amp;E612)</f>
+      <c r="F612" s="46" t="str">
+        <f aca="false">IF(C612="","",B612&amp;"-"&amp;C612&amp;"-"&amp;E612)</f>
         <v/>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F613" s="39" t="str">
-        <f aca="false">IF(E613="","",B613&amp;"-"&amp;E613)</f>
+      <c r="F613" s="46" t="str">
+        <f aca="false">IF(C613="","",B613&amp;"-"&amp;C613&amp;"-"&amp;E613)</f>
         <v/>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F614" s="39" t="str">
-        <f aca="false">IF(E614="","",B614&amp;"-"&amp;E614)</f>
+      <c r="F614" s="46" t="str">
+        <f aca="false">IF(C614="","",B614&amp;"-"&amp;C614&amp;"-"&amp;E614)</f>
         <v/>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F615" s="39" t="str">
-        <f aca="false">IF(E615="","",B615&amp;"-"&amp;E615)</f>
+      <c r="F615" s="46" t="str">
+        <f aca="false">IF(C615="","",B615&amp;"-"&amp;C615&amp;"-"&amp;E615)</f>
         <v/>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F616" s="39" t="str">
-        <f aca="false">IF(E616="","",B616&amp;"-"&amp;E616)</f>
+      <c r="F616" s="46" t="str">
+        <f aca="false">IF(C616="","",B616&amp;"-"&amp;C616&amp;"-"&amp;E616)</f>
         <v/>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F617" s="39" t="str">
-        <f aca="false">IF(E617="","",B617&amp;"-"&amp;E617)</f>
+      <c r="F617" s="46" t="str">
+        <f aca="false">IF(C617="","",B617&amp;"-"&amp;C617&amp;"-"&amp;E617)</f>
         <v/>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F618" s="39" t="str">
-        <f aca="false">IF(E618="","",B618&amp;"-"&amp;E618)</f>
+      <c r="F618" s="46" t="str">
+        <f aca="false">IF(C618="","",B618&amp;"-"&amp;C618&amp;"-"&amp;E618)</f>
         <v/>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F619" s="39" t="str">
-        <f aca="false">IF(E619="","",B619&amp;"-"&amp;E619)</f>
+      <c r="F619" s="46" t="str">
+        <f aca="false">IF(C619="","",B619&amp;"-"&amp;C619&amp;"-"&amp;E619)</f>
         <v/>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F620" s="39" t="str">
-        <f aca="false">IF(E620="","",B620&amp;"-"&amp;E620)</f>
+      <c r="F620" s="46" t="str">
+        <f aca="false">IF(C620="","",B620&amp;"-"&amp;C620&amp;"-"&amp;E620)</f>
         <v/>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F621" s="39" t="str">
-        <f aca="false">IF(E621="","",B621&amp;"-"&amp;E621)</f>
+      <c r="F621" s="46" t="str">
+        <f aca="false">IF(C621="","",B621&amp;"-"&amp;C621&amp;"-"&amp;E621)</f>
         <v/>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F622" s="39" t="str">
-        <f aca="false">IF(E622="","",B622&amp;"-"&amp;E622)</f>
+      <c r="F622" s="46" t="str">
+        <f aca="false">IF(C622="","",B622&amp;"-"&amp;C622&amp;"-"&amp;E622)</f>
         <v/>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F623" s="39" t="str">
-        <f aca="false">IF(E623="","",B623&amp;"-"&amp;E623)</f>
+      <c r="F623" s="46" t="str">
+        <f aca="false">IF(C623="","",B623&amp;"-"&amp;C623&amp;"-"&amp;E623)</f>
         <v/>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F624" s="39" t="str">
-        <f aca="false">IF(E624="","",B624&amp;"-"&amp;E624)</f>
+      <c r="F624" s="46" t="str">
+        <f aca="false">IF(C624="","",B624&amp;"-"&amp;C624&amp;"-"&amp;E624)</f>
         <v/>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F625" s="39" t="str">
-        <f aca="false">IF(E625="","",B625&amp;"-"&amp;E625)</f>
+      <c r="F625" s="46" t="str">
+        <f aca="false">IF(C625="","",B625&amp;"-"&amp;C625&amp;"-"&amp;E625)</f>
         <v/>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F626" s="39" t="str">
-        <f aca="false">IF(E626="","",B626&amp;"-"&amp;E626)</f>
+      <c r="F626" s="46" t="str">
+        <f aca="false">IF(C626="","",B626&amp;"-"&amp;C626&amp;"-"&amp;E626)</f>
         <v/>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F627" s="39" t="str">
-        <f aca="false">IF(E627="","",B627&amp;"-"&amp;E627)</f>
+      <c r="F627" s="46" t="str">
+        <f aca="false">IF(C627="","",B627&amp;"-"&amp;C627&amp;"-"&amp;E627)</f>
         <v/>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F628" s="39" t="str">
-        <f aca="false">IF(E628="","",B628&amp;"-"&amp;E628)</f>
+      <c r="F628" s="46" t="str">
+        <f aca="false">IF(C628="","",B628&amp;"-"&amp;C628&amp;"-"&amp;E628)</f>
         <v/>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F629" s="39" t="str">
-        <f aca="false">IF(E629="","",B629&amp;"-"&amp;E629)</f>
+      <c r="F629" s="46" t="str">
+        <f aca="false">IF(C629="","",B629&amp;"-"&amp;C629&amp;"-"&amp;E629)</f>
         <v/>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F630" s="39" t="str">
-        <f aca="false">IF(E630="","",B630&amp;"-"&amp;E630)</f>
+      <c r="F630" s="46" t="str">
+        <f aca="false">IF(C630="","",B630&amp;"-"&amp;C630&amp;"-"&amp;E630)</f>
         <v/>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F631" s="39" t="str">
-        <f aca="false">IF(E631="","",B631&amp;"-"&amp;E631)</f>
+      <c r="F631" s="46" t="str">
+        <f aca="false">IF(C631="","",B631&amp;"-"&amp;C631&amp;"-"&amp;E631)</f>
         <v/>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F632" s="39" t="str">
-        <f aca="false">IF(E632="","",B632&amp;"-"&amp;E632)</f>
+      <c r="F632" s="46" t="str">
+        <f aca="false">IF(C632="","",B632&amp;"-"&amp;C632&amp;"-"&amp;E632)</f>
         <v/>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F633" s="39" t="str">
-        <f aca="false">IF(E633="","",B633&amp;"-"&amp;E633)</f>
+      <c r="F633" s="46" t="str">
+        <f aca="false">IF(C633="","",B633&amp;"-"&amp;C633&amp;"-"&amp;E633)</f>
         <v/>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F634" s="39" t="str">
-        <f aca="false">IF(E634="","",B634&amp;"-"&amp;E634)</f>
+      <c r="F634" s="46" t="str">
+        <f aca="false">IF(C634="","",B634&amp;"-"&amp;C634&amp;"-"&amp;E634)</f>
         <v/>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F635" s="39" t="str">
-        <f aca="false">IF(E635="","",B635&amp;"-"&amp;E635)</f>
+      <c r="F635" s="46" t="str">
+        <f aca="false">IF(C635="","",B635&amp;"-"&amp;C635&amp;"-"&amp;E635)</f>
         <v/>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F636" s="39" t="str">
-        <f aca="false">IF(E636="","",B636&amp;"-"&amp;E636)</f>
+      <c r="F636" s="46" t="str">
+        <f aca="false">IF(C636="","",B636&amp;"-"&amp;C636&amp;"-"&amp;E636)</f>
         <v/>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F637" s="39" t="str">
-        <f aca="false">IF(E637="","",B637&amp;"-"&amp;E637)</f>
+      <c r="F637" s="46" t="str">
+        <f aca="false">IF(C637="","",B637&amp;"-"&amp;C637&amp;"-"&amp;E637)</f>
         <v/>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F638" s="39" t="str">
-        <f aca="false">IF(E638="","",B638&amp;"-"&amp;E638)</f>
+      <c r="F638" s="46" t="str">
+        <f aca="false">IF(C638="","",B638&amp;"-"&amp;C638&amp;"-"&amp;E638)</f>
         <v/>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F639" s="39" t="str">
-        <f aca="false">IF(E639="","",B639&amp;"-"&amp;E639)</f>
+      <c r="F639" s="46" t="str">
+        <f aca="false">IF(C639="","",B639&amp;"-"&amp;C639&amp;"-"&amp;E639)</f>
         <v/>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F640" s="39" t="str">
-        <f aca="false">IF(E640="","",B640&amp;"-"&amp;E640)</f>
+      <c r="F640" s="46" t="str">
+        <f aca="false">IF(C640="","",B640&amp;"-"&amp;C640&amp;"-"&amp;E640)</f>
         <v/>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F641" s="39" t="str">
-        <f aca="false">IF(E641="","",B641&amp;"-"&amp;E641)</f>
+      <c r="F641" s="46" t="str">
+        <f aca="false">IF(C641="","",B641&amp;"-"&amp;C641&amp;"-"&amp;E641)</f>
         <v/>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F642" s="39" t="str">
-        <f aca="false">IF(E642="","",B642&amp;"-"&amp;E642)</f>
+      <c r="F642" s="46" t="str">
+        <f aca="false">IF(C642="","",B642&amp;"-"&amp;C642&amp;"-"&amp;E642)</f>
         <v/>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F643" s="39" t="str">
-        <f aca="false">IF(E643="","",B643&amp;"-"&amp;E643)</f>
+      <c r="F643" s="46" t="str">
+        <f aca="false">IF(C643="","",B643&amp;"-"&amp;C643&amp;"-"&amp;E643)</f>
         <v/>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F644" s="39" t="str">
-        <f aca="false">IF(E644="","",B644&amp;"-"&amp;E644)</f>
+      <c r="F644" s="46" t="str">
+        <f aca="false">IF(C644="","",B644&amp;"-"&amp;C644&amp;"-"&amp;E644)</f>
         <v/>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F645" s="39" t="str">
-        <f aca="false">IF(E645="","",B645&amp;"-"&amp;E645)</f>
+      <c r="F645" s="46" t="str">
+        <f aca="false">IF(C645="","",B645&amp;"-"&amp;C645&amp;"-"&amp;E645)</f>
         <v/>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F646" s="39" t="str">
-        <f aca="false">IF(E646="","",B646&amp;"-"&amp;E646)</f>
+      <c r="F646" s="46" t="str">
+        <f aca="false">IF(C646="","",B646&amp;"-"&amp;C646&amp;"-"&amp;E646)</f>
         <v/>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F647" s="39" t="str">
-        <f aca="false">IF(E647="","",B647&amp;"-"&amp;E647)</f>
+      <c r="F647" s="46" t="str">
+        <f aca="false">IF(C647="","",B647&amp;"-"&amp;C647&amp;"-"&amp;E647)</f>
         <v/>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F648" s="39" t="str">
-        <f aca="false">IF(E648="","",B648&amp;"-"&amp;E648)</f>
+      <c r="F648" s="46" t="str">
+        <f aca="false">IF(C648="","",B648&amp;"-"&amp;C648&amp;"-"&amp;E648)</f>
         <v/>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F649" s="39" t="str">
-        <f aca="false">IF(E649="","",B649&amp;"-"&amp;E649)</f>
+      <c r="F649" s="46" t="str">
+        <f aca="false">IF(C649="","",B649&amp;"-"&amp;C649&amp;"-"&amp;E649)</f>
         <v/>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F650" s="39" t="str">
-        <f aca="false">IF(E650="","",B650&amp;"-"&amp;E650)</f>
+      <c r="F650" s="46" t="str">
+        <f aca="false">IF(C650="","",B650&amp;"-"&amp;C650&amp;"-"&amp;E650)</f>
         <v/>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F651" s="39" t="str">
-        <f aca="false">IF(E651="","",B651&amp;"-"&amp;E651)</f>
+      <c r="F651" s="46" t="str">
+        <f aca="false">IF(C651="","",B651&amp;"-"&amp;C651&amp;"-"&amp;E651)</f>
         <v/>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F652" s="39" t="str">
-        <f aca="false">IF(E652="","",B652&amp;"-"&amp;E652)</f>
+      <c r="F652" s="46" t="str">
+        <f aca="false">IF(C652="","",B652&amp;"-"&amp;C652&amp;"-"&amp;E652)</f>
         <v/>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F653" s="39" t="str">
-        <f aca="false">IF(E653="","",B653&amp;"-"&amp;E653)</f>
+      <c r="F653" s="46" t="str">
+        <f aca="false">IF(C653="","",B653&amp;"-"&amp;C653&amp;"-"&amp;E653)</f>
         <v/>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F654" s="39" t="str">
-        <f aca="false">IF(E654="","",B654&amp;"-"&amp;E654)</f>
+      <c r="F654" s="46" t="str">
+        <f aca="false">IF(C654="","",B654&amp;"-"&amp;C654&amp;"-"&amp;E654)</f>
         <v/>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F655" s="39" t="str">
-        <f aca="false">IF(E655="","",B655&amp;"-"&amp;E655)</f>
+      <c r="F655" s="46" t="str">
+        <f aca="false">IF(C655="","",B655&amp;"-"&amp;C655&amp;"-"&amp;E655)</f>
         <v/>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F656" s="39" t="str">
-        <f aca="false">IF(E656="","",B656&amp;"-"&amp;E656)</f>
+      <c r="F656" s="46" t="str">
+        <f aca="false">IF(C656="","",B656&amp;"-"&amp;C656&amp;"-"&amp;E656)</f>
         <v/>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F657" s="39" t="str">
-        <f aca="false">IF(E657="","",B657&amp;"-"&amp;E657)</f>
+      <c r="F657" s="46" t="str">
+        <f aca="false">IF(C657="","",B657&amp;"-"&amp;C657&amp;"-"&amp;E657)</f>
         <v/>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F658" s="39" t="str">
-        <f aca="false">IF(E658="","",B658&amp;"-"&amp;E658)</f>
+      <c r="F658" s="46" t="str">
+        <f aca="false">IF(C658="","",B658&amp;"-"&amp;C658&amp;"-"&amp;E658)</f>
         <v/>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F659" s="39" t="str">
-        <f aca="false">IF(E659="","",B659&amp;"-"&amp;E659)</f>
+      <c r="F659" s="46" t="str">
+        <f aca="false">IF(C659="","",B659&amp;"-"&amp;C659&amp;"-"&amp;E659)</f>
         <v/>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F660" s="39" t="str">
-        <f aca="false">IF(E660="","",B660&amp;"-"&amp;E660)</f>
+      <c r="F660" s="46" t="str">
+        <f aca="false">IF(C660="","",B660&amp;"-"&amp;C660&amp;"-"&amp;E660)</f>
         <v/>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F661" s="39" t="str">
-        <f aca="false">IF(E661="","",B661&amp;"-"&amp;E661)</f>
+      <c r="F661" s="46" t="str">
+        <f aca="false">IF(C661="","",B661&amp;"-"&amp;C661&amp;"-"&amp;E661)</f>
         <v/>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F662" s="39" t="str">
-        <f aca="false">IF(E662="","",B662&amp;"-"&amp;E662)</f>
+      <c r="F662" s="46" t="str">
+        <f aca="false">IF(C662="","",B662&amp;"-"&amp;C662&amp;"-"&amp;E662)</f>
         <v/>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F663" s="39" t="str">
-        <f aca="false">IF(E663="","",B663&amp;"-"&amp;E663)</f>
+      <c r="F663" s="46" t="str">
+        <f aca="false">IF(C663="","",B663&amp;"-"&amp;C663&amp;"-"&amp;E663)</f>
         <v/>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F664" s="39" t="str">
-        <f aca="false">IF(E664="","",B664&amp;"-"&amp;E664)</f>
+      <c r="F664" s="46" t="str">
+        <f aca="false">IF(C664="","",B664&amp;"-"&amp;C664&amp;"-"&amp;E664)</f>
         <v/>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F665" s="39" t="str">
-        <f aca="false">IF(E665="","",B665&amp;"-"&amp;E665)</f>
+      <c r="F665" s="46" t="str">
+        <f aca="false">IF(C665="","",B665&amp;"-"&amp;C665&amp;"-"&amp;E665)</f>
         <v/>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F666" s="39" t="str">
-        <f aca="false">IF(E666="","",B666&amp;"-"&amp;E666)</f>
+      <c r="F666" s="46" t="str">
+        <f aca="false">IF(C666="","",B666&amp;"-"&amp;C666&amp;"-"&amp;E666)</f>
         <v/>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F667" s="39" t="str">
-        <f aca="false">IF(E667="","",B667&amp;"-"&amp;E667)</f>
+      <c r="F667" s="46" t="str">
+        <f aca="false">IF(C667="","",B667&amp;"-"&amp;C667&amp;"-"&amp;E667)</f>
         <v/>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F668" s="39" t="str">
-        <f aca="false">IF(E668="","",B668&amp;"-"&amp;E668)</f>
+      <c r="F668" s="46" t="str">
+        <f aca="false">IF(C668="","",B668&amp;"-"&amp;C668&amp;"-"&amp;E668)</f>
         <v/>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F669" s="39" t="str">
-        <f aca="false">IF(E669="","",B669&amp;"-"&amp;E669)</f>
+      <c r="F669" s="46" t="str">
+        <f aca="false">IF(C669="","",B669&amp;"-"&amp;C669&amp;"-"&amp;E669)</f>
         <v/>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F670" s="39" t="str">
-        <f aca="false">IF(E670="","",B670&amp;"-"&amp;E670)</f>
+      <c r="F670" s="46" t="str">
+        <f aca="false">IF(C670="","",B670&amp;"-"&amp;C670&amp;"-"&amp;E670)</f>
         <v/>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F671" s="39" t="str">
-        <f aca="false">IF(E671="","",B671&amp;"-"&amp;E671)</f>
+      <c r="F671" s="46" t="str">
+        <f aca="false">IF(C671="","",B671&amp;"-"&amp;C671&amp;"-"&amp;E671)</f>
         <v/>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F672" s="39" t="str">
-        <f aca="false">IF(E672="","",B672&amp;"-"&amp;E672)</f>
+      <c r="F672" s="46" t="str">
+        <f aca="false">IF(C672="","",B672&amp;"-"&amp;C672&amp;"-"&amp;E672)</f>
         <v/>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F673" s="39" t="str">
-        <f aca="false">IF(E673="","",B673&amp;"-"&amp;E673)</f>
+      <c r="F673" s="46" t="str">
+        <f aca="false">IF(C673="","",B673&amp;"-"&amp;C673&amp;"-"&amp;E673)</f>
         <v/>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F674" s="39" t="str">
-        <f aca="false">IF(E674="","",B674&amp;"-"&amp;E674)</f>
+      <c r="F674" s="46" t="str">
+        <f aca="false">IF(C674="","",B674&amp;"-"&amp;C674&amp;"-"&amp;E674)</f>
         <v/>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F675" s="39" t="str">
-        <f aca="false">IF(E675="","",B675&amp;"-"&amp;E675)</f>
+      <c r="F675" s="46" t="str">
+        <f aca="false">IF(C675="","",B675&amp;"-"&amp;C675&amp;"-"&amp;E675)</f>
         <v/>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F676" s="39" t="str">
-        <f aca="false">IF(E676="","",B676&amp;"-"&amp;E676)</f>
+      <c r="F676" s="46" t="str">
+        <f aca="false">IF(C676="","",B676&amp;"-"&amp;C676&amp;"-"&amp;E676)</f>
         <v/>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F677" s="39" t="str">
-        <f aca="false">IF(E677="","",B677&amp;"-"&amp;E677)</f>
+      <c r="F677" s="46" t="str">
+        <f aca="false">IF(C677="","",B677&amp;"-"&amp;C677&amp;"-"&amp;E677)</f>
         <v/>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F678" s="39" t="str">
-        <f aca="false">IF(E678="","",B678&amp;"-"&amp;E678)</f>
+      <c r="F678" s="46" t="str">
+        <f aca="false">IF(C678="","",B678&amp;"-"&amp;C678&amp;"-"&amp;E678)</f>
         <v/>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F679" s="39" t="str">
-        <f aca="false">IF(E679="","",B679&amp;"-"&amp;E679)</f>
+      <c r="F679" s="46" t="str">
+        <f aca="false">IF(C679="","",B679&amp;"-"&amp;C679&amp;"-"&amp;E679)</f>
         <v/>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F680" s="39" t="str">
-        <f aca="false">IF(E680="","",B680&amp;"-"&amp;E680)</f>
+      <c r="F680" s="46" t="str">
+        <f aca="false">IF(C680="","",B680&amp;"-"&amp;C680&amp;"-"&amp;E680)</f>
         <v/>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F681" s="39" t="str">
-        <f aca="false">IF(E681="","",B681&amp;"-"&amp;E681)</f>
+      <c r="F681" s="46" t="str">
+        <f aca="false">IF(C681="","",B681&amp;"-"&amp;C681&amp;"-"&amp;E681)</f>
         <v/>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F682" s="39" t="str">
-        <f aca="false">IF(E682="","",B682&amp;"-"&amp;E682)</f>
+      <c r="F682" s="46" t="str">
+        <f aca="false">IF(C682="","",B682&amp;"-"&amp;C682&amp;"-"&amp;E682)</f>
         <v/>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F683" s="39" t="str">
-        <f aca="false">IF(E683="","",B683&amp;"-"&amp;E683)</f>
+      <c r="F683" s="46" t="str">
+        <f aca="false">IF(C683="","",B683&amp;"-"&amp;C683&amp;"-"&amp;E683)</f>
         <v/>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F684" s="39" t="str">
-        <f aca="false">IF(E684="","",B684&amp;"-"&amp;E684)</f>
+      <c r="F684" s="46" t="str">
+        <f aca="false">IF(C684="","",B684&amp;"-"&amp;C684&amp;"-"&amp;E684)</f>
         <v/>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F685" s="39" t="str">
-        <f aca="false">IF(E685="","",B685&amp;"-"&amp;E685)</f>
+      <c r="F685" s="46" t="str">
+        <f aca="false">IF(C685="","",B685&amp;"-"&amp;C685&amp;"-"&amp;E685)</f>
         <v/>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F686" s="39" t="str">
-        <f aca="false">IF(E686="","",B686&amp;"-"&amp;E686)</f>
+      <c r="F686" s="46" t="str">
+        <f aca="false">IF(C686="","",B686&amp;"-"&amp;C686&amp;"-"&amp;E686)</f>
         <v/>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F687" s="39" t="str">
-        <f aca="false">IF(E687="","",B687&amp;"-"&amp;E687)</f>
+      <c r="F687" s="46" t="str">
+        <f aca="false">IF(C687="","",B687&amp;"-"&amp;C687&amp;"-"&amp;E687)</f>
         <v/>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F688" s="39" t="str">
-        <f aca="false">IF(E688="","",B688&amp;"-"&amp;E688)</f>
+      <c r="F688" s="46" t="str">
+        <f aca="false">IF(C688="","",B688&amp;"-"&amp;C688&amp;"-"&amp;E688)</f>
         <v/>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F689" s="39" t="str">
-        <f aca="false">IF(E689="","",B689&amp;"-"&amp;E689)</f>
+      <c r="F689" s="46" t="str">
+        <f aca="false">IF(C689="","",B689&amp;"-"&amp;C689&amp;"-"&amp;E689)</f>
         <v/>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F690" s="39" t="str">
-        <f aca="false">IF(E690="","",B690&amp;"-"&amp;E690)</f>
+      <c r="F690" s="46" t="str">
+        <f aca="false">IF(C690="","",B690&amp;"-"&amp;C690&amp;"-"&amp;E690)</f>
         <v/>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F691" s="39" t="str">
-        <f aca="false">IF(E691="","",B691&amp;"-"&amp;E691)</f>
+      <c r="F691" s="46" t="str">
+        <f aca="false">IF(C691="","",B691&amp;"-"&amp;C691&amp;"-"&amp;E691)</f>
         <v/>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F692" s="39" t="str">
-        <f aca="false">IF(E692="","",B692&amp;"-"&amp;E692)</f>
+      <c r="F692" s="46" t="str">
+        <f aca="false">IF(C692="","",B692&amp;"-"&amp;C692&amp;"-"&amp;E692)</f>
         <v/>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F693" s="39" t="str">
-        <f aca="false">IF(E693="","",B693&amp;"-"&amp;E693)</f>
+      <c r="F693" s="46" t="str">
+        <f aca="false">IF(C693="","",B693&amp;"-"&amp;C693&amp;"-"&amp;E693)</f>
         <v/>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F694" s="39" t="str">
-        <f aca="false">IF(E694="","",B694&amp;"-"&amp;E694)</f>
+      <c r="F694" s="46" t="str">
+        <f aca="false">IF(C694="","",B694&amp;"-"&amp;C694&amp;"-"&amp;E694)</f>
         <v/>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F695" s="39" t="str">
-        <f aca="false">IF(E695="","",B695&amp;"-"&amp;E695)</f>
+      <c r="F695" s="46" t="str">
+        <f aca="false">IF(C695="","",B695&amp;"-"&amp;C695&amp;"-"&amp;E695)</f>
         <v/>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F696" s="39" t="str">
-        <f aca="false">IF(E696="","",B696&amp;"-"&amp;E696)</f>
+      <c r="F696" s="46" t="str">
+        <f aca="false">IF(C696="","",B696&amp;"-"&amp;C696&amp;"-"&amp;E696)</f>
         <v/>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F697" s="39" t="str">
-        <f aca="false">IF(E697="","",B697&amp;"-"&amp;E697)</f>
+      <c r="F697" s="46" t="str">
+        <f aca="false">IF(C697="","",B697&amp;"-"&amp;C697&amp;"-"&amp;E697)</f>
         <v/>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F698" s="39" t="str">
-        <f aca="false">IF(E698="","",B698&amp;"-"&amp;E698)</f>
+      <c r="F698" s="46" t="str">
+        <f aca="false">IF(C698="","",B698&amp;"-"&amp;C698&amp;"-"&amp;E698)</f>
         <v/>
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F699" s="39" t="str">
-        <f aca="false">IF(E699="","",B699&amp;"-"&amp;E699)</f>
+      <c r="F699" s="46" t="str">
+        <f aca="false">IF(C699="","",B699&amp;"-"&amp;C699&amp;"-"&amp;E699)</f>
         <v/>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F700" s="39" t="str">
-        <f aca="false">IF(E700="","",B700&amp;"-"&amp;E700)</f>
+      <c r="F700" s="46" t="str">
+        <f aca="false">IF(C700="","",B700&amp;"-"&amp;C700&amp;"-"&amp;E700)</f>
         <v/>
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F701" s="39" t="str">
-        <f aca="false">IF(E701="","",B701&amp;"-"&amp;E701)</f>
+      <c r="F701" s="46" t="str">
+        <f aca="false">IF(C701="","",B701&amp;"-"&amp;C701&amp;"-"&amp;E701)</f>
         <v/>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F702" s="39" t="str">
-        <f aca="false">IF(E702="","",B702&amp;"-"&amp;E702)</f>
+      <c r="F702" s="46" t="str">
+        <f aca="false">IF(C702="","",B702&amp;"-"&amp;C702&amp;"-"&amp;E702)</f>
         <v/>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F703" s="39" t="str">
-        <f aca="false">IF(E703="","",B703&amp;"-"&amp;E703)</f>
+      <c r="F703" s="46" t="str">
+        <f aca="false">IF(C703="","",B703&amp;"-"&amp;C703&amp;"-"&amp;E703)</f>
         <v/>
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F704" s="39" t="str">
-        <f aca="false">IF(E704="","",B704&amp;"-"&amp;E704)</f>
+      <c r="F704" s="46" t="str">
+        <f aca="false">IF(C704="","",B704&amp;"-"&amp;C704&amp;"-"&amp;E704)</f>
         <v/>
       </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F705" s="39" t="str">
-        <f aca="false">IF(E705="","",B705&amp;"-"&amp;E705)</f>
+      <c r="F705" s="46" t="str">
+        <f aca="false">IF(C705="","",B705&amp;"-"&amp;C705&amp;"-"&amp;E705)</f>
         <v/>
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F706" s="39" t="str">
-        <f aca="false">IF(E706="","",B706&amp;"-"&amp;E706)</f>
+      <c r="F706" s="46" t="str">
+        <f aca="false">IF(C706="","",B706&amp;"-"&amp;C706&amp;"-"&amp;E706)</f>
         <v/>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F707" s="39" t="str">
-        <f aca="false">IF(E707="","",B707&amp;"-"&amp;E707)</f>
+      <c r="F707" s="46" t="str">
+        <f aca="false">IF(C707="","",B707&amp;"-"&amp;C707&amp;"-"&amp;E707)</f>
         <v/>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F708" s="39" t="str">
-        <f aca="false">IF(E708="","",B708&amp;"-"&amp;E708)</f>
+      <c r="F708" s="46" t="str">
+        <f aca="false">IF(C708="","",B708&amp;"-"&amp;C708&amp;"-"&amp;E708)</f>
         <v/>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F709" s="39" t="str">
-        <f aca="false">IF(E709="","",B709&amp;"-"&amp;E709)</f>
+      <c r="F709" s="46" t="str">
+        <f aca="false">IF(C709="","",B709&amp;"-"&amp;C709&amp;"-"&amp;E709)</f>
         <v/>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F710" s="39" t="str">
-        <f aca="false">IF(E710="","",B710&amp;"-"&amp;E710)</f>
+      <c r="F710" s="46" t="str">
+        <f aca="false">IF(C710="","",B710&amp;"-"&amp;C710&amp;"-"&amp;E710)</f>
         <v/>
       </c>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F711" s="39" t="str">
-        <f aca="false">IF(E711="","",B711&amp;"-"&amp;E711)</f>
+      <c r="F711" s="46" t="str">
+        <f aca="false">IF(C711="","",B711&amp;"-"&amp;C711&amp;"-"&amp;E711)</f>
         <v/>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F712" s="39" t="str">
-        <f aca="false">IF(E712="","",B712&amp;"-"&amp;E712)</f>
+      <c r="F712" s="46" t="str">
+        <f aca="false">IF(C712="","",B712&amp;"-"&amp;C712&amp;"-"&amp;E712)</f>
         <v/>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F713" s="39" t="str">
-        <f aca="false">IF(E713="","",B713&amp;"-"&amp;E713)</f>
+      <c r="F713" s="46" t="str">
+        <f aca="false">IF(C713="","",B713&amp;"-"&amp;C713&amp;"-"&amp;E713)</f>
         <v/>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F714" s="39" t="str">
-        <f aca="false">IF(E714="","",B714&amp;"-"&amp;E714)</f>
+      <c r="F714" s="46" t="str">
+        <f aca="false">IF(C714="","",B714&amp;"-"&amp;C714&amp;"-"&amp;E714)</f>
         <v/>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F715" s="39" t="str">
-        <f aca="false">IF(E715="","",B715&amp;"-"&amp;E715)</f>
+      <c r="F715" s="46" t="str">
+        <f aca="false">IF(C715="","",B715&amp;"-"&amp;C715&amp;"-"&amp;E715)</f>
         <v/>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F716" s="39" t="str">
-        <f aca="false">IF(E716="","",B716&amp;"-"&amp;E716)</f>
+      <c r="F716" s="46" t="str">
+        <f aca="false">IF(C716="","",B716&amp;"-"&amp;C716&amp;"-"&amp;E716)</f>
         <v/>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F717" s="39" t="str">
-        <f aca="false">IF(E717="","",B717&amp;"-"&amp;E717)</f>
+      <c r="F717" s="46" t="str">
+        <f aca="false">IF(C717="","",B717&amp;"-"&amp;C717&amp;"-"&amp;E717)</f>
         <v/>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F718" s="39" t="str">
-        <f aca="false">IF(E718="","",B718&amp;"-"&amp;E718)</f>
+      <c r="F718" s="46" t="str">
+        <f aca="false">IF(C718="","",B718&amp;"-"&amp;C718&amp;"-"&amp;E718)</f>
         <v/>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F719" s="39" t="str">
-        <f aca="false">IF(E719="","",B719&amp;"-"&amp;E719)</f>
+      <c r="F719" s="46" t="str">
+        <f aca="false">IF(C719="","",B719&amp;"-"&amp;C719&amp;"-"&amp;E719)</f>
         <v/>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F720" s="39" t="str">
-        <f aca="false">IF(E720="","",B720&amp;"-"&amp;E720)</f>
+      <c r="F720" s="46" t="str">
+        <f aca="false">IF(C720="","",B720&amp;"-"&amp;C720&amp;"-"&amp;E720)</f>
         <v/>
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F721" s="39" t="str">
-        <f aca="false">IF(E721="","",B721&amp;"-"&amp;E721)</f>
+      <c r="F721" s="46" t="str">
+        <f aca="false">IF(C721="","",B721&amp;"-"&amp;C721&amp;"-"&amp;E721)</f>
         <v/>
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F722" s="39" t="str">
-        <f aca="false">IF(E722="","",B722&amp;"-"&amp;E722)</f>
+      <c r="F722" s="46" t="str">
+        <f aca="false">IF(C722="","",B722&amp;"-"&amp;C722&amp;"-"&amp;E722)</f>
         <v/>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F723" s="39" t="str">
-        <f aca="false">IF(E723="","",B723&amp;"-"&amp;E723)</f>
+      <c r="F723" s="46" t="str">
+        <f aca="false">IF(C723="","",B723&amp;"-"&amp;C723&amp;"-"&amp;E723)</f>
         <v/>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F724" s="39" t="str">
-        <f aca="false">IF(E724="","",B724&amp;"-"&amp;E724)</f>
+      <c r="F724" s="46" t="str">
+        <f aca="false">IF(C724="","",B724&amp;"-"&amp;C724&amp;"-"&amp;E724)</f>
         <v/>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F725" s="39" t="str">
-        <f aca="false">IF(E725="","",B725&amp;"-"&amp;E725)</f>
+      <c r="F725" s="46" t="str">
+        <f aca="false">IF(C725="","",B725&amp;"-"&amp;C725&amp;"-"&amp;E725)</f>
         <v/>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F726" s="39" t="str">
-        <f aca="false">IF(E726="","",B726&amp;"-"&amp;E726)</f>
+      <c r="F726" s="46" t="str">
+        <f aca="false">IF(C726="","",B726&amp;"-"&amp;C726&amp;"-"&amp;E726)</f>
         <v/>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F727" s="39" t="str">
-        <f aca="false">IF(E727="","",B727&amp;"-"&amp;E727)</f>
+      <c r="F727" s="46" t="str">
+        <f aca="false">IF(C727="","",B727&amp;"-"&amp;C727&amp;"-"&amp;E727)</f>
         <v/>
       </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F728" s="39" t="str">
-        <f aca="false">IF(E728="","",B728&amp;"-"&amp;E728)</f>
+      <c r="F728" s="46" t="str">
+        <f aca="false">IF(C728="","",B728&amp;"-"&amp;C728&amp;"-"&amp;E728)</f>
         <v/>
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F729" s="39" t="str">
-        <f aca="false">IF(E729="","",B729&amp;"-"&amp;E729)</f>
+      <c r="F729" s="46" t="str">
+        <f aca="false">IF(C729="","",B729&amp;"-"&amp;C729&amp;"-"&amp;E729)</f>
         <v/>
       </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F730" s="39" t="str">
-        <f aca="false">IF(E730="","",B730&amp;"-"&amp;E730)</f>
+      <c r="F730" s="46" t="str">
+        <f aca="false">IF(C730="","",B730&amp;"-"&amp;C730&amp;"-"&amp;E730)</f>
         <v/>
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F731" s="39" t="str">
-        <f aca="false">IF(E731="","",B731&amp;"-"&amp;E731)</f>
+      <c r="F731" s="46" t="str">
+        <f aca="false">IF(C731="","",B731&amp;"-"&amp;C731&amp;"-"&amp;E731)</f>
         <v/>
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F732" s="39" t="str">
-        <f aca="false">IF(E732="","",B732&amp;"-"&amp;E732)</f>
+      <c r="F732" s="46" t="str">
+        <f aca="false">IF(C732="","",B732&amp;"-"&amp;C732&amp;"-"&amp;E732)</f>
         <v/>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F733" s="39" t="str">
-        <f aca="false">IF(E733="","",B733&amp;"-"&amp;E733)</f>
+      <c r="F733" s="46" t="str">
+        <f aca="false">IF(C733="","",B733&amp;"-"&amp;C733&amp;"-"&amp;E733)</f>
         <v/>
       </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F734" s="39" t="str">
-        <f aca="false">IF(E734="","",B734&amp;"-"&amp;E734)</f>
+      <c r="F734" s="46" t="str">
+        <f aca="false">IF(C734="","",B734&amp;"-"&amp;C734&amp;"-"&amp;E734)</f>
         <v/>
       </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F735" s="39" t="str">
-        <f aca="false">IF(E735="","",B735&amp;"-"&amp;E735)</f>
+      <c r="F735" s="46" t="str">
+        <f aca="false">IF(C735="","",B735&amp;"-"&amp;C735&amp;"-"&amp;E735)</f>
         <v/>
       </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F736" s="39" t="str">
-        <f aca="false">IF(E736="","",B736&amp;"-"&amp;E736)</f>
+      <c r="F736" s="46" t="str">
+        <f aca="false">IF(C736="","",B736&amp;"-"&amp;C736&amp;"-"&amp;E736)</f>
         <v/>
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F737" s="39" t="str">
-        <f aca="false">IF(E737="","",B737&amp;"-"&amp;E737)</f>
+      <c r="F737" s="46" t="str">
+        <f aca="false">IF(C737="","",B737&amp;"-"&amp;C737&amp;"-"&amp;E737)</f>
         <v/>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F738" s="39" t="str">
-        <f aca="false">IF(E738="","",B738&amp;"-"&amp;E738)</f>
+      <c r="F738" s="46" t="str">
+        <f aca="false">IF(C738="","",B738&amp;"-"&amp;C738&amp;"-"&amp;E738)</f>
         <v/>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F739" s="39" t="str">
-        <f aca="false">IF(E739="","",B739&amp;"-"&amp;E739)</f>
+      <c r="F739" s="46" t="str">
+        <f aca="false">IF(C739="","",B739&amp;"-"&amp;C739&amp;"-"&amp;E739)</f>
         <v/>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F740" s="39" t="str">
-        <f aca="false">IF(E740="","",B740&amp;"-"&amp;E740)</f>
+      <c r="F740" s="46" t="str">
+        <f aca="false">IF(C740="","",B740&amp;"-"&amp;C740&amp;"-"&amp;E740)</f>
         <v/>
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F741" s="39" t="str">
-        <f aca="false">IF(E741="","",B741&amp;"-"&amp;E741)</f>
+      <c r="F741" s="46" t="str">
+        <f aca="false">IF(C741="","",B741&amp;"-"&amp;C741&amp;"-"&amp;E741)</f>
         <v/>
       </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F742" s="39" t="str">
-        <f aca="false">IF(E742="","",B742&amp;"-"&amp;E742)</f>
+      <c r="F742" s="46" t="str">
+        <f aca="false">IF(C742="","",B742&amp;"-"&amp;C742&amp;"-"&amp;E742)</f>
         <v/>
       </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F743" s="39" t="str">
-        <f aca="false">IF(E743="","",B743&amp;"-"&amp;E743)</f>
+      <c r="F743" s="46" t="str">
+        <f aca="false">IF(C743="","",B743&amp;"-"&amp;C743&amp;"-"&amp;E743)</f>
         <v/>
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F744" s="39" t="str">
-        <f aca="false">IF(E744="","",B744&amp;"-"&amp;E744)</f>
+      <c r="F744" s="46" t="str">
+        <f aca="false">IF(C744="","",B744&amp;"-"&amp;C744&amp;"-"&amp;E744)</f>
         <v/>
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F745" s="39" t="str">
-        <f aca="false">IF(E745="","",B745&amp;"-"&amp;E745)</f>
+      <c r="F745" s="46" t="str">
+        <f aca="false">IF(C745="","",B745&amp;"-"&amp;C745&amp;"-"&amp;E745)</f>
         <v/>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F746" s="39" t="str">
-        <f aca="false">IF(E746="","",B746&amp;"-"&amp;E746)</f>
+      <c r="F746" s="46" t="str">
+        <f aca="false">IF(C746="","",B746&amp;"-"&amp;C746&amp;"-"&amp;E746)</f>
         <v/>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F747" s="39" t="str">
-        <f aca="false">IF(E747="","",B747&amp;"-"&amp;E747)</f>
+      <c r="F747" s="46" t="str">
+        <f aca="false">IF(C747="","",B747&amp;"-"&amp;C747&amp;"-"&amp;E747)</f>
         <v/>
       </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F748" s="39" t="str">
-        <f aca="false">IF(E748="","",B748&amp;"-"&amp;E748)</f>
+      <c r="F748" s="46" t="str">
+        <f aca="false">IF(C748="","",B748&amp;"-"&amp;C748&amp;"-"&amp;E748)</f>
         <v/>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F749" s="39" t="str">
-        <f aca="false">IF(E749="","",B749&amp;"-"&amp;E749)</f>
+      <c r="F749" s="46" t="str">
+        <f aca="false">IF(C749="","",B749&amp;"-"&amp;C749&amp;"-"&amp;E749)</f>
         <v/>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F750" s="39" t="str">
-        <f aca="false">IF(E750="","",B750&amp;"-"&amp;E750)</f>
+      <c r="F750" s="46" t="str">
+        <f aca="false">IF(C750="","",B750&amp;"-"&amp;C750&amp;"-"&amp;E750)</f>
         <v/>
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F751" s="39" t="str">
-        <f aca="false">IF(E751="","",B751&amp;"-"&amp;E751)</f>
+      <c r="F751" s="46" t="str">
+        <f aca="false">IF(C751="","",B751&amp;"-"&amp;C751&amp;"-"&amp;E751)</f>
         <v/>
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F752" s="39" t="str">
-        <f aca="false">IF(E752="","",B752&amp;"-"&amp;E752)</f>
+      <c r="F752" s="46" t="str">
+        <f aca="false">IF(C752="","",B752&amp;"-"&amp;C752&amp;"-"&amp;E752)</f>
         <v/>
       </c>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F753" s="39" t="str">
-        <f aca="false">IF(E753="","",B753&amp;"-"&amp;E753)</f>
+      <c r="F753" s="46" t="str">
+        <f aca="false">IF(C753="","",B753&amp;"-"&amp;C753&amp;"-"&amp;E753)</f>
         <v/>
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F754" s="39" t="str">
-        <f aca="false">IF(E754="","",B754&amp;"-"&amp;E754)</f>
+      <c r="F754" s="46" t="str">
+        <f aca="false">IF(C754="","",B754&amp;"-"&amp;C754&amp;"-"&amp;E754)</f>
         <v/>
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F755" s="39" t="str">
-        <f aca="false">IF(E755="","",B755&amp;"-"&amp;E755)</f>
+      <c r="F755" s="46" t="str">
+        <f aca="false">IF(C755="","",B755&amp;"-"&amp;C755&amp;"-"&amp;E755)</f>
         <v/>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F756" s="39" t="str">
-        <f aca="false">IF(E756="","",B756&amp;"-"&amp;E756)</f>
+      <c r="F756" s="46" t="str">
+        <f aca="false">IF(C756="","",B756&amp;"-"&amp;C756&amp;"-"&amp;E756)</f>
         <v/>
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F757" s="39" t="str">
-        <f aca="false">IF(E757="","",B757&amp;"-"&amp;E757)</f>
+      <c r="F757" s="46" t="str">
+        <f aca="false">IF(C757="","",B757&amp;"-"&amp;C757&amp;"-"&amp;E757)</f>
         <v/>
       </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F758" s="39" t="str">
-        <f aca="false">IF(E758="","",B758&amp;"-"&amp;E758)</f>
+      <c r="F758" s="46" t="str">
+        <f aca="false">IF(C758="","",B758&amp;"-"&amp;C758&amp;"-"&amp;E758)</f>
         <v/>
       </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F759" s="39" t="str">
-        <f aca="false">IF(E759="","",B759&amp;"-"&amp;E759)</f>
+      <c r="F759" s="46" t="str">
+        <f aca="false">IF(C759="","",B759&amp;"-"&amp;C759&amp;"-"&amp;E759)</f>
         <v/>
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F760" s="39" t="str">
-        <f aca="false">IF(E760="","",B760&amp;"-"&amp;E760)</f>
+      <c r="F760" s="46" t="str">
+        <f aca="false">IF(C760="","",B760&amp;"-"&amp;C760&amp;"-"&amp;E760)</f>
         <v/>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F761" s="39" t="str">
-        <f aca="false">IF(E761="","",B761&amp;"-"&amp;E761)</f>
+      <c r="F761" s="46" t="str">
+        <f aca="false">IF(C761="","",B761&amp;"-"&amp;C761&amp;"-"&amp;E761)</f>
         <v/>
       </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F762" s="39" t="str">
-        <f aca="false">IF(E762="","",B762&amp;"-"&amp;E762)</f>
+      <c r="F762" s="46" t="str">
+        <f aca="false">IF(C762="","",B762&amp;"-"&amp;C762&amp;"-"&amp;E762)</f>
         <v/>
       </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F763" s="39" t="str">
-        <f aca="false">IF(E763="","",B763&amp;"-"&amp;E763)</f>
+      <c r="F763" s="46" t="str">
+        <f aca="false">IF(C763="","",B763&amp;"-"&amp;C763&amp;"-"&amp;E763)</f>
         <v/>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F764" s="39" t="str">
-        <f aca="false">IF(E764="","",B764&amp;"-"&amp;E764)</f>
+      <c r="F764" s="46" t="str">
+        <f aca="false">IF(C764="","",B764&amp;"-"&amp;C764&amp;"-"&amp;E764)</f>
         <v/>
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F765" s="39" t="str">
-        <f aca="false">IF(E765="","",B765&amp;"-"&amp;E765)</f>
+      <c r="F765" s="46" t="str">
+        <f aca="false">IF(C765="","",B765&amp;"-"&amp;C765&amp;"-"&amp;E765)</f>
         <v/>
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F766" s="39" t="str">
-        <f aca="false">IF(E766="","",B766&amp;"-"&amp;E766)</f>
+      <c r="F766" s="46" t="str">
+        <f aca="false">IF(C766="","",B766&amp;"-"&amp;C766&amp;"-"&amp;E766)</f>
         <v/>
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F767" s="39" t="str">
-        <f aca="false">IF(E767="","",B767&amp;"-"&amp;E767)</f>
+      <c r="F767" s="46" t="str">
+        <f aca="false">IF(C767="","",B767&amp;"-"&amp;C767&amp;"-"&amp;E767)</f>
         <v/>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F768" s="39" t="str">
-        <f aca="false">IF(E768="","",B768&amp;"-"&amp;E768)</f>
+      <c r="F768" s="46" t="str">
+        <f aca="false">IF(C768="","",B768&amp;"-"&amp;C768&amp;"-"&amp;E768)</f>
         <v/>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F769" s="39" t="str">
-        <f aca="false">IF(E769="","",B769&amp;"-"&amp;E769)</f>
+      <c r="F769" s="46" t="str">
+        <f aca="false">IF(C769="","",B769&amp;"-"&amp;C769&amp;"-"&amp;E769)</f>
         <v/>
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F770" s="39" t="str">
-        <f aca="false">IF(E770="","",B770&amp;"-"&amp;E770)</f>
+      <c r="F770" s="46" t="str">
+        <f aca="false">IF(C770="","",B770&amp;"-"&amp;C770&amp;"-"&amp;E770)</f>
         <v/>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F771" s="39" t="str">
-        <f aca="false">IF(E771="","",B771&amp;"-"&amp;E771)</f>
+      <c r="F771" s="46" t="str">
+        <f aca="false">IF(C771="","",B771&amp;"-"&amp;C771&amp;"-"&amp;E771)</f>
         <v/>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F772" s="39" t="str">
-        <f aca="false">IF(E772="","",B772&amp;"-"&amp;E772)</f>
+      <c r="F772" s="46" t="str">
+        <f aca="false">IF(C772="","",B772&amp;"-"&amp;C772&amp;"-"&amp;E772)</f>
         <v/>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F773" s="39" t="str">
-        <f aca="false">IF(E773="","",B773&amp;"-"&amp;E773)</f>
+      <c r="F773" s="46" t="str">
+        <f aca="false">IF(C773="","",B773&amp;"-"&amp;C773&amp;"-"&amp;E773)</f>
         <v/>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F774" s="39" t="str">
-        <f aca="false">IF(E774="","",B774&amp;"-"&amp;E774)</f>
+      <c r="F774" s="46" t="str">
+        <f aca="false">IF(C774="","",B774&amp;"-"&amp;C774&amp;"-"&amp;E774)</f>
         <v/>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F775" s="39" t="str">
-        <f aca="false">IF(E775="","",B775&amp;"-"&amp;E775)</f>
+      <c r="F775" s="46" t="str">
+        <f aca="false">IF(C775="","",B775&amp;"-"&amp;C775&amp;"-"&amp;E775)</f>
         <v/>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F776" s="39" t="str">
-        <f aca="false">IF(E776="","",B776&amp;"-"&amp;E776)</f>
+      <c r="F776" s="46" t="str">
+        <f aca="false">IF(C776="","",B776&amp;"-"&amp;C776&amp;"-"&amp;E776)</f>
         <v/>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F777" s="39" t="str">
-        <f aca="false">IF(E777="","",B777&amp;"-"&amp;E777)</f>
+      <c r="F777" s="46" t="str">
+        <f aca="false">IF(C777="","",B777&amp;"-"&amp;C777&amp;"-"&amp;E777)</f>
         <v/>
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F778" s="39" t="str">
-        <f aca="false">IF(E778="","",B778&amp;"-"&amp;E778)</f>
+      <c r="F778" s="46" t="str">
+        <f aca="false">IF(C778="","",B778&amp;"-"&amp;C778&amp;"-"&amp;E778)</f>
         <v/>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F779" s="39" t="str">
-        <f aca="false">IF(E779="","",B779&amp;"-"&amp;E779)</f>
+      <c r="F779" s="46" t="str">
+        <f aca="false">IF(C779="","",B779&amp;"-"&amp;C779&amp;"-"&amp;E779)</f>
         <v/>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F780" s="39" t="str">
-        <f aca="false">IF(E780="","",B780&amp;"-"&amp;E780)</f>
+      <c r="F780" s="46" t="str">
+        <f aca="false">IF(C780="","",B780&amp;"-"&amp;C780&amp;"-"&amp;E780)</f>
         <v/>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F781" s="39" t="str">
-        <f aca="false">IF(E781="","",B781&amp;"-"&amp;E781)</f>
+      <c r="F781" s="46" t="str">
+        <f aca="false">IF(C781="","",B781&amp;"-"&amp;C781&amp;"-"&amp;E781)</f>
         <v/>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F782" s="39" t="str">
-        <f aca="false">IF(E782="","",B782&amp;"-"&amp;E782)</f>
+      <c r="F782" s="46" t="str">
+        <f aca="false">IF(C782="","",B782&amp;"-"&amp;C782&amp;"-"&amp;E782)</f>
         <v/>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F783" s="39" t="str">
-        <f aca="false">IF(E783="","",B783&amp;"-"&amp;E783)</f>
+      <c r="F783" s="46" t="str">
+        <f aca="false">IF(C783="","",B783&amp;"-"&amp;C783&amp;"-"&amp;E783)</f>
         <v/>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F784" s="39" t="str">
-        <f aca="false">IF(E784="","",B784&amp;"-"&amp;E784)</f>
+      <c r="F784" s="46" t="str">
+        <f aca="false">IF(C784="","",B784&amp;"-"&amp;C784&amp;"-"&amp;E784)</f>
         <v/>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F785" s="39" t="str">
-        <f aca="false">IF(E785="","",B785&amp;"-"&amp;E785)</f>
+      <c r="F785" s="46" t="str">
+        <f aca="false">IF(C785="","",B785&amp;"-"&amp;C785&amp;"-"&amp;E785)</f>
         <v/>
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F786" s="39" t="str">
-        <f aca="false">IF(E786="","",B786&amp;"-"&amp;E786)</f>
+      <c r="F786" s="46" t="str">
+        <f aca="false">IF(C786="","",B786&amp;"-"&amp;C786&amp;"-"&amp;E786)</f>
         <v/>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F787" s="39" t="str">
-        <f aca="false">IF(E787="","",B787&amp;"-"&amp;E787)</f>
+      <c r="F787" s="46" t="str">
+        <f aca="false">IF(C787="","",B787&amp;"-"&amp;C787&amp;"-"&amp;E787)</f>
         <v/>
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F788" s="39" t="str">
-        <f aca="false">IF(E788="","",B788&amp;"-"&amp;E788)</f>
+      <c r="F788" s="46" t="str">
+        <f aca="false">IF(C788="","",B788&amp;"-"&amp;C788&amp;"-"&amp;E788)</f>
         <v/>
       </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F789" s="39" t="str">
-        <f aca="false">IF(E789="","",B789&amp;"-"&amp;E789)</f>
+      <c r="F789" s="46" t="str">
+        <f aca="false">IF(C789="","",B789&amp;"-"&amp;C789&amp;"-"&amp;E789)</f>
         <v/>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F790" s="39" t="str">
-        <f aca="false">IF(E790="","",B790&amp;"-"&amp;E790)</f>
+      <c r="F790" s="46" t="str">
+        <f aca="false">IF(C790="","",B790&amp;"-"&amp;C790&amp;"-"&amp;E790)</f>
         <v/>
       </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F791" s="39" t="str">
-        <f aca="false">IF(E791="","",B791&amp;"-"&amp;E791)</f>
+      <c r="F791" s="46" t="str">
+        <f aca="false">IF(C791="","",B791&amp;"-"&amp;C791&amp;"-"&amp;E791)</f>
         <v/>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F792" s="39" t="str">
-        <f aca="false">IF(E792="","",B792&amp;"-"&amp;E792)</f>
+      <c r="F792" s="46" t="str">
+        <f aca="false">IF(C792="","",B792&amp;"-"&amp;C792&amp;"-"&amp;E792)</f>
         <v/>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F793" s="39" t="str">
-        <f aca="false">IF(E793="","",B793&amp;"-"&amp;E793)</f>
+      <c r="F793" s="46" t="str">
+        <f aca="false">IF(C793="","",B793&amp;"-"&amp;C793&amp;"-"&amp;E793)</f>
         <v/>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F794" s="39" t="str">
-        <f aca="false">IF(E794="","",B794&amp;"-"&amp;E794)</f>
+      <c r="F794" s="46" t="str">
+        <f aca="false">IF(C794="","",B794&amp;"-"&amp;C794&amp;"-"&amp;E794)</f>
         <v/>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F795" s="39" t="str">
-        <f aca="false">IF(E795="","",B795&amp;"-"&amp;E795)</f>
+      <c r="F795" s="46" t="str">
+        <f aca="false">IF(C795="","",B795&amp;"-"&amp;C795&amp;"-"&amp;E795)</f>
         <v/>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F796" s="39" t="str">
-        <f aca="false">IF(E796="","",B796&amp;"-"&amp;E796)</f>
+      <c r="F796" s="46" t="str">
+        <f aca="false">IF(C796="","",B796&amp;"-"&amp;C796&amp;"-"&amp;E796)</f>
         <v/>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F797" s="39" t="str">
-        <f aca="false">IF(E797="","",B797&amp;"-"&amp;E797)</f>
+      <c r="F797" s="46" t="str">
+        <f aca="false">IF(C797="","",B797&amp;"-"&amp;C797&amp;"-"&amp;E797)</f>
         <v/>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F798" s="39" t="str">
-        <f aca="false">IF(E798="","",B798&amp;"-"&amp;E798)</f>
+      <c r="F798" s="46" t="str">
+        <f aca="false">IF(C798="","",B798&amp;"-"&amp;C798&amp;"-"&amp;E798)</f>
         <v/>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F799" s="39" t="str">
-        <f aca="false">IF(E799="","",B799&amp;"-"&amp;E799)</f>
+      <c r="F799" s="46" t="str">
+        <f aca="false">IF(C799="","",B799&amp;"-"&amp;C799&amp;"-"&amp;E799)</f>
         <v/>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F800" s="39" t="str">
-        <f aca="false">IF(E800="","",B800&amp;"-"&amp;E800)</f>
+      <c r="F800" s="46" t="str">
+        <f aca="false">IF(C800="","",B800&amp;"-"&amp;C800&amp;"-"&amp;E800)</f>
         <v/>
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F801" s="39" t="str">
-        <f aca="false">IF(E801="","",B801&amp;"-"&amp;E801)</f>
+      <c r="F801" s="46" t="str">
+        <f aca="false">IF(C801="","",B801&amp;"-"&amp;C801&amp;"-"&amp;E801)</f>
         <v/>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F802" s="39" t="str">
-        <f aca="false">IF(E802="","",B802&amp;"-"&amp;E802)</f>
+      <c r="F802" s="46" t="str">
+        <f aca="false">IF(C802="","",B802&amp;"-"&amp;C802&amp;"-"&amp;E802)</f>
         <v/>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F803" s="39" t="str">
-        <f aca="false">IF(E803="","",B803&amp;"-"&amp;E803)</f>
+      <c r="F803" s="46" t="str">
+        <f aca="false">IF(C803="","",B803&amp;"-"&amp;C803&amp;"-"&amp;E803)</f>
         <v/>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F804" s="39" t="str">
-        <f aca="false">IF(E804="","",B804&amp;"-"&amp;E804)</f>
+      <c r="F804" s="46" t="str">
+        <f aca="false">IF(C804="","",B804&amp;"-"&amp;C804&amp;"-"&amp;E804)</f>
         <v/>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F805" s="39" t="str">
-        <f aca="false">IF(E805="","",B805&amp;"-"&amp;E805)</f>
+      <c r="F805" s="46" t="str">
+        <f aca="false">IF(C805="","",B805&amp;"-"&amp;C805&amp;"-"&amp;E805)</f>
         <v/>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F806" s="39" t="str">
-        <f aca="false">IF(E806="","",B806&amp;"-"&amp;E806)</f>
+      <c r="F806" s="46" t="str">
+        <f aca="false">IF(C806="","",B806&amp;"-"&amp;C806&amp;"-"&amp;E806)</f>
         <v/>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F807" s="39" t="str">
-        <f aca="false">IF(E807="","",B807&amp;"-"&amp;E807)</f>
+      <c r="F807" s="46" t="str">
+        <f aca="false">IF(C807="","",B807&amp;"-"&amp;C807&amp;"-"&amp;E807)</f>
         <v/>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F808" s="39" t="str">
-        <f aca="false">IF(E808="","",B808&amp;"-"&amp;E808)</f>
+      <c r="F808" s="46" t="str">
+        <f aca="false">IF(C808="","",B808&amp;"-"&amp;C808&amp;"-"&amp;E808)</f>
         <v/>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F809" s="39" t="str">
-        <f aca="false">IF(E809="","",B809&amp;"-"&amp;E809)</f>
+      <c r="F809" s="46" t="str">
+        <f aca="false">IF(C809="","",B809&amp;"-"&amp;C809&amp;"-"&amp;E809)</f>
         <v/>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F810" s="39" t="str">
-        <f aca="false">IF(E810="","",B810&amp;"-"&amp;E810)</f>
+      <c r="F810" s="46" t="str">
+        <f aca="false">IF(C810="","",B810&amp;"-"&amp;C810&amp;"-"&amp;E810)</f>
         <v/>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F811" s="39" t="str">
-        <f aca="false">IF(E811="","",B811&amp;"-"&amp;E811)</f>
+      <c r="F811" s="46" t="str">
+        <f aca="false">IF(C811="","",B811&amp;"-"&amp;C811&amp;"-"&amp;E811)</f>
         <v/>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F812" s="39" t="str">
-        <f aca="false">IF(E812="","",B812&amp;"-"&amp;E812)</f>
+      <c r="F812" s="46" t="str">
+        <f aca="false">IF(C812="","",B812&amp;"-"&amp;C812&amp;"-"&amp;E812)</f>
         <v/>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F813" s="39" t="str">
-        <f aca="false">IF(E813="","",B813&amp;"-"&amp;E813)</f>
+      <c r="F813" s="46" t="str">
+        <f aca="false">IF(C813="","",B813&amp;"-"&amp;C813&amp;"-"&amp;E813)</f>
         <v/>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F814" s="39" t="str">
-        <f aca="false">IF(E814="","",B814&amp;"-"&amp;E814)</f>
+      <c r="F814" s="46" t="str">
+        <f aca="false">IF(C814="","",B814&amp;"-"&amp;C814&amp;"-"&amp;E814)</f>
         <v/>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F815" s="39" t="str">
-        <f aca="false">IF(E815="","",B815&amp;"-"&amp;E815)</f>
+      <c r="F815" s="46" t="str">
+        <f aca="false">IF(C815="","",B815&amp;"-"&amp;C815&amp;"-"&amp;E815)</f>
         <v/>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F816" s="39" t="str">
-        <f aca="false">IF(E816="","",B816&amp;"-"&amp;E816)</f>
+      <c r="F816" s="46" t="str">
+        <f aca="false">IF(C816="","",B816&amp;"-"&amp;C816&amp;"-"&amp;E816)</f>
         <v/>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F817" s="39" t="str">
-        <f aca="false">IF(E817="","",B817&amp;"-"&amp;E817)</f>
+      <c r="F817" s="46" t="str">
+        <f aca="false">IF(C817="","",B817&amp;"-"&amp;C817&amp;"-"&amp;E817)</f>
         <v/>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F818" s="39" t="str">
-        <f aca="false">IF(E818="","",B818&amp;"-"&amp;E818)</f>
+      <c r="F818" s="46" t="str">
+        <f aca="false">IF(C818="","",B818&amp;"-"&amp;C818&amp;"-"&amp;E818)</f>
         <v/>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F819" s="39" t="str">
-        <f aca="false">IF(E819="","",B819&amp;"-"&amp;E819)</f>
+      <c r="F819" s="46" t="str">
+        <f aca="false">IF(C819="","",B819&amp;"-"&amp;C819&amp;"-"&amp;E819)</f>
         <v/>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F820" s="39" t="str">
-        <f aca="false">IF(E820="","",B820&amp;"-"&amp;E820)</f>
+      <c r="F820" s="46" t="str">
+        <f aca="false">IF(C820="","",B820&amp;"-"&amp;C820&amp;"-"&amp;E820)</f>
         <v/>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F821" s="39" t="str">
-        <f aca="false">IF(E821="","",B821&amp;"-"&amp;E821)</f>
+      <c r="F821" s="46" t="str">
+        <f aca="false">IF(C821="","",B821&amp;"-"&amp;C821&amp;"-"&amp;E821)</f>
         <v/>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F822" s="39" t="str">
-        <f aca="false">IF(E822="","",B822&amp;"-"&amp;E822)</f>
+      <c r="F822" s="46" t="str">
+        <f aca="false">IF(C822="","",B822&amp;"-"&amp;C822&amp;"-"&amp;E822)</f>
         <v/>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F823" s="39" t="str">
-        <f aca="false">IF(E823="","",B823&amp;"-"&amp;E823)</f>
+      <c r="F823" s="46" t="str">
+        <f aca="false">IF(C823="","",B823&amp;"-"&amp;C823&amp;"-"&amp;E823)</f>
         <v/>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F824" s="39" t="str">
-        <f aca="false">IF(E824="","",B824&amp;"-"&amp;E824)</f>
+      <c r="F824" s="46" t="str">
+        <f aca="false">IF(C824="","",B824&amp;"-"&amp;C824&amp;"-"&amp;E824)</f>
         <v/>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F825" s="39" t="str">
-        <f aca="false">IF(E825="","",B825&amp;"-"&amp;E825)</f>
+      <c r="F825" s="46" t="str">
+        <f aca="false">IF(C825="","",B825&amp;"-"&amp;C825&amp;"-"&amp;E825)</f>
         <v/>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F826" s="39" t="str">
-        <f aca="false">IF(E826="","",B826&amp;"-"&amp;E826)</f>
+      <c r="F826" s="46" t="str">
+        <f aca="false">IF(C826="","",B826&amp;"-"&amp;C826&amp;"-"&amp;E826)</f>
         <v/>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F827" s="39" t="str">
-        <f aca="false">IF(E827="","",B827&amp;"-"&amp;E827)</f>
+      <c r="F827" s="46" t="str">
+        <f aca="false">IF(C827="","",B827&amp;"-"&amp;C827&amp;"-"&amp;E827)</f>
         <v/>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F828" s="39" t="str">
-        <f aca="false">IF(E828="","",B828&amp;"-"&amp;E828)</f>
+      <c r="F828" s="46" t="str">
+        <f aca="false">IF(C828="","",B828&amp;"-"&amp;C828&amp;"-"&amp;E828)</f>
         <v/>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F829" s="39" t="str">
-        <f aca="false">IF(E829="","",B829&amp;"-"&amp;E829)</f>
+      <c r="F829" s="46" t="str">
+        <f aca="false">IF(C829="","",B829&amp;"-"&amp;C829&amp;"-"&amp;E829)</f>
         <v/>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F830" s="39" t="str">
-        <f aca="false">IF(E830="","",B830&amp;"-"&amp;E830)</f>
+      <c r="F830" s="46" t="str">
+        <f aca="false">IF(C830="","",B830&amp;"-"&amp;C830&amp;"-"&amp;E830)</f>
         <v/>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F831" s="39" t="str">
-        <f aca="false">IF(E831="","",B831&amp;"-"&amp;E831)</f>
+      <c r="F831" s="46" t="str">
+        <f aca="false">IF(C831="","",B831&amp;"-"&amp;C831&amp;"-"&amp;E831)</f>
         <v/>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F832" s="39" t="str">
-        <f aca="false">IF(E832="","",B832&amp;"-"&amp;E832)</f>
+      <c r="F832" s="46" t="str">
+        <f aca="false">IF(C832="","",B832&amp;"-"&amp;C832&amp;"-"&amp;E832)</f>
         <v/>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F833" s="39" t="str">
-        <f aca="false">IF(E833="","",B833&amp;"-"&amp;E833)</f>
+      <c r="F833" s="46" t="str">
+        <f aca="false">IF(C833="","",B833&amp;"-"&amp;C833&amp;"-"&amp;E833)</f>
         <v/>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F834" s="39" t="str">
-        <f aca="false">IF(E834="","",B834&amp;"-"&amp;E834)</f>
+      <c r="F834" s="46" t="str">
+        <f aca="false">IF(C834="","",B834&amp;"-"&amp;C834&amp;"-"&amp;E834)</f>
         <v/>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F835" s="39" t="str">
-        <f aca="false">IF(E835="","",B835&amp;"-"&amp;E835)</f>
+      <c r="F835" s="46" t="str">
+        <f aca="false">IF(C835="","",B835&amp;"-"&amp;C835&amp;"-"&amp;E835)</f>
         <v/>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F836" s="39" t="str">
-        <f aca="false">IF(E836="","",B836&amp;"-"&amp;E836)</f>
+      <c r="F836" s="46" t="str">
+        <f aca="false">IF(C836="","",B836&amp;"-"&amp;C836&amp;"-"&amp;E836)</f>
         <v/>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F837" s="39" t="str">
-        <f aca="false">IF(E837="","",B837&amp;"-"&amp;E837)</f>
+      <c r="F837" s="46" t="str">
+        <f aca="false">IF(C837="","",B837&amp;"-"&amp;C837&amp;"-"&amp;E837)</f>
         <v/>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F838" s="39" t="str">
-        <f aca="false">IF(E838="","",B838&amp;"-"&amp;E838)</f>
+      <c r="F838" s="46" t="str">
+        <f aca="false">IF(C838="","",B838&amp;"-"&amp;C838&amp;"-"&amp;E838)</f>
         <v/>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F839" s="39" t="str">
-        <f aca="false">IF(E839="","",B839&amp;"-"&amp;E839)</f>
+      <c r="F839" s="46" t="str">
+        <f aca="false">IF(C839="","",B839&amp;"-"&amp;C839&amp;"-"&amp;E839)</f>
         <v/>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F840" s="39" t="str">
-        <f aca="false">IF(E840="","",B840&amp;"-"&amp;E840)</f>
+      <c r="F840" s="46" t="str">
+        <f aca="false">IF(C840="","",B840&amp;"-"&amp;C840&amp;"-"&amp;E840)</f>
         <v/>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F841" s="39" t="str">
-        <f aca="false">IF(E841="","",B841&amp;"-"&amp;E841)</f>
+      <c r="F841" s="46" t="str">
+        <f aca="false">IF(C841="","",B841&amp;"-"&amp;C841&amp;"-"&amp;E841)</f>
         <v/>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F842" s="39" t="str">
-        <f aca="false">IF(E842="","",B842&amp;"-"&amp;E842)</f>
+      <c r="F842" s="46" t="str">
+        <f aca="false">IF(C842="","",B842&amp;"-"&amp;C842&amp;"-"&amp;E842)</f>
         <v/>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F843" s="39" t="str">
-        <f aca="false">IF(E843="","",B843&amp;"-"&amp;E843)</f>
+      <c r="F843" s="46" t="str">
+        <f aca="false">IF(C843="","",B843&amp;"-"&amp;C843&amp;"-"&amp;E843)</f>
         <v/>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F844" s="39" t="str">
-        <f aca="false">IF(E844="","",B844&amp;"-"&amp;E844)</f>
+      <c r="F844" s="46" t="str">
+        <f aca="false">IF(C844="","",B844&amp;"-"&amp;C844&amp;"-"&amp;E844)</f>
         <v/>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F845" s="39" t="str">
-        <f aca="false">IF(E845="","",B845&amp;"-"&amp;E845)</f>
+      <c r="F845" s="46" t="str">
+        <f aca="false">IF(C845="","",B845&amp;"-"&amp;C845&amp;"-"&amp;E845)</f>
         <v/>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F846" s="39" t="str">
-        <f aca="false">IF(E846="","",B846&amp;"-"&amp;E846)</f>
+      <c r="F846" s="46" t="str">
+        <f aca="false">IF(C846="","",B846&amp;"-"&amp;C846&amp;"-"&amp;E846)</f>
         <v/>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F847" s="39" t="str">
-        <f aca="false">IF(E847="","",B847&amp;"-"&amp;E847)</f>
+      <c r="F847" s="46" t="str">
+        <f aca="false">IF(C847="","",B847&amp;"-"&amp;C847&amp;"-"&amp;E847)</f>
         <v/>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F848" s="39" t="str">
-        <f aca="false">IF(E848="","",B848&amp;"-"&amp;E848)</f>
+      <c r="F848" s="46" t="str">
+        <f aca="false">IF(C848="","",B848&amp;"-"&amp;C848&amp;"-"&amp;E848)</f>
         <v/>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F849" s="39" t="str">
-        <f aca="false">IF(E849="","",B849&amp;"-"&amp;E849)</f>
+      <c r="F849" s="46" t="str">
+        <f aca="false">IF(C849="","",B849&amp;"-"&amp;C849&amp;"-"&amp;E849)</f>
         <v/>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F850" s="39" t="str">
-        <f aca="false">IF(E850="","",B850&amp;"-"&amp;E850)</f>
+      <c r="F850" s="46" t="str">
+        <f aca="false">IF(C850="","",B850&amp;"-"&amp;C850&amp;"-"&amp;E850)</f>
         <v/>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F851" s="39" t="str">
-        <f aca="false">IF(E851="","",B851&amp;"-"&amp;E851)</f>
+      <c r="F851" s="46" t="str">
+        <f aca="false">IF(C851="","",B851&amp;"-"&amp;C851&amp;"-"&amp;E851)</f>
         <v/>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F852" s="39" t="str">
-        <f aca="false">IF(E852="","",B852&amp;"-"&amp;E852)</f>
+      <c r="F852" s="46" t="str">
+        <f aca="false">IF(C852="","",B852&amp;"-"&amp;C852&amp;"-"&amp;E852)</f>
         <v/>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F853" s="39" t="str">
-        <f aca="false">IF(E853="","",B853&amp;"-"&amp;E853)</f>
+      <c r="F853" s="46" t="str">
+        <f aca="false">IF(C853="","",B853&amp;"-"&amp;C853&amp;"-"&amp;E853)</f>
         <v/>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F854" s="39" t="str">
-        <f aca="false">IF(E854="","",B854&amp;"-"&amp;E854)</f>
+      <c r="F854" s="46" t="str">
+        <f aca="false">IF(C854="","",B854&amp;"-"&amp;C854&amp;"-"&amp;E854)</f>
         <v/>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F855" s="39" t="str">
-        <f aca="false">IF(E855="","",B855&amp;"-"&amp;E855)</f>
+      <c r="F855" s="46" t="str">
+        <f aca="false">IF(C855="","",B855&amp;"-"&amp;C855&amp;"-"&amp;E855)</f>
         <v/>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F856" s="39" t="str">
-        <f aca="false">IF(E856="","",B856&amp;"-"&amp;E856)</f>
+      <c r="F856" s="46" t="str">
+        <f aca="false">IF(C856="","",B856&amp;"-"&amp;C856&amp;"-"&amp;E856)</f>
         <v/>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F857" s="39" t="str">
-        <f aca="false">IF(E857="","",B857&amp;"-"&amp;E857)</f>
+      <c r="F857" s="46" t="str">
+        <f aca="false">IF(C857="","",B857&amp;"-"&amp;C857&amp;"-"&amp;E857)</f>
         <v/>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F858" s="39" t="str">
-        <f aca="false">IF(E858="","",B858&amp;"-"&amp;E858)</f>
+      <c r="F858" s="46" t="str">
+        <f aca="false">IF(C858="","",B858&amp;"-"&amp;C858&amp;"-"&amp;E858)</f>
         <v/>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F859" s="39" t="str">
-        <f aca="false">IF(E859="","",B859&amp;"-"&amp;E859)</f>
+      <c r="F859" s="46" t="str">
+        <f aca="false">IF(C859="","",B859&amp;"-"&amp;C859&amp;"-"&amp;E859)</f>
         <v/>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F860" s="39" t="str">
-        <f aca="false">IF(E860="","",B860&amp;"-"&amp;E860)</f>
+      <c r="F860" s="46" t="str">
+        <f aca="false">IF(C860="","",B860&amp;"-"&amp;C860&amp;"-"&amp;E860)</f>
         <v/>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F861" s="39" t="str">
-        <f aca="false">IF(E861="","",B861&amp;"-"&amp;E861)</f>
+      <c r="F861" s="46" t="str">
+        <f aca="false">IF(C861="","",B861&amp;"-"&amp;C861&amp;"-"&amp;E861)</f>
         <v/>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F862" s="39" t="str">
-        <f aca="false">IF(E862="","",B862&amp;"-"&amp;E862)</f>
+      <c r="F862" s="46" t="str">
+        <f aca="false">IF(C862="","",B862&amp;"-"&amp;C862&amp;"-"&amp;E862)</f>
         <v/>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F863" s="39" t="str">
-        <f aca="false">IF(E863="","",B863&amp;"-"&amp;E863)</f>
+      <c r="F863" s="46" t="str">
+        <f aca="false">IF(C863="","",B863&amp;"-"&amp;C863&amp;"-"&amp;E863)</f>
         <v/>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F864" s="39" t="str">
-        <f aca="false">IF(E864="","",B864&amp;"-"&amp;E864)</f>
+      <c r="F864" s="46" t="str">
+        <f aca="false">IF(C864="","",B864&amp;"-"&amp;C864&amp;"-"&amp;E864)</f>
         <v/>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F865" s="39" t="str">
-        <f aca="false">IF(E865="","",B865&amp;"-"&amp;E865)</f>
+      <c r="F865" s="46" t="str">
+        <f aca="false">IF(C865="","",B865&amp;"-"&amp;C865&amp;"-"&amp;E865)</f>
         <v/>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F866" s="39" t="str">
-        <f aca="false">IF(E866="","",B866&amp;"-"&amp;E866)</f>
+      <c r="F866" s="46" t="str">
+        <f aca="false">IF(C866="","",B866&amp;"-"&amp;C866&amp;"-"&amp;E866)</f>
         <v/>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F867" s="39" t="str">
-        <f aca="false">IF(E867="","",B867&amp;"-"&amp;E867)</f>
+      <c r="F867" s="46" t="str">
+        <f aca="false">IF(C867="","",B867&amp;"-"&amp;C867&amp;"-"&amp;E867)</f>
         <v/>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F868" s="39" t="str">
-        <f aca="false">IF(E868="","",B868&amp;"-"&amp;E868)</f>
+      <c r="F868" s="46" t="str">
+        <f aca="false">IF(C868="","",B868&amp;"-"&amp;C868&amp;"-"&amp;E868)</f>
         <v/>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F869" s="39" t="str">
-        <f aca="false">IF(E869="","",B869&amp;"-"&amp;E869)</f>
+      <c r="F869" s="46" t="str">
+        <f aca="false">IF(C869="","",B869&amp;"-"&amp;C869&amp;"-"&amp;E869)</f>
         <v/>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F870" s="39" t="str">
-        <f aca="false">IF(E870="","",B870&amp;"-"&amp;E870)</f>
+      <c r="F870" s="46" t="str">
+        <f aca="false">IF(C870="","",B870&amp;"-"&amp;C870&amp;"-"&amp;E870)</f>
         <v/>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F871" s="39" t="str">
-        <f aca="false">IF(E871="","",B871&amp;"-"&amp;E871)</f>
+      <c r="F871" s="46" t="str">
+        <f aca="false">IF(C871="","",B871&amp;"-"&amp;C871&amp;"-"&amp;E871)</f>
         <v/>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F872" s="39" t="str">
-        <f aca="false">IF(E872="","",B872&amp;"-"&amp;E872)</f>
+      <c r="F872" s="46" t="str">
+        <f aca="false">IF(C872="","",B872&amp;"-"&amp;C872&amp;"-"&amp;E872)</f>
         <v/>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F873" s="39" t="str">
-        <f aca="false">IF(E873="","",B873&amp;"-"&amp;E873)</f>
+      <c r="F873" s="46" t="str">
+        <f aca="false">IF(C873="","",B873&amp;"-"&amp;C873&amp;"-"&amp;E873)</f>
         <v/>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F874" s="39" t="str">
-        <f aca="false">IF(E874="","",B874&amp;"-"&amp;E874)</f>
+      <c r="F874" s="46" t="str">
+        <f aca="false">IF(C874="","",B874&amp;"-"&amp;C874&amp;"-"&amp;E874)</f>
         <v/>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F875" s="39" t="str">
-        <f aca="false">IF(E875="","",B875&amp;"-"&amp;E875)</f>
+      <c r="F875" s="46" t="str">
+        <f aca="false">IF(C875="","",B875&amp;"-"&amp;C875&amp;"-"&amp;E875)</f>
         <v/>
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F876" s="39" t="str">
-        <f aca="false">IF(E876="","",B876&amp;"-"&amp;E876)</f>
+      <c r="F876" s="46" t="str">
+        <f aca="false">IF(C876="","",B876&amp;"-"&amp;C876&amp;"-"&amp;E876)</f>
         <v/>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F877" s="39" t="str">
-        <f aca="false">IF(E877="","",B877&amp;"-"&amp;E877)</f>
+      <c r="F877" s="46" t="str">
+        <f aca="false">IF(C877="","",B877&amp;"-"&amp;C877&amp;"-"&amp;E877)</f>
         <v/>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F878" s="39" t="str">
-        <f aca="false">IF(E878="","",B878&amp;"-"&amp;E878)</f>
+      <c r="F878" s="46" t="str">
+        <f aca="false">IF(C878="","",B878&amp;"-"&amp;C878&amp;"-"&amp;E878)</f>
         <v/>
       </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F879" s="39" t="str">
-        <f aca="false">IF(E879="","",B879&amp;"-"&amp;E879)</f>
+      <c r="F879" s="46" t="str">
+        <f aca="false">IF(C879="","",B879&amp;"-"&amp;C879&amp;"-"&amp;E879)</f>
         <v/>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F880" s="39" t="str">
-        <f aca="false">IF(E880="","",B880&amp;"-"&amp;E880)</f>
+      <c r="F880" s="46" t="str">
+        <f aca="false">IF(C880="","",B880&amp;"-"&amp;C880&amp;"-"&amp;E880)</f>
         <v/>
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F881" s="39" t="str">
-        <f aca="false">IF(E881="","",B881&amp;"-"&amp;E881)</f>
+      <c r="F881" s="46" t="str">
+        <f aca="false">IF(C881="","",B881&amp;"-"&amp;C881&amp;"-"&amp;E881)</f>
         <v/>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F882" s="39" t="str">
-        <f aca="false">IF(E882="","",B882&amp;"-"&amp;E882)</f>
+      <c r="F882" s="46" t="str">
+        <f aca="false">IF(C882="","",B882&amp;"-"&amp;C882&amp;"-"&amp;E882)</f>
         <v/>
       </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F883" s="39" t="str">
-        <f aca="false">IF(E883="","",B883&amp;"-"&amp;E883)</f>
+      <c r="F883" s="46" t="str">
+        <f aca="false">IF(C883="","",B883&amp;"-"&amp;C883&amp;"-"&amp;E883)</f>
         <v/>
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F884" s="39" t="str">
-        <f aca="false">IF(E884="","",B884&amp;"-"&amp;E884)</f>
+      <c r="F884" s="46" t="str">
+        <f aca="false">IF(C884="","",B884&amp;"-"&amp;C884&amp;"-"&amp;E884)</f>
         <v/>
       </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F885" s="39" t="str">
-        <f aca="false">IF(E885="","",B885&amp;"-"&amp;E885)</f>
+      <c r="F885" s="46" t="str">
+        <f aca="false">IF(C885="","",B885&amp;"-"&amp;C885&amp;"-"&amp;E885)</f>
         <v/>
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F886" s="39" t="str">
-        <f aca="false">IF(E886="","",B886&amp;"-"&amp;E886)</f>
+      <c r="F886" s="46" t="str">
+        <f aca="false">IF(C886="","",B886&amp;"-"&amp;C886&amp;"-"&amp;E886)</f>
         <v/>
       </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F887" s="39" t="str">
-        <f aca="false">IF(E887="","",B887&amp;"-"&amp;E887)</f>
+      <c r="F887" s="46" t="str">
+        <f aca="false">IF(C887="","",B887&amp;"-"&amp;C887&amp;"-"&amp;E887)</f>
         <v/>
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F888" s="39" t="str">
-        <f aca="false">IF(E888="","",B888&amp;"-"&amp;E888)</f>
+      <c r="F888" s="46" t="str">
+        <f aca="false">IF(C888="","",B888&amp;"-"&amp;C888&amp;"-"&amp;E888)</f>
         <v/>
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F889" s="39" t="str">
-        <f aca="false">IF(E889="","",B889&amp;"-"&amp;E889)</f>
+      <c r="F889" s="46" t="str">
+        <f aca="false">IF(C889="","",B889&amp;"-"&amp;C889&amp;"-"&amp;E889)</f>
         <v/>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F890" s="39" t="str">
-        <f aca="false">IF(E890="","",B890&amp;"-"&amp;E890)</f>
+      <c r="F890" s="46" t="str">
+        <f aca="false">IF(C890="","",B890&amp;"-"&amp;C890&amp;"-"&amp;E890)</f>
         <v/>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F891" s="39" t="str">
-        <f aca="false">IF(E891="","",B891&amp;"-"&amp;E891)</f>
+      <c r="F891" s="46" t="str">
+        <f aca="false">IF(C891="","",B891&amp;"-"&amp;C891&amp;"-"&amp;E891)</f>
         <v/>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F892" s="39" t="str">
-        <f aca="false">IF(E892="","",B892&amp;"-"&amp;E892)</f>
+      <c r="F892" s="46" t="str">
+        <f aca="false">IF(C892="","",B892&amp;"-"&amp;C892&amp;"-"&amp;E892)</f>
         <v/>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F893" s="39" t="str">
-        <f aca="false">IF(E893="","",B893&amp;"-"&amp;E893)</f>
+      <c r="F893" s="46" t="str">
+        <f aca="false">IF(C893="","",B893&amp;"-"&amp;C893&amp;"-"&amp;E893)</f>
         <v/>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F894" s="39" t="str">
-        <f aca="false">IF(E894="","",B894&amp;"-"&amp;E894)</f>
+      <c r="F894" s="46" t="str">
+        <f aca="false">IF(C894="","",B894&amp;"-"&amp;C894&amp;"-"&amp;E894)</f>
         <v/>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F895" s="39" t="str">
-        <f aca="false">IF(E895="","",B895&amp;"-"&amp;E895)</f>
+      <c r="F895" s="46" t="str">
+        <f aca="false">IF(C895="","",B895&amp;"-"&amp;C895&amp;"-"&amp;E895)</f>
         <v/>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F896" s="39" t="str">
-        <f aca="false">IF(E896="","",B896&amp;"-"&amp;E896)</f>
+      <c r="F896" s="46" t="str">
+        <f aca="false">IF(C896="","",B896&amp;"-"&amp;C896&amp;"-"&amp;E896)</f>
         <v/>
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F897" s="39" t="str">
-        <f aca="false">IF(E897="","",B897&amp;"-"&amp;E897)</f>
+      <c r="F897" s="46" t="str">
+        <f aca="false">IF(C897="","",B897&amp;"-"&amp;C897&amp;"-"&amp;E897)</f>
         <v/>
       </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F898" s="39" t="str">
-        <f aca="false">IF(E898="","",B898&amp;"-"&amp;E898)</f>
+      <c r="F898" s="46" t="str">
+        <f aca="false">IF(C898="","",B898&amp;"-"&amp;C898&amp;"-"&amp;E898)</f>
         <v/>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F899" s="39" t="str">
-        <f aca="false">IF(E899="","",B899&amp;"-"&amp;E899)</f>
+      <c r="F899" s="46" t="str">
+        <f aca="false">IF(C899="","",B899&amp;"-"&amp;C899&amp;"-"&amp;E899)</f>
         <v/>
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F900" s="39" t="str">
-        <f aca="false">IF(E900="","",B900&amp;"-"&amp;E900)</f>
+      <c r="F900" s="46" t="str">
+        <f aca="false">IF(C900="","",B900&amp;"-"&amp;C900&amp;"-"&amp;E900)</f>
         <v/>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F901" s="39" t="str">
-        <f aca="false">IF(E901="","",B901&amp;"-"&amp;E901)</f>
+      <c r="F901" s="46" t="str">
+        <f aca="false">IF(C901="","",B901&amp;"-"&amp;C901&amp;"-"&amp;E901)</f>
         <v/>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F902" s="39" t="str">
-        <f aca="false">IF(E902="","",B902&amp;"-"&amp;E902)</f>
+      <c r="F902" s="46" t="str">
+        <f aca="false">IF(C902="","",B902&amp;"-"&amp;C902&amp;"-"&amp;E902)</f>
         <v/>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F903" s="39" t="str">
-        <f aca="false">IF(E903="","",B903&amp;"-"&amp;E903)</f>
+      <c r="F903" s="46" t="str">
+        <f aca="false">IF(C903="","",B903&amp;"-"&amp;C903&amp;"-"&amp;E903)</f>
         <v/>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F904" s="39" t="str">
-        <f aca="false">IF(E904="","",B904&amp;"-"&amp;E904)</f>
+      <c r="F904" s="46" t="str">
+        <f aca="false">IF(C904="","",B904&amp;"-"&amp;C904&amp;"-"&amp;E904)</f>
         <v/>
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F905" s="39" t="str">
-        <f aca="false">IF(E905="","",B905&amp;"-"&amp;E905)</f>
+      <c r="F905" s="46" t="str">
+        <f aca="false">IF(C905="","",B905&amp;"-"&amp;C905&amp;"-"&amp;E905)</f>
         <v/>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F906" s="39" t="str">
-        <f aca="false">IF(E906="","",B906&amp;"-"&amp;E906)</f>
+      <c r="F906" s="46" t="str">
+        <f aca="false">IF(C906="","",B906&amp;"-"&amp;C906&amp;"-"&amp;E906)</f>
         <v/>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F907" s="39" t="str">
-        <f aca="false">IF(E907="","",B907&amp;"-"&amp;E907)</f>
+      <c r="F907" s="46" t="str">
+        <f aca="false">IF(C907="","",B907&amp;"-"&amp;C907&amp;"-"&amp;E907)</f>
         <v/>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F908" s="39" t="str">
-        <f aca="false">IF(E908="","",B908&amp;"-"&amp;E908)</f>
+      <c r="F908" s="46" t="str">
+        <f aca="false">IF(C908="","",B908&amp;"-"&amp;C908&amp;"-"&amp;E908)</f>
         <v/>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F909" s="39" t="str">
-        <f aca="false">IF(E909="","",B909&amp;"-"&amp;E909)</f>
+      <c r="F909" s="46" t="str">
+        <f aca="false">IF(C909="","",B909&amp;"-"&amp;C909&amp;"-"&amp;E909)</f>
         <v/>
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F910" s="39" t="str">
-        <f aca="false">IF(E910="","",B910&amp;"-"&amp;E910)</f>
+      <c r="F910" s="46" t="str">
+        <f aca="false">IF(C910="","",B910&amp;"-"&amp;C910&amp;"-"&amp;E910)</f>
         <v/>
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F911" s="39" t="str">
-        <f aca="false">IF(E911="","",B911&amp;"-"&amp;E911)</f>
+      <c r="F911" s="46" t="str">
+        <f aca="false">IF(C911="","",B911&amp;"-"&amp;C911&amp;"-"&amp;E911)</f>
         <v/>
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F912" s="39" t="str">
-        <f aca="false">IF(E912="","",B912&amp;"-"&amp;E912)</f>
+      <c r="F912" s="46" t="str">
+        <f aca="false">IF(C912="","",B912&amp;"-"&amp;C912&amp;"-"&amp;E912)</f>
         <v/>
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F913" s="39" t="str">
-        <f aca="false">IF(E913="","",B913&amp;"-"&amp;E913)</f>
+      <c r="F913" s="46" t="str">
+        <f aca="false">IF(C913="","",B913&amp;"-"&amp;C913&amp;"-"&amp;E913)</f>
         <v/>
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F914" s="39" t="str">
-        <f aca="false">IF(E914="","",B914&amp;"-"&amp;E914)</f>
+      <c r="F914" s="46" t="str">
+        <f aca="false">IF(C914="","",B914&amp;"-"&amp;C914&amp;"-"&amp;E914)</f>
         <v/>
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F915" s="39" t="str">
-        <f aca="false">IF(E915="","",B915&amp;"-"&amp;E915)</f>
+      <c r="F915" s="46" t="str">
+        <f aca="false">IF(C915="","",B915&amp;"-"&amp;C915&amp;"-"&amp;E915)</f>
         <v/>
       </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F916" s="39" t="str">
-        <f aca="false">IF(E916="","",B916&amp;"-"&amp;E916)</f>
+      <c r="F916" s="46" t="str">
+        <f aca="false">IF(C916="","",B916&amp;"-"&amp;C916&amp;"-"&amp;E916)</f>
         <v/>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F917" s="39" t="str">
-        <f aca="false">IF(E917="","",B917&amp;"-"&amp;E917)</f>
+      <c r="F917" s="46" t="str">
+        <f aca="false">IF(C917="","",B917&amp;"-"&amp;C917&amp;"-"&amp;E917)</f>
         <v/>
       </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F918" s="39" t="str">
-        <f aca="false">IF(E918="","",B918&amp;"-"&amp;E918)</f>
+      <c r="F918" s="46" t="str">
+        <f aca="false">IF(C918="","",B918&amp;"-"&amp;C918&amp;"-"&amp;E918)</f>
         <v/>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F919" s="39" t="str">
-        <f aca="false">IF(E919="","",B919&amp;"-"&amp;E919)</f>
+      <c r="F919" s="46" t="str">
+        <f aca="false">IF(C919="","",B919&amp;"-"&amp;C919&amp;"-"&amp;E919)</f>
         <v/>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F920" s="39" t="str">
-        <f aca="false">IF(E920="","",B920&amp;"-"&amp;E920)</f>
+      <c r="F920" s="46" t="str">
+        <f aca="false">IF(C920="","",B920&amp;"-"&amp;C920&amp;"-"&amp;E920)</f>
         <v/>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F921" s="39" t="str">
-        <f aca="false">IF(E921="","",B921&amp;"-"&amp;E921)</f>
+      <c r="F921" s="46" t="str">
+        <f aca="false">IF(C921="","",B921&amp;"-"&amp;C921&amp;"-"&amp;E921)</f>
         <v/>
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F922" s="39" t="str">
-        <f aca="false">IF(E922="","",B922&amp;"-"&amp;E922)</f>
+      <c r="F922" s="46" t="str">
+        <f aca="false">IF(C922="","",B922&amp;"-"&amp;C922&amp;"-"&amp;E922)</f>
         <v/>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F923" s="39" t="str">
-        <f aca="false">IF(E923="","",B923&amp;"-"&amp;E923)</f>
+      <c r="F923" s="46" t="str">
+        <f aca="false">IF(C923="","",B923&amp;"-"&amp;C923&amp;"-"&amp;E923)</f>
         <v/>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F924" s="39" t="str">
-        <f aca="false">IF(E924="","",B924&amp;"-"&amp;E924)</f>
+      <c r="F924" s="46" t="str">
+        <f aca="false">IF(C924="","",B924&amp;"-"&amp;C924&amp;"-"&amp;E924)</f>
         <v/>
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F925" s="39" t="str">
-        <f aca="false">IF(E925="","",B925&amp;"-"&amp;E925)</f>
+      <c r="F925" s="46" t="str">
+        <f aca="false">IF(C925="","",B925&amp;"-"&amp;C925&amp;"-"&amp;E925)</f>
         <v/>
       </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F926" s="39" t="str">
-        <f aca="false">IF(E926="","",B926&amp;"-"&amp;E926)</f>
+      <c r="F926" s="46" t="str">
+        <f aca="false">IF(C926="","",B926&amp;"-"&amp;C926&amp;"-"&amp;E926)</f>
         <v/>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F927" s="39" t="str">
-        <f aca="false">IF(E927="","",B927&amp;"-"&amp;E927)</f>
+      <c r="F927" s="46" t="str">
+        <f aca="false">IF(C927="","",B927&amp;"-"&amp;C927&amp;"-"&amp;E927)</f>
         <v/>
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F928" s="39" t="str">
-        <f aca="false">IF(E928="","",B928&amp;"-"&amp;E928)</f>
+      <c r="F928" s="46" t="str">
+        <f aca="false">IF(C928="","",B928&amp;"-"&amp;C928&amp;"-"&amp;E928)</f>
         <v/>
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F929" s="39" t="str">
-        <f aca="false">IF(E929="","",B929&amp;"-"&amp;E929)</f>
+      <c r="F929" s="46" t="str">
+        <f aca="false">IF(C929="","",B929&amp;"-"&amp;C929&amp;"-"&amp;E929)</f>
         <v/>
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F930" s="39" t="str">
-        <f aca="false">IF(E930="","",B930&amp;"-"&amp;E930)</f>
+      <c r="F930" s="46" t="str">
+        <f aca="false">IF(C930="","",B930&amp;"-"&amp;C930&amp;"-"&amp;E930)</f>
         <v/>
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F931" s="39" t="str">
-        <f aca="false">IF(E931="","",B931&amp;"-"&amp;E931)</f>
+      <c r="F931" s="46" t="str">
+        <f aca="false">IF(C931="","",B931&amp;"-"&amp;C931&amp;"-"&amp;E931)</f>
         <v/>
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F932" s="39" t="str">
-        <f aca="false">IF(E932="","",B932&amp;"-"&amp;E932)</f>
+      <c r="F932" s="46" t="str">
+        <f aca="false">IF(C932="","",B932&amp;"-"&amp;C932&amp;"-"&amp;E932)</f>
         <v/>
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F933" s="39" t="str">
-        <f aca="false">IF(E933="","",B933&amp;"-"&amp;E933)</f>
+      <c r="F933" s="46" t="str">
+        <f aca="false">IF(C933="","",B933&amp;"-"&amp;C933&amp;"-"&amp;E933)</f>
         <v/>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F934" s="39" t="str">
-        <f aca="false">IF(E934="","",B934&amp;"-"&amp;E934)</f>
+      <c r="F934" s="46" t="str">
+        <f aca="false">IF(C934="","",B934&amp;"-"&amp;C934&amp;"-"&amp;E934)</f>
         <v/>
       </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F935" s="39" t="str">
-        <f aca="false">IF(E935="","",B935&amp;"-"&amp;E935)</f>
+      <c r="F935" s="46" t="str">
+        <f aca="false">IF(C935="","",B935&amp;"-"&amp;C935&amp;"-"&amp;E935)</f>
         <v/>
       </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F936" s="39" t="str">
-        <f aca="false">IF(E936="","",B936&amp;"-"&amp;E936)</f>
+      <c r="F936" s="46" t="str">
+        <f aca="false">IF(C936="","",B936&amp;"-"&amp;C936&amp;"-"&amp;E936)</f>
         <v/>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F937" s="39" t="str">
-        <f aca="false">IF(E937="","",B937&amp;"-"&amp;E937)</f>
+      <c r="F937" s="46" t="str">
+        <f aca="false">IF(C937="","",B937&amp;"-"&amp;C937&amp;"-"&amp;E937)</f>
         <v/>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F938" s="39" t="str">
-        <f aca="false">IF(E938="","",B938&amp;"-"&amp;E938)</f>
+      <c r="F938" s="46" t="str">
+        <f aca="false">IF(C938="","",B938&amp;"-"&amp;C938&amp;"-"&amp;E938)</f>
         <v/>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F939" s="39" t="str">
-        <f aca="false">IF(E939="","",B939&amp;"-"&amp;E939)</f>
+      <c r="F939" s="46" t="str">
+        <f aca="false">IF(C939="","",B939&amp;"-"&amp;C939&amp;"-"&amp;E939)</f>
         <v/>
       </c>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F940" s="39" t="str">
-        <f aca="false">IF(E940="","",B940&amp;"-"&amp;E940)</f>
+      <c r="F940" s="46" t="str">
+        <f aca="false">IF(C940="","",B940&amp;"-"&amp;C940&amp;"-"&amp;E940)</f>
         <v/>
       </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F941" s="39" t="str">
-        <f aca="false">IF(E941="","",B941&amp;"-"&amp;E941)</f>
+      <c r="F941" s="46" t="str">
+        <f aca="false">IF(C941="","",B941&amp;"-"&amp;C941&amp;"-"&amp;E941)</f>
         <v/>
       </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F942" s="39" t="str">
-        <f aca="false">IF(E942="","",B942&amp;"-"&amp;E942)</f>
+      <c r="F942" s="46" t="str">
+        <f aca="false">IF(C942="","",B942&amp;"-"&amp;C942&amp;"-"&amp;E942)</f>
         <v/>
       </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F943" s="39" t="str">
-        <f aca="false">IF(E943="","",B943&amp;"-"&amp;E943)</f>
+      <c r="F943" s="46" t="str">
+        <f aca="false">IF(C943="","",B943&amp;"-"&amp;C943&amp;"-"&amp;E943)</f>
         <v/>
       </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F944" s="39" t="str">
-        <f aca="false">IF(E944="","",B944&amp;"-"&amp;E944)</f>
+      <c r="F944" s="46" t="str">
+        <f aca="false">IF(C944="","",B944&amp;"-"&amp;C944&amp;"-"&amp;E944)</f>
         <v/>
       </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F945" s="39" t="str">
-        <f aca="false">IF(E945="","",B945&amp;"-"&amp;E945)</f>
+      <c r="F945" s="46" t="str">
+        <f aca="false">IF(C945="","",B945&amp;"-"&amp;C945&amp;"-"&amp;E945)</f>
         <v/>
       </c>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F946" s="39" t="str">
-        <f aca="false">IF(E946="","",B946&amp;"-"&amp;E946)</f>
+      <c r="F946" s="46" t="str">
+        <f aca="false">IF(C946="","",B946&amp;"-"&amp;C946&amp;"-"&amp;E946)</f>
         <v/>
       </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F947" s="39" t="str">
-        <f aca="false">IF(E947="","",B947&amp;"-"&amp;E947)</f>
+      <c r="F947" s="46" t="str">
+        <f aca="false">IF(C947="","",B947&amp;"-"&amp;C947&amp;"-"&amp;E947)</f>
         <v/>
       </c>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F948" s="39" t="str">
-        <f aca="false">IF(E948="","",B948&amp;"-"&amp;E948)</f>
+      <c r="F948" s="46" t="str">
+        <f aca="false">IF(C948="","",B948&amp;"-"&amp;C948&amp;"-"&amp;E948)</f>
         <v/>
       </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F949" s="39" t="str">
-        <f aca="false">IF(E949="","",B949&amp;"-"&amp;E949)</f>
+      <c r="F949" s="46" t="str">
+        <f aca="false">IF(C949="","",B949&amp;"-"&amp;C949&amp;"-"&amp;E949)</f>
         <v/>
       </c>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F950" s="39" t="str">
-        <f aca="false">IF(E950="","",B950&amp;"-"&amp;E950)</f>
+      <c r="F950" s="46" t="str">
+        <f aca="false">IF(C950="","",B950&amp;"-"&amp;C950&amp;"-"&amp;E950)</f>
         <v/>
       </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F951" s="39" t="str">
-        <f aca="false">IF(E951="","",B951&amp;"-"&amp;E951)</f>
+      <c r="F951" s="46" t="str">
+        <f aca="false">IF(C951="","",B951&amp;"-"&amp;C951&amp;"-"&amp;E951)</f>
         <v/>
       </c>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F952" s="39" t="str">
-        <f aca="false">IF(E952="","",B952&amp;"-"&amp;E952)</f>
+      <c r="F952" s="46" t="str">
+        <f aca="false">IF(C952="","",B952&amp;"-"&amp;C952&amp;"-"&amp;E952)</f>
         <v/>
       </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F953" s="39" t="str">
-        <f aca="false">IF(E953="","",B953&amp;"-"&amp;E953)</f>
+      <c r="F953" s="46" t="str">
+        <f aca="false">IF(C953="","",B953&amp;"-"&amp;C953&amp;"-"&amp;E953)</f>
         <v/>
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F954" s="39" t="str">
-        <f aca="false">IF(E954="","",B954&amp;"-"&amp;E954)</f>
+      <c r="F954" s="46" t="str">
+        <f aca="false">IF(C954="","",B954&amp;"-"&amp;C954&amp;"-"&amp;E954)</f>
         <v/>
       </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F955" s="39" t="str">
-        <f aca="false">IF(E955="","",B955&amp;"-"&amp;E955)</f>
+      <c r="F955" s="46" t="str">
+        <f aca="false">IF(C955="","",B955&amp;"-"&amp;C955&amp;"-"&amp;E955)</f>
         <v/>
       </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F956" s="39" t="str">
-        <f aca="false">IF(E956="","",B956&amp;"-"&amp;E956)</f>
+      <c r="F956" s="46" t="str">
+        <f aca="false">IF(C956="","",B956&amp;"-"&amp;C956&amp;"-"&amp;E956)</f>
         <v/>
       </c>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F957" s="39" t="str">
-        <f aca="false">IF(E957="","",B957&amp;"-"&amp;E957)</f>
+      <c r="F957" s="46" t="str">
+        <f aca="false">IF(C957="","",B957&amp;"-"&amp;C957&amp;"-"&amp;E957)</f>
         <v/>
       </c>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F958" s="39" t="str">
-        <f aca="false">IF(E958="","",B958&amp;"-"&amp;E958)</f>
+      <c r="F958" s="46" t="str">
+        <f aca="false">IF(C958="","",B958&amp;"-"&amp;C958&amp;"-"&amp;E958)</f>
         <v/>
       </c>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F959" s="39" t="str">
-        <f aca="false">IF(E959="","",B959&amp;"-"&amp;E959)</f>
+      <c r="F959" s="46" t="str">
+        <f aca="false">IF(C959="","",B959&amp;"-"&amp;C959&amp;"-"&amp;E959)</f>
         <v/>
       </c>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F960" s="39" t="str">
-        <f aca="false">IF(E960="","",B960&amp;"-"&amp;E960)</f>
+      <c r="F960" s="46" t="str">
+        <f aca="false">IF(C960="","",B960&amp;"-"&amp;C960&amp;"-"&amp;E960)</f>
         <v/>
       </c>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F961" s="39" t="str">
-        <f aca="false">IF(E961="","",B961&amp;"-"&amp;E961)</f>
+      <c r="F961" s="46" t="str">
+        <f aca="false">IF(C961="","",B961&amp;"-"&amp;C961&amp;"-"&amp;E961)</f>
         <v/>
       </c>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F962" s="39" t="str">
-        <f aca="false">IF(E962="","",B962&amp;"-"&amp;E962)</f>
+      <c r="F962" s="46" t="str">
+        <f aca="false">IF(C962="","",B962&amp;"-"&amp;C962&amp;"-"&amp;E962)</f>
         <v/>
       </c>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F963" s="39" t="str">
-        <f aca="false">IF(E963="","",B963&amp;"-"&amp;E963)</f>
+      <c r="F963" s="46" t="str">
+        <f aca="false">IF(C963="","",B963&amp;"-"&amp;C963&amp;"-"&amp;E963)</f>
         <v/>
       </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F964" s="39" t="str">
-        <f aca="false">IF(E964="","",B964&amp;"-"&amp;E964)</f>
+      <c r="F964" s="46" t="str">
+        <f aca="false">IF(C964="","",B964&amp;"-"&amp;C964&amp;"-"&amp;E964)</f>
         <v/>
       </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F965" s="39" t="str">
-        <f aca="false">IF(E965="","",B965&amp;"-"&amp;E965)</f>
+      <c r="F965" s="46" t="str">
+        <f aca="false">IF(C965="","",B965&amp;"-"&amp;C965&amp;"-"&amp;E965)</f>
         <v/>
       </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F966" s="39" t="str">
-        <f aca="false">IF(E966="","",B966&amp;"-"&amp;E966)</f>
+      <c r="F966" s="46" t="str">
+        <f aca="false">IF(C966="","",B966&amp;"-"&amp;C966&amp;"-"&amp;E966)</f>
         <v/>
       </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F967" s="39" t="str">
-        <f aca="false">IF(E967="","",B967&amp;"-"&amp;E967)</f>
+      <c r="F967" s="46" t="str">
+        <f aca="false">IF(C967="","",B967&amp;"-"&amp;C967&amp;"-"&amp;E967)</f>
         <v/>
       </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F968" s="39" t="str">
-        <f aca="false">IF(E968="","",B968&amp;"-"&amp;E968)</f>
+      <c r="F968" s="46" t="str">
+        <f aca="false">IF(C968="","",B968&amp;"-"&amp;C968&amp;"-"&amp;E968)</f>
         <v/>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F969" s="39" t="str">
-        <f aca="false">IF(E969="","",B969&amp;"-"&amp;E969)</f>
+      <c r="F969" s="46" t="str">
+        <f aca="false">IF(C969="","",B969&amp;"-"&amp;C969&amp;"-"&amp;E969)</f>
         <v/>
       </c>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F970" s="39" t="str">
-        <f aca="false">IF(E970="","",B970&amp;"-"&amp;E970)</f>
+      <c r="F970" s="46" t="str">
+        <f aca="false">IF(C970="","",B970&amp;"-"&amp;C970&amp;"-"&amp;E970)</f>
         <v/>
       </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F971" s="39" t="str">
-        <f aca="false">IF(E971="","",B971&amp;"-"&amp;E971)</f>
+      <c r="F971" s="46" t="str">
+        <f aca="false">IF(C971="","",B971&amp;"-"&amp;C971&amp;"-"&amp;E971)</f>
         <v/>
       </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F972" s="39" t="str">
-        <f aca="false">IF(E972="","",B972&amp;"-"&amp;E972)</f>
+      <c r="F972" s="46" t="str">
+        <f aca="false">IF(C972="","",B972&amp;"-"&amp;C972&amp;"-"&amp;E972)</f>
         <v/>
       </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F973" s="39" t="str">
-        <f aca="false">IF(E973="","",B973&amp;"-"&amp;E973)</f>
+      <c r="F973" s="46" t="str">
+        <f aca="false">IF(C973="","",B973&amp;"-"&amp;C973&amp;"-"&amp;E973)</f>
         <v/>
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F974" s="39" t="str">
-        <f aca="false">IF(E974="","",B974&amp;"-"&amp;E974)</f>
+      <c r="F974" s="46" t="str">
+        <f aca="false">IF(C974="","",B974&amp;"-"&amp;C974&amp;"-"&amp;E974)</f>
         <v/>
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F975" s="39" t="str">
-        <f aca="false">IF(E975="","",B975&amp;"-"&amp;E975)</f>
+      <c r="F975" s="46" t="str">
+        <f aca="false">IF(C975="","",B975&amp;"-"&amp;C975&amp;"-"&amp;E975)</f>
         <v/>
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F976" s="39" t="str">
-        <f aca="false">IF(E976="","",B976&amp;"-"&amp;E976)</f>
+      <c r="F976" s="46" t="str">
+        <f aca="false">IF(C976="","",B976&amp;"-"&amp;C976&amp;"-"&amp;E976)</f>
         <v/>
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F977" s="39" t="str">
-        <f aca="false">IF(E977="","",B977&amp;"-"&amp;E977)</f>
+      <c r="F977" s="46" t="str">
+        <f aca="false">IF(C977="","",B977&amp;"-"&amp;C977&amp;"-"&amp;E977)</f>
         <v/>
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F978" s="39" t="str">
-        <f aca="false">IF(E978="","",B978&amp;"-"&amp;E978)</f>
+      <c r="F978" s="46" t="str">
+        <f aca="false">IF(C978="","",B978&amp;"-"&amp;C978&amp;"-"&amp;E978)</f>
         <v/>
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F979" s="39" t="str">
-        <f aca="false">IF(E979="","",B979&amp;"-"&amp;E979)</f>
+      <c r="F979" s="46" t="str">
+        <f aca="false">IF(C979="","",B979&amp;"-"&amp;C979&amp;"-"&amp;E979)</f>
         <v/>
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F980" s="39" t="str">
-        <f aca="false">IF(E980="","",B980&amp;"-"&amp;E980)</f>
+      <c r="F980" s="46" t="str">
+        <f aca="false">IF(C980="","",B980&amp;"-"&amp;C980&amp;"-"&amp;E980)</f>
         <v/>
       </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F981" s="39" t="str">
-        <f aca="false">IF(E981="","",B981&amp;"-"&amp;E981)</f>
+      <c r="F981" s="46" t="str">
+        <f aca="false">IF(C981="","",B981&amp;"-"&amp;C981&amp;"-"&amp;E981)</f>
         <v/>
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F982" s="39" t="str">
-        <f aca="false">IF(E982="","",B982&amp;"-"&amp;E982)</f>
+      <c r="F982" s="46" t="str">
+        <f aca="false">IF(C982="","",B982&amp;"-"&amp;C982&amp;"-"&amp;E982)</f>
         <v/>
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F983" s="39" t="str">
-        <f aca="false">IF(E983="","",B983&amp;"-"&amp;E983)</f>
+      <c r="F983" s="46" t="str">
+        <f aca="false">IF(C983="","",B983&amp;"-"&amp;C983&amp;"-"&amp;E983)</f>
         <v/>
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F984" s="39" t="str">
-        <f aca="false">IF(E984="","",B984&amp;"-"&amp;E984)</f>
+      <c r="F984" s="46" t="str">
+        <f aca="false">IF(C984="","",B984&amp;"-"&amp;C984&amp;"-"&amp;E984)</f>
         <v/>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F985" s="39" t="str">
-        <f aca="false">IF(E985="","",B985&amp;"-"&amp;E985)</f>
+      <c r="F985" s="46" t="str">
+        <f aca="false">IF(C985="","",B985&amp;"-"&amp;C985&amp;"-"&amp;E985)</f>
         <v/>
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F986" s="39" t="str">
-        <f aca="false">IF(E986="","",B986&amp;"-"&amp;E986)</f>
+      <c r="F986" s="46" t="str">
+        <f aca="false">IF(C986="","",B986&amp;"-"&amp;C986&amp;"-"&amp;E986)</f>
         <v/>
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F987" s="39" t="str">
-        <f aca="false">IF(E987="","",B987&amp;"-"&amp;E987)</f>
+      <c r="F987" s="46" t="str">
+        <f aca="false">IF(C987="","",B987&amp;"-"&amp;C987&amp;"-"&amp;E987)</f>
         <v/>
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F988" s="39" t="str">
-        <f aca="false">IF(E988="","",B988&amp;"-"&amp;E988)</f>
+      <c r="F988" s="46" t="str">
+        <f aca="false">IF(C988="","",B988&amp;"-"&amp;C988&amp;"-"&amp;E988)</f>
         <v/>
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F989" s="39" t="str">
-        <f aca="false">IF(E989="","",B989&amp;"-"&amp;E989)</f>
+      <c r="F989" s="46" t="str">
+        <f aca="false">IF(C989="","",B989&amp;"-"&amp;C989&amp;"-"&amp;E989)</f>
         <v/>
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F990" s="39" t="str">
-        <f aca="false">IF(E990="","",B990&amp;"-"&amp;E990)</f>
+      <c r="F990" s="46" t="str">
+        <f aca="false">IF(C990="","",B990&amp;"-"&amp;C990&amp;"-"&amp;E990)</f>
         <v/>
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F991" s="39" t="str">
-        <f aca="false">IF(E991="","",B991&amp;"-"&amp;E991)</f>
+      <c r="F991" s="46" t="str">
+        <f aca="false">IF(C991="","",B991&amp;"-"&amp;C991&amp;"-"&amp;E991)</f>
         <v/>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F992" s="39" t="str">
-        <f aca="false">IF(E992="","",B992&amp;"-"&amp;E992)</f>
+      <c r="F992" s="46" t="str">
+        <f aca="false">IF(C992="","",B992&amp;"-"&amp;C992&amp;"-"&amp;E992)</f>
         <v/>
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F993" s="39" t="str">
-        <f aca="false">IF(E993="","",B993&amp;"-"&amp;E993)</f>
+      <c r="F993" s="46" t="str">
+        <f aca="false">IF(C993="","",B993&amp;"-"&amp;C993&amp;"-"&amp;E993)</f>
         <v/>
       </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F994" s="39" t="str">
-        <f aca="false">IF(E994="","",B994&amp;"-"&amp;E994)</f>
+      <c r="F994" s="46" t="str">
+        <f aca="false">IF(C994="","",B994&amp;"-"&amp;C994&amp;"-"&amp;E994)</f>
         <v/>
       </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F995" s="39" t="str">
-        <f aca="false">IF(E995="","",B995&amp;"-"&amp;E995)</f>
+      <c r="F995" s="46" t="str">
+        <f aca="false">IF(C995="","",B995&amp;"-"&amp;C995&amp;"-"&amp;E995)</f>
         <v/>
       </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F996" s="39" t="str">
-        <f aca="false">IF(E996="","",B996&amp;"-"&amp;E996)</f>
+      <c r="F996" s="46" t="str">
+        <f aca="false">IF(C996="","",B996&amp;"-"&amp;C996&amp;"-"&amp;E996)</f>
         <v/>
       </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F997" s="39" t="str">
-        <f aca="false">IF(E997="","",B997&amp;"-"&amp;E997)</f>
+      <c r="F997" s="46" t="str">
+        <f aca="false">IF(C997="","",B997&amp;"-"&amp;C997&amp;"-"&amp;E997)</f>
         <v/>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F998" s="39" t="str">
-        <f aca="false">IF(E998="","",B998&amp;"-"&amp;E998)</f>
+      <c r="F998" s="46" t="str">
+        <f aca="false">IF(C998="","",B998&amp;"-"&amp;C998&amp;"-"&amp;E998)</f>
         <v/>
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F999" s="39" t="str">
-        <f aca="false">IF(E999="","",B999&amp;"-"&amp;E999)</f>
+      <c r="F999" s="46" t="str">
+        <f aca="false">IF(C999="","",B999&amp;"-"&amp;C999&amp;"-"&amp;E999)</f>
         <v/>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1000" s="39" t="str">
-        <f aca="false">IF(E1000="","",B1000&amp;"-"&amp;E1000)</f>
+      <c r="F1000" s="46" t="str">
+        <f aca="false">IF(C1000="","",B1000&amp;"-"&amp;C1000&amp;"-"&amp;E1000)</f>
         <v/>
       </c>
     </row>
@@ -16084,7 +16094,7 @@
   </sheetPr>
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
@@ -16105,10 +16115,10 @@
     </row>
     <row r="3" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" s="42" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16163,7 +16173,7 @@
   </sheetPr>
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
@@ -16186,10 +16196,10 @@
     </row>
     <row r="3" s="40" customFormat="true" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" s="42" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16224,7 +16234,7 @@
   </sheetPr>
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -16235,12 +16245,12 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="0.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="78.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="48" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="48" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="48" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="49" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="49" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="49" width="78.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="49" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="49" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="49" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.79"/>
   </cols>
   <sheetData>
@@ -16252,22 +16262,22 @@
     </row>
     <row r="3" s="40" customFormat="true" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="48" t="s">
         <v>45</v>
       </c>
     </row>

--- a/pabi_budget_plan/xlsx_template/budget_plan_unit_base_20180208.xlsx
+++ b/pabi_budget_plan/xlsx_template/budget_plan_unit_base_20180208.xlsx
@@ -5632,7 +5632,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5997,50 +5997,17 @@
         <v>0</v>
       </c>
       <c r="K11" s="23"/>
-      <c r="L11" s="25" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="26" t="n">
-        <f aca="false">$J11/12</f>
-        <v>0</v>
-      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="27"/>
       <c r="X11" s="23" t="n">
         <f aca="false">SUM(L11:W11)</f>
@@ -10058,9 +10025,9 @@
   <dimension ref="B1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
